--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E785B0-0090-4B1D-B522-1F75C42D2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D7B580-00A6-4EA6-9D93-74C5FAD2A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descargados!$B$2:$B$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t>Nro</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>Esta columna sirve solo para colocar un filtro (las filas filtradas no las ejecuta el bot)</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Columna con los directorios donde se busca guardar los archivos</t>
+  </si>
+  <si>
+    <t>C:\Users\Agustin Bustos\Desktop\Test</t>
   </si>
 </sst>
 </file>
@@ -3614,11 +3623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,15 +3637,15 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
-    <col min="10" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3659,55 +3668,58 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>767</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>216</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>"Nombre del cliente "&amp;P2</f>
+        <f>"Nombre del cliente "&amp;Q2</f>
         <v>Nombre del cliente 2</v>
       </c>
       <c r="C2">
@@ -3726,70 +3738,73 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="str">
         <f>TEXT(F2,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f>TEXT(L2,"DDMMAAAA")</f>
+      <c r="J2" s="2" t="str">
+        <f>TEXT(M2,"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J66" si="2">CONCATENATE(TEXT(A2,"0")," - ",J$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K66" si="2">CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="L2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L33" si="3">EOMONTH(F2,0)</f>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2:M33" si="3">EOMONTH(F2,0)</f>
         <v>44985</v>
       </c>
-      <c r="M2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;Q2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N2" s="4" t="e">
+      <c r="O2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O2" s="5" t="e">
-        <f t="shared" ref="O2:O33" si="4">IF(EXACT(N2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="5">ROW(A2)</f>
+      <c r="P2" s="5" t="e">
+        <f t="shared" ref="P2:P33" si="4">IF(EXACT(O2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q33" si="5">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" ref="Q2:Q33" si="6">TEXT(F2,"AAAAMM")</f>
+      <c r="R2" s="4" t="str">
+        <f t="shared" ref="R2:R33" si="6">TEXT(F2,"AAAAMM")</f>
         <v>202302</v>
       </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="7">IF(C2=C1,1,0)</f>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="7">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="8">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T33" si="9">SUM(R2:S2)</f>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T33" si="8">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U33" si="10">COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="U2:U33" si="9">SUM(S2:T2)</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V33" si="10">COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="11">"Nombre del cliente "&amp;P3</f>
+        <f t="shared" ref="B3:B66" si="11">"Nombre del cliente "&amp;Q3</f>
         <v>Nombre del cliente 3</v>
       </c>
       <c r="C3">
@@ -3805,64 +3820,67 @@
       <c r="F3" s="3">
         <v>44958</v>
       </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H66" si="12">TEXT(F3,"DDMMAAAA")</f>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I66" si="12">TEXT(F3,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="13">TEXT(L3,"DDMMAAAA")</f>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J66" si="13">TEXT(M3,"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="K3" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K66" si="14">CONCATENATE(TEXT(A3,"0")," - ",K$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="14">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;Q3,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N3" s="4" t="e">
+      <c r="O3" s="4" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O3" s="5" t="e">
+      <c r="P3" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="4" t="str">
+      <c r="R3" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3884,64 +3902,64 @@
       <c r="F4" s="3">
         <v>44958</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="J4" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;Q4,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N4" s="4" t="e">
+      <c r="O4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="5" t="e">
+      <c r="P4" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="4" t="str">
+      <c r="R4" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3963,64 +3981,64 @@
       <c r="F5" s="3">
         <v>44958</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="J5" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;Q5,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N5" s="4" t="e">
+      <c r="O5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O5" s="5" t="e">
+      <c r="P5" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="4" t="str">
+      <c r="R5" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4042,64 +4060,64 @@
       <c r="F6" s="3">
         <v>44958</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="J6" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;Q6,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N6" s="4" t="e">
+      <c r="O6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O6" s="5" t="e">
+      <c r="P6" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="Q6" s="4" t="str">
+      <c r="R6" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4121,64 +4139,64 @@
       <c r="F7" s="3">
         <v>44958</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="J7" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;Q7,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N7" s="4" t="e">
+      <c r="O7" s="4" t="e">
         <f>VLOOKUP(C7,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O7" s="5" t="e">
+      <c r="P7" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="R7" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4200,64 +4218,64 @@
       <c r="F8" s="3">
         <v>44958</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="J8" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;Q8,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N8" s="4" t="e">
+      <c r="O8" s="4" t="e">
         <f>VLOOKUP(C8,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O8" s="5" t="e">
+      <c r="P8" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="4" t="str">
+      <c r="R8" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4279,64 +4297,64 @@
       <c r="F9" s="3">
         <v>44958</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="J9" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;Q9,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N9" s="4" t="e">
+      <c r="O9" s="4" t="e">
         <f>VLOOKUP(C9,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O9" s="5" t="e">
+      <c r="P9" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="Q9" s="4" t="str">
+      <c r="R9" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4358,64 +4376,64 @@
       <c r="F10" s="3">
         <v>44958</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="J10" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;Q10,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N10" s="4" t="e">
+      <c r="O10" s="4" t="e">
         <f>VLOOKUP(C10,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O10" s="5" t="e">
+      <c r="P10" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="R10" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4436,64 +4454,64 @@
       <c r="F11" s="3">
         <v>44958</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="J11" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;Q11,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N11" s="4" t="e">
+      <c r="O11" s="4" t="e">
         <f>VLOOKUP(C11,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O11" s="5" t="e">
+      <c r="P11" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="4" t="str">
+      <c r="R11" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4514,64 +4532,64 @@
       <c r="F12" s="3">
         <v>44958</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="J12" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;Q12,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N12" s="4" t="e">
+      <c r="O12" s="4" t="e">
         <f>VLOOKUP(C12,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O12" s="5" t="e">
+      <c r="P12" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="Q12" s="4" t="str">
+      <c r="R12" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4592,64 +4610,64 @@
       <c r="F13" s="3">
         <v>44958</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="J13" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;Q13,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N13" s="4" t="e">
+      <c r="O13" s="4" t="e">
         <f>VLOOKUP(C13,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="5" t="e">
+      <c r="P13" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="Q13" s="4" t="str">
+      <c r="R13" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4670,64 +4688,64 @@
       <c r="F14" s="3">
         <v>44958</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="J14" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;Q14,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N14" s="4" t="e">
+      <c r="O14" s="4" t="e">
         <f>VLOOKUP(C14,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="5" t="e">
+      <c r="P14" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="R14" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4748,64 +4766,64 @@
       <c r="F15" s="3">
         <v>44958</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="J15" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;Q15,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N15" s="4" t="e">
+      <c r="O15" s="4" t="e">
         <f>VLOOKUP(C15,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="5" t="e">
+      <c r="P15" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="Q15" s="4" t="str">
+      <c r="R15" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4826,64 +4844,64 @@
       <c r="F16" s="3">
         <v>44958</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="J16" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;Q16,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N16" s="4" t="e">
+      <c r="O16" s="4" t="e">
         <f>VLOOKUP(C16,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="5" t="e">
+      <c r="P16" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="Q16" s="4" t="str">
+      <c r="R16" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4904,64 +4922,64 @@
       <c r="F17" s="3">
         <v>44958</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="J17" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;Q17,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N17" s="4" t="e">
+      <c r="O17" s="4" t="e">
         <f>VLOOKUP(C17,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="5" t="e">
+      <c r="P17" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="Q17" s="4" t="str">
+      <c r="R17" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4982,64 +5000,64 @@
       <c r="F18" s="3">
         <v>44958</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="J18" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;Q18,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="O18" s="4" t="e">
         <f>VLOOKUP(C18,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="5" t="e">
+      <c r="P18" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="Q18" s="4" t="str">
+      <c r="R18" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5060,64 +5078,64 @@
       <c r="F19" s="3">
         <v>44958</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="J19" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;Q19,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N19" s="4" t="e">
+      <c r="O19" s="4" t="e">
         <f>VLOOKUP(C19,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="5" t="e">
+      <c r="P19" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="Q19" s="4" t="str">
+      <c r="R19" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5138,64 +5156,64 @@
       <c r="F20" s="3">
         <v>44958</v>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="J20" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;Q20,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N20" s="4" t="e">
+      <c r="O20" s="4" t="e">
         <f>VLOOKUP(C20,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="5" t="e">
+      <c r="P20" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="Q20" s="4" t="str">
+      <c r="R20" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5216,64 +5234,64 @@
       <c r="F21" s="3">
         <v>44958</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="J21" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;Q21,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N21" s="4" t="e">
+      <c r="O21" s="4" t="e">
         <f>VLOOKUP(C21,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O21" s="5" t="e">
+      <c r="P21" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="Q21" s="4" t="str">
+      <c r="R21" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5294,64 +5312,64 @@
       <c r="F22" s="3">
         <v>44958</v>
       </c>
-      <c r="H22" s="2" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="J22" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;Q22,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N22" s="4" t="e">
+      <c r="O22" s="4" t="e">
         <f>VLOOKUP(C22,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="5" t="e">
+      <c r="P22" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="Q22" s="4" t="str">
+      <c r="R22" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5372,64 +5390,64 @@
       <c r="F23" s="3">
         <v>44958</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="J23" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;Q23,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N23" s="4" t="e">
+      <c r="O23" s="4" t="e">
         <f>VLOOKUP(C23,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="5" t="e">
+      <c r="P23" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="Q23" s="4" t="str">
+      <c r="R23" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5450,64 +5468,64 @@
       <c r="F24" s="3">
         <v>44958</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="I24" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="J24" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;Q24,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N24" s="4" t="e">
+      <c r="O24" s="4" t="e">
         <f>VLOOKUP(C24,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="5" t="e">
+      <c r="P24" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="Q24" s="4" t="str">
+      <c r="R24" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5528,64 +5546,64 @@
       <c r="F25" s="3">
         <v>44958</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="I25" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="J25" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;Q25,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N25" s="4" t="e">
+      <c r="O25" s="4" t="e">
         <f>VLOOKUP(C25,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="5" t="e">
+      <c r="P25" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="Q25" s="4" t="str">
+      <c r="R25" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5606,64 +5624,64 @@
       <c r="F26" s="3">
         <v>44958</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="J26" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;Q26,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N26" s="4" t="e">
+      <c r="O26" s="4" t="e">
         <f>VLOOKUP(C26,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O26" s="5" t="e">
+      <c r="P26" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="Q26" s="4" t="str">
+      <c r="R26" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5684,64 +5702,64 @@
       <c r="F27" s="3">
         <v>44958</v>
       </c>
-      <c r="H27" s="2" t="str">
+      <c r="I27" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="J27" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;Q27,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N27" s="4" t="e">
+      <c r="O27" s="4" t="e">
         <f>VLOOKUP(C27,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O27" s="5" t="e">
+      <c r="P27" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="Q27" s="4" t="str">
+      <c r="R27" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5762,64 +5780,64 @@
       <c r="F28" s="3">
         <v>44958</v>
       </c>
-      <c r="H28" s="2" t="str">
+      <c r="I28" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="J28" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;Q28,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N28" s="4" t="e">
+      <c r="O28" s="4" t="e">
         <f>VLOOKUP(C28,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O28" s="5" t="e">
+      <c r="P28" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="Q28" s="4" t="str">
+      <c r="R28" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5840,64 +5858,64 @@
       <c r="F29" s="3">
         <v>44958</v>
       </c>
-      <c r="H29" s="2" t="str">
+      <c r="I29" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="J29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;Q29,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N29" s="4" t="e">
+      <c r="O29" s="4" t="e">
         <f>VLOOKUP(C29,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O29" s="5" t="e">
+      <c r="P29" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="Q29" s="4" t="str">
+      <c r="R29" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5918,64 +5936,64 @@
       <c r="F30" s="3">
         <v>44958</v>
       </c>
-      <c r="H30" s="2" t="str">
+      <c r="I30" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="J30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;Q30,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N30" s="4" t="e">
+      <c r="O30" s="4" t="e">
         <f>VLOOKUP(C30,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O30" s="5" t="e">
+      <c r="P30" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="4" t="str">
+      <c r="R30" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5996,64 +6014,64 @@
       <c r="F31" s="3">
         <v>44958</v>
       </c>
-      <c r="H31" s="2" t="str">
+      <c r="I31" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="J31" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;Q31,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N31" s="4" t="e">
+      <c r="O31" s="4" t="e">
         <f>VLOOKUP(C31,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O31" s="5" t="e">
+      <c r="P31" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="Q31" s="4" t="str">
+      <c r="R31" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6074,64 +6092,64 @@
       <c r="F32" s="3">
         <v>44958</v>
       </c>
-      <c r="H32" s="2" t="str">
+      <c r="I32" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="J32" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;Q32,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N32" s="4" t="e">
+      <c r="O32" s="4" t="e">
         <f>VLOOKUP(C32,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O32" s="5" t="e">
+      <c r="P32" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="Q32" s="4" t="str">
+      <c r="R32" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6152,64 +6170,64 @@
       <c r="F33" s="3">
         <v>44958</v>
       </c>
-      <c r="H33" s="2" t="str">
+      <c r="I33" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="J33" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
-      <c r="M33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;Q33,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N33" s="4" t="e">
+      <c r="O33" s="4" t="e">
         <f>VLOOKUP(C33,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O33" s="5" t="e">
+      <c r="P33" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="Q33" s="4" t="str">
+      <c r="R33" s="4" t="str">
         <f t="shared" si="6"/>
         <v>202302</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="15">RIGHT(D34,1)</f>
         <v>0</v>
@@ -6230,64 +6248,64 @@
       <c r="F34" s="3">
         <v>44958</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="I34" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="J34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" ref="L34:L69" si="16">EOMONTH(F34,0)</f>
+      <c r="M34" s="2">
+        <f t="shared" ref="M34:M69" si="16">EOMONTH(F34,0)</f>
         <v>44985</v>
       </c>
-      <c r="M34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;Q34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N34" s="4" t="e">
+      <c r="O34" s="4" t="e">
         <f>VLOOKUP(C34,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O34" s="5" t="e">
-        <f t="shared" ref="O34:O65" si="17">IF(EXACT(N34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P69" si="18">ROW(A34)</f>
+      <c r="P34" s="5" t="e">
+        <f t="shared" ref="P34:P65" si="17">IF(EXACT(O34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34:Q69" si="18">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q69" si="19">TEXT(F34,"AAAAMM")</f>
+      <c r="R34" s="4" t="str">
+        <f t="shared" ref="R34:R69" si="19">TEXT(F34,"AAAAMM")</f>
         <v>202302</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="20">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="21">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <f t="shared" ref="T34:T65" si="22">SUM(R34:S34)</f>
+        <f t="shared" ref="S34:S69" si="20">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" ref="T34:T69" si="21">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U65" si="22">SUM(S34:T34)</f>
         <v>2</v>
       </c>
-      <c r="U34">
-        <f t="shared" ref="U34:U69" si="23">COUNTIF(C:C,C34)</f>
+      <c r="V34">
+        <f t="shared" ref="V34:V69" si="23">COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6308,64 +6326,64 @@
       <c r="F35" s="3">
         <v>44958</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="I35" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="J35" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;Q35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N35" s="4" t="e">
+      <c r="O35" s="4" t="e">
         <f>VLOOKUP(C35,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="5" t="e">
+      <c r="P35" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <f t="shared" si="18"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="4" t="str">
+      <c r="R35" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6386,64 +6404,64 @@
       <c r="F36" s="3">
         <v>44958</v>
       </c>
-      <c r="H36" s="2" t="str">
+      <c r="I36" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="J36" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;Q36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N36" s="4" t="e">
+      <c r="O36" s="4" t="e">
         <f>VLOOKUP(C36,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="5" t="e">
+      <c r="P36" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <f t="shared" si="18"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="4" t="str">
+      <c r="R36" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6464,64 +6482,64 @@
       <c r="F37" s="3">
         <v>44958</v>
       </c>
-      <c r="H37" s="2" t="str">
+      <c r="I37" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="J37" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;Q37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N37" s="4" t="e">
+      <c r="O37" s="4" t="e">
         <f>VLOOKUP(C37,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O37" s="5" t="e">
+      <c r="P37" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <f t="shared" si="18"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="4" t="str">
+      <c r="R37" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6542,64 +6560,64 @@
       <c r="F38" s="3">
         <v>44958</v>
       </c>
-      <c r="H38" s="2" t="str">
+      <c r="I38" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="J38" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;Q38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N38" s="4" t="e">
+      <c r="O38" s="4" t="e">
         <f>VLOOKUP(C38,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O38" s="5" t="e">
+      <c r="P38" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <f t="shared" si="18"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="4" t="str">
+      <c r="R38" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6620,64 +6638,64 @@
       <c r="F39" s="3">
         <v>44958</v>
       </c>
-      <c r="H39" s="2" t="str">
+      <c r="I39" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="J39" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;Q39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N39" s="4" t="e">
+      <c r="O39" s="4" t="e">
         <f>VLOOKUP(C39,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O39" s="5" t="e">
+      <c r="P39" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <f t="shared" si="18"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="4" t="str">
+      <c r="R39" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6698,64 +6716,64 @@
       <c r="F40" s="3">
         <v>44958</v>
       </c>
-      <c r="H40" s="2" t="str">
+      <c r="I40" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="J40" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;Q40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N40" s="4" t="e">
+      <c r="O40" s="4" t="e">
         <f>VLOOKUP(C40,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="5" t="e">
+      <c r="P40" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <f t="shared" si="18"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="4" t="str">
+      <c r="R40" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6776,64 +6794,64 @@
       <c r="F41" s="3">
         <v>44958</v>
       </c>
-      <c r="H41" s="2" t="str">
+      <c r="I41" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="J41" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;Q41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N41" s="4" t="e">
+      <c r="O41" s="4" t="e">
         <f>VLOOKUP(C41,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O41" s="5" t="e">
+      <c r="P41" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <f t="shared" si="18"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="4" t="str">
+      <c r="R41" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6854,64 +6872,64 @@
       <c r="F42" s="3">
         <v>44958</v>
       </c>
-      <c r="H42" s="2" t="str">
+      <c r="I42" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="J42" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;Q42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N42" s="4" t="e">
+      <c r="O42" s="4" t="e">
         <f>VLOOKUP(C42,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O42" s="5" t="e">
+      <c r="P42" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="4">
+      <c r="Q42" s="4">
         <f t="shared" si="18"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="4" t="str">
+      <c r="R42" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -6932,64 +6950,64 @@
       <c r="F43" s="3">
         <v>44958</v>
       </c>
-      <c r="H43" s="2" t="str">
+      <c r="I43" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I43" s="2" t="str">
+      <c r="J43" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J43" s="2" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;Q43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N43" s="4" t="e">
+      <c r="O43" s="4" t="e">
         <f>VLOOKUP(C43,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O43" s="5" t="e">
+      <c r="P43" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <f t="shared" si="18"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="4" t="str">
+      <c r="R43" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7010,64 +7028,64 @@
       <c r="F44" s="3">
         <v>44958</v>
       </c>
-      <c r="H44" s="2" t="str">
+      <c r="I44" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I44" s="2" t="str">
+      <c r="J44" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;Q44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="4" t="e">
+      <c r="O44" s="4" t="e">
         <f>VLOOKUP(C44,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O44" s="5" t="e">
+      <c r="P44" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <f t="shared" si="18"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="4" t="str">
+      <c r="R44" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7088,64 +7106,64 @@
       <c r="F45" s="3">
         <v>44958</v>
       </c>
-      <c r="H45" s="2" t="str">
+      <c r="I45" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I45" s="2" t="str">
+      <c r="J45" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;Q45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="4" t="e">
+      <c r="O45" s="4" t="e">
         <f>VLOOKUP(C45,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O45" s="5" t="e">
+      <c r="P45" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <f t="shared" si="18"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="4" t="str">
+      <c r="R45" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7166,64 +7184,64 @@
       <c r="F46" s="3">
         <v>44958</v>
       </c>
-      <c r="H46" s="2" t="str">
+      <c r="I46" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I46" s="2" t="str">
+      <c r="J46" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;Q46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="4" t="e">
+      <c r="O46" s="4" t="e">
         <f>VLOOKUP(C46,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O46" s="5" t="e">
+      <c r="P46" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <f t="shared" si="18"/>
         <v>46</v>
       </c>
-      <c r="Q46" s="4" t="str">
+      <c r="R46" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7244,64 +7262,64 @@
       <c r="F47" s="3">
         <v>44958</v>
       </c>
-      <c r="H47" s="2" t="str">
+      <c r="I47" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="J47" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;Q47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N47" s="4" t="e">
+      <c r="O47" s="4" t="e">
         <f>VLOOKUP(C47,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O47" s="5" t="e">
+      <c r="P47" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <f t="shared" si="18"/>
         <v>47</v>
       </c>
-      <c r="Q47" s="4" t="str">
+      <c r="R47" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7322,64 +7340,64 @@
       <c r="F48" s="3">
         <v>44958</v>
       </c>
-      <c r="H48" s="2" t="str">
+      <c r="I48" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I48" s="2" t="str">
+      <c r="J48" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;Q48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="4" t="e">
+      <c r="O48" s="4" t="e">
         <f>VLOOKUP(C48,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O48" s="5" t="e">
+      <c r="P48" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="4">
+      <c r="Q48" s="4">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
-      <c r="Q48" s="4" t="str">
+      <c r="R48" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7400,64 +7418,64 @@
       <c r="F49" s="3">
         <v>44958</v>
       </c>
-      <c r="H49" s="2" t="str">
+      <c r="I49" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="J49" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J49" s="2" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;Q49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="4" t="e">
+      <c r="O49" s="4" t="e">
         <f>VLOOKUP(C49,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O49" s="5" t="e">
+      <c r="P49" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="4" t="str">
+      <c r="R49" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7478,64 +7496,64 @@
       <c r="F50" s="3">
         <v>44958</v>
       </c>
-      <c r="H50" s="2" t="str">
+      <c r="I50" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="J50" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;Q50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="4" t="e">
+      <c r="O50" s="4" t="e">
         <f>VLOOKUP(C50,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O50" s="5" t="e">
+      <c r="P50" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="4">
+      <c r="Q50" s="4">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="Q50" s="4" t="str">
+      <c r="R50" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7556,64 +7574,64 @@
       <c r="F51" s="3">
         <v>44958</v>
       </c>
-      <c r="H51" s="2" t="str">
+      <c r="I51" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="J51" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;Q51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="4" t="e">
+      <c r="O51" s="4" t="e">
         <f>VLOOKUP(C51,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O51" s="5" t="e">
+      <c r="P51" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <f t="shared" si="18"/>
         <v>51</v>
       </c>
-      <c r="Q51" s="4" t="str">
+      <c r="R51" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7634,64 +7652,64 @@
       <c r="F52" s="3">
         <v>44958</v>
       </c>
-      <c r="H52" s="2" t="str">
+      <c r="I52" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="J52" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J52" s="2" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;Q52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="4" t="e">
+      <c r="O52" s="4" t="e">
         <f>VLOOKUP(C52,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="5" t="e">
+      <c r="P52" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="4">
+      <c r="Q52" s="4">
         <f t="shared" si="18"/>
         <v>52</v>
       </c>
-      <c r="Q52" s="4" t="str">
+      <c r="R52" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7712,64 +7730,64 @@
       <c r="F53" s="3">
         <v>44958</v>
       </c>
-      <c r="H53" s="2" t="str">
+      <c r="I53" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I53" s="2" t="str">
+      <c r="J53" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M53" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;Q53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="4" t="e">
+      <c r="O53" s="4" t="e">
         <f>VLOOKUP(C53,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O53" s="5" t="e">
+      <c r="P53" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="4">
+      <c r="Q53" s="4">
         <f t="shared" si="18"/>
         <v>53</v>
       </c>
-      <c r="Q53" s="4" t="str">
+      <c r="R53" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7790,64 +7808,64 @@
       <c r="F54" s="3">
         <v>44958</v>
       </c>
-      <c r="H54" s="2" t="str">
+      <c r="I54" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I54" s="2" t="str">
+      <c r="J54" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;Q54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="4" t="e">
+      <c r="O54" s="4" t="e">
         <f>VLOOKUP(C54,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O54" s="5" t="e">
+      <c r="P54" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="4">
+      <c r="Q54" s="4">
         <f t="shared" si="18"/>
         <v>54</v>
       </c>
-      <c r="Q54" s="4" t="str">
+      <c r="R54" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7868,64 +7886,64 @@
       <c r="F55" s="3">
         <v>44958</v>
       </c>
-      <c r="H55" s="2" t="str">
+      <c r="I55" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="J55" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M55" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;Q55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N55" s="4" t="e">
+      <c r="O55" s="4" t="e">
         <f>VLOOKUP(C55,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O55" s="5" t="e">
+      <c r="P55" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="4">
+      <c r="Q55" s="4">
         <f t="shared" si="18"/>
         <v>55</v>
       </c>
-      <c r="Q55" s="4" t="str">
+      <c r="R55" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -7946,64 +7964,64 @@
       <c r="F56" s="3">
         <v>44958</v>
       </c>
-      <c r="H56" s="2" t="str">
+      <c r="I56" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="J56" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M56" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;Q56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="4" t="e">
+      <c r="O56" s="4" t="e">
         <f>VLOOKUP(C56,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="5" t="e">
+      <c r="P56" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="4">
+      <c r="Q56" s="4">
         <f t="shared" si="18"/>
         <v>56</v>
       </c>
-      <c r="Q56" s="4" t="str">
+      <c r="R56" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8024,64 +8042,64 @@
       <c r="F57" s="3">
         <v>44958</v>
       </c>
-      <c r="H57" s="2" t="str">
+      <c r="I57" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="J57" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J57" s="2" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;Q57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="4" t="e">
+      <c r="O57" s="4" t="e">
         <f>VLOOKUP(C57,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O57" s="5" t="e">
+      <c r="P57" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="4">
+      <c r="Q57" s="4">
         <f t="shared" si="18"/>
         <v>57</v>
       </c>
-      <c r="Q57" s="4" t="str">
+      <c r="R57" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8102,64 +8120,64 @@
       <c r="F58" s="3">
         <v>44958</v>
       </c>
-      <c r="H58" s="2" t="str">
+      <c r="I58" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I58" s="2" t="str">
+      <c r="J58" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J58" s="2" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;Q58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N58" s="4" t="e">
+      <c r="O58" s="4" t="e">
         <f>VLOOKUP(C58,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O58" s="5" t="e">
+      <c r="P58" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="4">
+      <c r="Q58" s="4">
         <f t="shared" si="18"/>
         <v>58</v>
       </c>
-      <c r="Q58" s="4" t="str">
+      <c r="R58" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8180,64 +8198,64 @@
       <c r="F59" s="3">
         <v>44958</v>
       </c>
-      <c r="H59" s="2" t="str">
+      <c r="I59" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="J59" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J59" s="2" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;Q59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="4" t="e">
+      <c r="O59" s="4" t="e">
         <f>VLOOKUP(C59,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O59" s="5" t="e">
+      <c r="P59" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="4">
+      <c r="Q59" s="4">
         <f t="shared" si="18"/>
         <v>59</v>
       </c>
-      <c r="Q59" s="4" t="str">
+      <c r="R59" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8258,64 +8276,64 @@
       <c r="F60" s="3">
         <v>44958</v>
       </c>
-      <c r="H60" s="2" t="str">
+      <c r="I60" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I60" s="2" t="str">
+      <c r="J60" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J60" s="2" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="L60" s="2">
+      <c r="M60" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;Q60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="4" t="e">
+      <c r="O60" s="4" t="e">
         <f>VLOOKUP(C60,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O60" s="5" t="e">
+      <c r="P60" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="4">
+      <c r="Q60" s="4">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
-      <c r="Q60" s="4" t="str">
+      <c r="R60" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8336,64 +8354,64 @@
       <c r="F61" s="3">
         <v>44958</v>
       </c>
-      <c r="H61" s="2" t="str">
+      <c r="I61" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I61" s="2" t="str">
+      <c r="J61" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J61" s="2" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="L61" s="2">
+      <c r="M61" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;Q61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N61" s="4" t="e">
+      <c r="O61" s="4" t="e">
         <f>VLOOKUP(C61,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="5" t="e">
+      <c r="P61" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="4">
+      <c r="Q61" s="4">
         <f t="shared" si="18"/>
         <v>61</v>
       </c>
-      <c r="Q61" s="4" t="str">
+      <c r="R61" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8414,64 +8432,64 @@
       <c r="F62" s="3">
         <v>44958</v>
       </c>
-      <c r="H62" s="2" t="str">
+      <c r="I62" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I62" s="2" t="str">
+      <c r="J62" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J62" s="2" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="L62" s="2">
+      <c r="M62" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;Q62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="4" t="e">
+      <c r="O62" s="4" t="e">
         <f>VLOOKUP(C62,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O62" s="5" t="e">
+      <c r="P62" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="4">
+      <c r="Q62" s="4">
         <f t="shared" si="18"/>
         <v>62</v>
       </c>
-      <c r="Q62" s="4" t="str">
+      <c r="R62" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8492,64 +8510,64 @@
       <c r="F63" s="3">
         <v>44958</v>
       </c>
-      <c r="H63" s="2" t="str">
+      <c r="I63" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I63" s="2" t="str">
+      <c r="J63" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J63" s="2" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="L63" s="2">
+      <c r="M63" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;Q63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="4" t="e">
+      <c r="O63" s="4" t="e">
         <f>VLOOKUP(C63,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="5" t="e">
+      <c r="P63" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="4">
+      <c r="Q63" s="4">
         <f t="shared" si="18"/>
         <v>63</v>
       </c>
-      <c r="Q63" s="4" t="str">
+      <c r="R63" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8570,64 +8588,64 @@
       <c r="F64" s="3">
         <v>44958</v>
       </c>
-      <c r="H64" s="2" t="str">
+      <c r="I64" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I64" s="2" t="str">
+      <c r="J64" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J64" s="2" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="L64" s="2">
+      <c r="M64" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;Q64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="4" t="e">
+      <c r="O64" s="4" t="e">
         <f>VLOOKUP(C64,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O64" s="5" t="e">
+      <c r="P64" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="4">
+      <c r="Q64" s="4">
         <f t="shared" si="18"/>
         <v>64</v>
       </c>
-      <c r="Q64" s="4" t="str">
+      <c r="R64" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8648,64 +8666,64 @@
       <c r="F65" s="3">
         <v>44958</v>
       </c>
-      <c r="H65" s="2" t="str">
+      <c r="I65" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I65" s="2" t="str">
+      <c r="J65" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J65" s="2" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="L65" s="2">
+      <c r="M65" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;Q65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N65" s="4" t="e">
+      <c r="O65" s="4" t="e">
         <f>VLOOKUP(C65,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O65" s="5" t="e">
+      <c r="P65" s="5" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="4">
+      <c r="Q65" s="4">
         <f t="shared" si="18"/>
         <v>65</v>
       </c>
-      <c r="Q65" s="4" t="str">
+      <c r="R65" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8726,70 +8744,70 @@
       <c r="F66" s="3">
         <v>44958</v>
       </c>
-      <c r="H66" s="2" t="str">
+      <c r="I66" s="2" t="str">
         <f t="shared" si="12"/>
         <v>01022023</v>
       </c>
-      <c r="I66" s="2" t="str">
+      <c r="J66" s="2" t="str">
         <f t="shared" si="13"/>
         <v>28022023</v>
       </c>
-      <c r="J66" s="2" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="L66" s="2">
+      <c r="M66" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;Q66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="4" t="e">
+      <c r="O66" s="4" t="e">
         <f>VLOOKUP(C66,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O66" s="5" t="e">
-        <f t="shared" ref="O66:O69" si="24">IF(EXACT(N66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5" t="e">
+        <f t="shared" ref="P66:P69" si="24">IF(EXACT(O66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" s="4">
         <f t="shared" si="18"/>
         <v>66</v>
       </c>
-      <c r="Q66" s="4" t="str">
+      <c r="R66" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S66" s="4">
+      <c r="T66" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T66">
-        <f t="shared" ref="T66:T69" si="25">SUM(R66:S66)</f>
+      <c r="U66">
+        <f t="shared" ref="U66:U69" si="25">SUM(S66:T66)</f>
         <v>2</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="26">"Nombre del cliente "&amp;P67</f>
+        <f t="shared" ref="B67:B69" si="26">"Nombre del cliente "&amp;Q67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
@@ -8804,64 +8822,64 @@
       <c r="F67" s="3">
         <v>44958</v>
       </c>
-      <c r="H67" s="2" t="str">
-        <f t="shared" ref="H67:H69" si="27">TEXT(F67,"DDMMAAAA")</f>
+      <c r="I67" s="2" t="str">
+        <f t="shared" ref="I67:I69" si="27">TEXT(F67,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="28">TEXT(L67,"DDMMAAAA")</f>
+      <c r="J67" s="2" t="str">
+        <f t="shared" ref="J67:J69" si="28">TEXT(M67,"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="29">CONCATENATE(TEXT(A67,"0")," - ",J$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K69" si="29">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="30">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L69" si="30">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="L67" s="2">
+      <c r="M67" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;Q67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N67" s="4" t="e">
+      <c r="O67" s="4" t="e">
         <f>VLOOKUP(C67,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O67" s="5" t="e">
+      <c r="P67" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="4">
+      <c r="Q67" s="4">
         <f t="shared" si="18"/>
         <v>67</v>
       </c>
-      <c r="Q67" s="4" t="str">
+      <c r="R67" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S67" s="4">
+      <c r="T67" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8882,64 +8900,64 @@
       <c r="F68" s="3">
         <v>44958</v>
       </c>
-      <c r="H68" s="2" t="str">
+      <c r="I68" s="2" t="str">
         <f t="shared" si="27"/>
         <v>01022023</v>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="J68" s="2" t="str">
         <f t="shared" si="28"/>
         <v>28022023</v>
       </c>
-      <c r="J68" s="2" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="29"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="30"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="L68" s="2">
+      <c r="M68" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;Q68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N68" s="4" t="e">
+      <c r="O68" s="4" t="e">
         <f>VLOOKUP(C68,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O68" s="5" t="e">
+      <c r="P68" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="4">
+      <c r="Q68" s="4">
         <f t="shared" si="18"/>
         <v>68</v>
       </c>
-      <c r="Q68" s="4" t="str">
+      <c r="R68" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
+      <c r="T68" s="4">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8960,66 +8978,66 @@
       <c r="F69" s="3">
         <v>44958</v>
       </c>
-      <c r="H69" s="2" t="str">
+      <c r="I69" s="2" t="str">
         <f t="shared" si="27"/>
         <v>01022023</v>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="J69" s="2" t="str">
         <f t="shared" si="28"/>
         <v>28022023</v>
       </c>
-      <c r="J69" s="2" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="29"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="30"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M69" s="2">
         <f t="shared" si="16"/>
         <v>44985</v>
       </c>
-      <c r="M69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;Q69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N69" s="4" t="e">
+      <c r="O69" s="4" t="e">
         <f>VLOOKUP(C69,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O69" s="5" t="e">
+      <c r="P69" s="5" t="e">
         <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="4">
+      <c r="Q69" s="4">
         <f t="shared" si="18"/>
         <v>69</v>
       </c>
-      <c r="Q69" s="4" t="str">
+      <c r="R69" s="4" t="str">
         <f t="shared" si="19"/>
         <v>202302</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>

--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D7B580-00A6-4EA6-9D93-74C5FAD2A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7F8F7C-26A9-4981-B6B5-41E357BC6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descargados!$B$2:$B$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="29">
   <si>
     <t>Nro</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Desde (No Formula)</t>
-  </si>
-  <si>
-    <t>Hasta (No Formula)</t>
   </si>
   <si>
     <t>Importar</t>
@@ -121,9 +118,6 @@
     <t>33-00000000-0</t>
   </si>
   <si>
-    <t>Clave</t>
-  </si>
-  <si>
     <t>Esta columna sirve solo para colocar un filtro (las filas filtradas no las ejecuta el bot)</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>C:\Users\Agustin Bustos\Desktop\Test</t>
+  </si>
+  <si>
+    <t>Clave como valor Pegado (no Fórmula)</t>
   </si>
 </sst>
 </file>
@@ -3623,11 +3620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,14 +3635,14 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3653,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3665,10 +3662,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -3683,13 +3680,13 @@
         <v>216</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -3709,17 +3706,14 @@
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>"Nombre del cliente "&amp;Q2</f>
+        <f>"Nombre del cliente "&amp;P2</f>
         <v>Nombre del cliente 2</v>
       </c>
       <c r="C2">
@@ -3730,23 +3724,23 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3">
         <v>44958</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>TEXT(F2,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>TEXT(M2,"DDMMAAAA")</f>
+        <f>TEXT(EOMONTH(F2,0),"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
       <c r="K2" s="2" t="str">
@@ -3757,54 +3751,50 @@
         <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="M2" s="2">
-        <f t="shared" ref="M2:M33" si="3">EOMONTH(F2,0)</f>
-        <v>44985</v>
-      </c>
-      <c r="N2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;Q2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="e">
+      <c r="N2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P2" s="5" t="e">
-        <f t="shared" ref="P2:P33" si="4">IF(EXACT(O2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="5">ROW(A2)</f>
+      <c r="O2" s="5" t="e">
+        <f>IF(EXACT(N2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="4">
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="R2" s="4" t="str">
-        <f t="shared" ref="R2:R33" si="6">TEXT(F2,"AAAAMM")</f>
+      <c r="Q2" s="4" t="str">
+        <f>TEXT(F2,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R2" s="4">
+        <f>IF(C2=C1,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="7">IF(C2=C1,1,0)</f>
-        <v>0</v>
+        <f>IF(C2=C3,1,0)</f>
+        <v>1</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="8">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U33" si="9">SUM(S2:T2)</f>
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <f t="shared" ref="V2:V33" si="10">COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="T2:T33" si="3">SUM(R2:S2)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <f>COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="11">"Nombre del cliente "&amp;Q3</f>
+        <f>"Nombre del cliente "&amp;P3</f>
         <v>Nombre del cliente 3</v>
       </c>
       <c r="C3">
@@ -3815,20 +3805,20 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3">
         <v>44958</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="12">TEXT(F3,"DDMMAAAA")</f>
+        <f t="shared" ref="I3:I66" si="4">TEXT(F3,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="13">TEXT(M3,"DDMMAAAA")</f>
+        <f t="shared" ref="J3:J66" si="5">TEXT(EOMONTH(F3,0),"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
       <c r="K3" s="2" t="str">
@@ -3836,57 +3826,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="14">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="6">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;Q3,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="4" t="e">
+        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O3" s="5" t="e">
+        <f>IF(EXACT(N3,E3),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="4">
+        <f>ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f>TEXT(F3,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R3" s="4">
+        <f>IF(C3=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <f>IF(C3=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O3" s="4" t="e">
-        <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R3" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S3" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V3">
-        <f t="shared" si="10"/>
+      <c r="U3" s="4">
+        <f>COUNTIF(C:C,C3)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P4</f>
         <v>Nombre del cliente 4</v>
       </c>
       <c r="C4">
@@ -3897,17 +3883,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3">
         <v>44958</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K4" s="2" t="str">
@@ -3915,57 +3901,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;Q4,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="4" t="e">
+        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O4" s="5" t="e">
+        <f>IF(EXACT(N4,E4),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="4">
+        <f>ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f>TEXT(F4,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R4" s="4">
+        <f>IF(C4=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IF(C4=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O4" s="4" t="e">
-        <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R4" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="10"/>
+      <c r="U4" s="4">
+        <f>COUNTIF(C:C,C4)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P5</f>
         <v>Nombre del cliente 5</v>
       </c>
       <c r="C5">
@@ -3976,17 +3958,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
         <v>44958</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -3994,57 +3976,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;Q5,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="4" t="e">
+        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="5" t="e">
+        <f>IF(EXACT(N5,E5),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="4">
+        <f>ROW(A5)</f>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f>TEXT(F5,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R5" s="4">
+        <f>IF(C5=C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <f>IF(C5=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="4" t="e">
-        <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R5" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="10"/>
+      <c r="U5" s="4">
+        <f>COUNTIF(C:C,C5)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P6</f>
         <v>Nombre del cliente 6</v>
       </c>
       <c r="C6">
@@ -4055,17 +4033,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>44958</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -4073,57 +4051,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;Q6,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="4" t="e">
+        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="5" t="e">
+        <f>IF(EXACT(N6,E6),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="4">
+        <f>ROW(A6)</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>TEXT(F6,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R6" s="4">
+        <f>IF(C6=C5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <f>IF(C6=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="4" t="e">
-        <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="10"/>
+      <c r="U6" s="4">
+        <f>COUNTIF(C:C,C6)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P7</f>
         <v>Nombre del cliente 7</v>
       </c>
       <c r="C7">
@@ -4134,17 +4108,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3">
         <v>44958</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -4152,57 +4126,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;Q7,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="4" t="e">
+        <f>VLOOKUP(C7,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="5" t="e">
+        <f>IF(EXACT(N7,E7),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="4">
+        <f>ROW(A7)</f>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>TEXT(F7,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R7" s="4">
+        <f>IF(C7=C6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
+        <f>IF(C7=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="4" t="e">
-        <f>VLOOKUP(C7,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="R7" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="10"/>
+      <c r="U7" s="4">
+        <f>COUNTIF(C:C,C7)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P8</f>
         <v>Nombre del cliente 8</v>
       </c>
       <c r="C8">
@@ -4213,17 +4183,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>44958</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -4231,57 +4201,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;Q8,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="4" t="e">
+        <f>VLOOKUP(C8,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="5" t="e">
+        <f>IF(EXACT(N8,E8),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="4">
+        <f>ROW(A8)</f>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>TEXT(F8,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R8" s="4">
+        <f>IF(C8=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <f>IF(C8=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="4" t="e">
-        <f>VLOOKUP(C8,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R8" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="10"/>
+      <c r="U8" s="4">
+        <f>COUNTIF(C:C,C8)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P9</f>
         <v>Nombre del cliente 9</v>
       </c>
       <c r="C9">
@@ -4292,17 +4258,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3">
         <v>44958</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K9" s="2" t="str">
@@ -4310,57 +4276,53 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;Q9,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="4" t="e">
+        <f>VLOOKUP(C9,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="5" t="e">
+        <f>IF(EXACT(N9,E9),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="4">
+        <f>ROW(A9)</f>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>TEXT(F9,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R9" s="4">
+        <f>IF(C9=C8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <f>IF(C9=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="4" t="e">
-        <f>VLOOKUP(C9,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="R9" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="10"/>
+      <c r="U9" s="4">
+        <f>COUNTIF(C:C,C9)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P10</f>
         <v>Nombre del cliente 10</v>
       </c>
       <c r="C10">
@@ -4371,17 +4333,17 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3">
         <v>44958</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -4389,77 +4351,73 @@
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;Q10,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="4" t="e">
+        <f>VLOOKUP(C10,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="5" t="e">
+        <f>IF(EXACT(N10,E10),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="4">
+        <f>ROW(A10)</f>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>TEXT(F10,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R10" s="4">
+        <f>IF(C10=C9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <f>IF(C10=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="4" t="e">
-        <f>VLOOKUP(C10,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="R10" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="10"/>
+      <c r="U10" s="4">
+        <f>COUNTIF(C:C,C10)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P11</f>
         <v>Nombre del cliente 11</v>
       </c>
       <c r="C11">
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3">
         <v>44958</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -4467,77 +4425,73 @@
         <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;Q11,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N11" s="4" t="e">
+        <f>VLOOKUP(C11,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="5" t="e">
+        <f>IF(EXACT(N11,E11),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="4">
+        <f>ROW(A11)</f>
+        <v>11</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f>TEXT(F11,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R11" s="4">
+        <f>IF(C11=C10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
+        <f>IF(C11=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="4" t="e">
-        <f>VLOOKUP(C11,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="R11" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="10"/>
+      <c r="U11" s="4">
+        <f>COUNTIF(C:C,C11)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P12</f>
         <v>Nombre del cliente 12</v>
       </c>
       <c r="C12">
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3">
         <v>44958</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -4545,77 +4499,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;Q12,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="4" t="e">
+        <f>VLOOKUP(C12,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="5" t="e">
+        <f>IF(EXACT(N12,E12),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="4">
+        <f>ROW(A12)</f>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>TEXT(F12,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R12" s="4">
+        <f>IF(C12=C11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <f>IF(C12=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="4" t="e">
-        <f>VLOOKUP(C12,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="R12" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="10"/>
+      <c r="U12" s="4">
+        <f>COUNTIF(C:C,C12)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P13</f>
         <v>Nombre del cliente 13</v>
       </c>
       <c r="C13">
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3">
         <v>44958</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K13" s="2" t="str">
@@ -4623,77 +4573,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;Q13,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="4" t="e">
+        <f>VLOOKUP(C13,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="5" t="e">
+        <f>IF(EXACT(N13,E13),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="4">
+        <f>ROW(A13)</f>
+        <v>13</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f>TEXT(F13,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R13" s="4">
+        <f>IF(C13=C12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
+        <f>IF(C13=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="4" t="e">
-        <f>VLOOKUP(C13,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="R13" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="10"/>
+      <c r="U13" s="4">
+        <f>COUNTIF(C:C,C13)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P14</f>
         <v>Nombre del cliente 14</v>
       </c>
       <c r="C14">
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3">
         <v>44958</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -4701,77 +4647,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;Q14,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="4" t="e">
+        <f>VLOOKUP(C14,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="5" t="e">
+        <f>IF(EXACT(N14,E14),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="4">
+        <f>ROW(A14)</f>
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>TEXT(F14,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R14" s="4">
+        <f>IF(C14=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <f>IF(C14=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="4" t="e">
-        <f>VLOOKUP(C14,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="R14" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="10"/>
+      <c r="U14" s="4">
+        <f>COUNTIF(C:C,C14)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P15</f>
         <v>Nombre del cliente 15</v>
       </c>
       <c r="C15">
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3">
         <v>44958</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K15" s="2" t="str">
@@ -4779,77 +4721,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;Q15,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="4" t="e">
+        <f>VLOOKUP(C15,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="5" t="e">
+        <f>IF(EXACT(N15,E15),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="4">
+        <f>ROW(A15)</f>
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>TEXT(F15,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R15" s="4">
+        <f>IF(C15=C14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <f>IF(C15=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="4" t="e">
-        <f>VLOOKUP(C15,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="R15" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="10"/>
+      <c r="U15" s="4">
+        <f>COUNTIF(C:C,C15)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P16</f>
         <v>Nombre del cliente 16</v>
       </c>
       <c r="C16">
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3">
         <v>44958</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K16" s="2" t="str">
@@ -4857,77 +4795,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;Q16,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="4" t="e">
+        <f>VLOOKUP(C16,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="5" t="e">
+        <f>IF(EXACT(N16,E16),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="4">
+        <f>ROW(A16)</f>
+        <v>16</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>TEXT(F16,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R16" s="4">
+        <f>IF(C16=C15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <f>IF(C16=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="4" t="e">
-        <f>VLOOKUP(C16,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="R16" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="10"/>
+      <c r="U16" s="4">
+        <f>COUNTIF(C:C,C16)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P17</f>
         <v>Nombre del cliente 17</v>
       </c>
       <c r="C17">
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3">
         <v>44958</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -4935,77 +4869,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;Q17,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="4" t="e">
+        <f>VLOOKUP(C17,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="5" t="e">
+        <f>IF(EXACT(N17,E17),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="4">
+        <f>ROW(A17)</f>
+        <v>17</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>TEXT(F17,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R17" s="4">
+        <f>IF(C17=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <f>IF(C17=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="4" t="e">
-        <f>VLOOKUP(C17,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="R17" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V17">
-        <f t="shared" si="10"/>
+      <c r="U17" s="4">
+        <f>COUNTIF(C:C,C17)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P18</f>
         <v>Nombre del cliente 18</v>
       </c>
       <c r="C18">
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F18" s="3">
         <v>44958</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -5013,77 +4943,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;Q18,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="4" t="e">
+        <f>VLOOKUP(C18,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="5" t="e">
+        <f>IF(EXACT(N18,E18),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="4">
+        <f>ROW(A18)</f>
+        <v>18</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f>TEXT(F18,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R18" s="4">
+        <f>IF(C18=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <f>IF(C18=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="4" t="e">
-        <f>VLOOKUP(C18,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="R18" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="10"/>
+      <c r="U18" s="4">
+        <f>COUNTIF(C:C,C18)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P19</f>
         <v>Nombre del cliente 19</v>
       </c>
       <c r="C19">
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3">
         <v>44958</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K19" s="2" t="str">
@@ -5091,77 +5017,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;Q19,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="4" t="e">
+        <f>VLOOKUP(C19,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="5" t="e">
+        <f>IF(EXACT(N19,E19),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="4">
+        <f>ROW(A19)</f>
+        <v>19</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f>TEXT(F19,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R19" s="4">
+        <f>IF(C19=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
+        <f>IF(C19=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="4" t="e">
-        <f>VLOOKUP(C19,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="R19" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V19">
-        <f t="shared" si="10"/>
+      <c r="U19" s="4">
+        <f>COUNTIF(C:C,C19)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P20</f>
         <v>Nombre del cliente 20</v>
       </c>
       <c r="C20">
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3">
         <v>44958</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -5169,77 +5091,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;Q20,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="4" t="e">
+        <f>VLOOKUP(C20,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="5" t="e">
+        <f>IF(EXACT(N20,E20),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="4">
+        <f>ROW(A20)</f>
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>TEXT(F20,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R20" s="4">
+        <f>IF(C20=C19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <f>IF(C20=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="4" t="e">
-        <f>VLOOKUP(C20,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="R20" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="10"/>
+      <c r="U20" s="4">
+        <f>COUNTIF(C:C,C20)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P21</f>
         <v>Nombre del cliente 21</v>
       </c>
       <c r="C21">
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3">
         <v>44958</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -5247,77 +5165,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;Q21,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="4" t="e">
+        <f>VLOOKUP(C21,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="5" t="e">
+        <f>IF(EXACT(N21,E21),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="4">
+        <f>ROW(A21)</f>
+        <v>21</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>TEXT(F21,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R21" s="4">
+        <f>IF(C21=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
+        <f>IF(C21=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="4" t="e">
-        <f>VLOOKUP(C21,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="R21" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V21">
-        <f t="shared" si="10"/>
+      <c r="U21" s="4">
+        <f>COUNTIF(C:C,C21)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P22</f>
         <v>Nombre del cliente 22</v>
       </c>
       <c r="C22">
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3">
         <v>44958</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K22" s="2" t="str">
@@ -5325,77 +5239,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;Q22,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="4" t="e">
+        <f>VLOOKUP(C22,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="5" t="e">
+        <f>IF(EXACT(N22,E22),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="4">
+        <f>ROW(A22)</f>
+        <v>22</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f>TEXT(F22,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R22" s="4">
+        <f>IF(C22=C21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
+        <f>IF(C22=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="4" t="e">
-        <f>VLOOKUP(C22,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="R22" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="10"/>
+      <c r="U22" s="4">
+        <f>COUNTIF(C:C,C22)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P23</f>
         <v>Nombre del cliente 23</v>
       </c>
       <c r="C23">
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F23" s="3">
         <v>44958</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K23" s="2" t="str">
@@ -5403,77 +5313,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;Q23,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="4" t="e">
+        <f>VLOOKUP(C23,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" s="5" t="e">
+        <f>IF(EXACT(N23,E23),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="4">
+        <f>ROW(A23)</f>
+        <v>23</v>
+      </c>
+      <c r="Q23" s="4" t="str">
+        <f>TEXT(F23,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R23" s="4">
+        <f>IF(C23=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <f>IF(C23=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="4" t="e">
-        <f>VLOOKUP(C23,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="R23" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="10"/>
+      <c r="U23" s="4">
+        <f>COUNTIF(C:C,C23)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P24</f>
         <v>Nombre del cliente 24</v>
       </c>
       <c r="C24">
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3">
         <v>44958</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -5481,77 +5387,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;Q24,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f>VLOOKUP(C24,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="5" t="e">
+        <f>IF(EXACT(N24,E24),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="4">
+        <f>ROW(A24)</f>
+        <v>24</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <f>TEXT(F24,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R24" s="4">
+        <f>IF(C24=C23,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <f>IF(C24=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="4" t="e">
-        <f>VLOOKUP(C24,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="R24" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="10"/>
+      <c r="U24" s="4">
+        <f>COUNTIF(C:C,C24)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P25</f>
         <v>Nombre del cliente 25</v>
       </c>
       <c r="C25">
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F25" s="3">
         <v>44958</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -5559,77 +5461,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;Q25,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="4" t="e">
+        <f>VLOOKUP(C25,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="5" t="e">
+        <f>IF(EXACT(N25,E25),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="4">
+        <f>ROW(A25)</f>
+        <v>25</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <f>TEXT(F25,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R25" s="4">
+        <f>IF(C25=C24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <f>IF(C25=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="4" t="e">
-        <f>VLOOKUP(C25,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="R25" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V25">
-        <f t="shared" si="10"/>
+      <c r="U25" s="4">
+        <f>COUNTIF(C:C,C25)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P26</f>
         <v>Nombre del cliente 26</v>
       </c>
       <c r="C26">
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F26" s="3">
         <v>44958</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K26" s="2" t="str">
@@ -5637,77 +5535,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;Q26,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="4" t="e">
+        <f>VLOOKUP(C26,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="5" t="e">
+        <f>IF(EXACT(N26,E26),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="4">
+        <f>ROW(A26)</f>
+        <v>26</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f>TEXT(F26,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R26" s="4">
+        <f>IF(C26=C25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <f>IF(C26=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O26" s="4" t="e">
-        <f>VLOOKUP(C26,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="R26" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="10"/>
+      <c r="U26" s="4">
+        <f>COUNTIF(C:C,C26)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P27</f>
         <v>Nombre del cliente 27</v>
       </c>
       <c r="C27">
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F27" s="3">
         <v>44958</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -5715,77 +5609,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;Q27,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="4" t="e">
+        <f>VLOOKUP(C27,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="5" t="e">
+        <f>IF(EXACT(N27,E27),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="4">
+        <f>ROW(A27)</f>
+        <v>27</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <f>TEXT(F27,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R27" s="4">
+        <f>IF(C27=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
+        <f>IF(C27=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="4" t="e">
-        <f>VLOOKUP(C27,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="R27" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="10"/>
+      <c r="U27" s="4">
+        <f>COUNTIF(C:C,C27)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P28</f>
         <v>Nombre del cliente 28</v>
       </c>
       <c r="C28">
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" s="3">
         <v>44958</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K28" s="2" t="str">
@@ -5793,77 +5683,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;Q28,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="4" t="e">
+        <f>VLOOKUP(C28,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" s="5" t="e">
+        <f>IF(EXACT(N28,E28),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="4">
+        <f>ROW(A28)</f>
+        <v>28</v>
+      </c>
+      <c r="Q28" s="4" t="str">
+        <f>TEXT(F28,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R28" s="4">
+        <f>IF(C28=C27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <f>IF(C28=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="4" t="e">
-        <f>VLOOKUP(C28,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="R28" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="10"/>
+      <c r="U28" s="4">
+        <f>COUNTIF(C:C,C28)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P29</f>
         <v>Nombre del cliente 29</v>
       </c>
       <c r="C29">
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F29" s="3">
         <v>44958</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -5871,77 +5757,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;Q29,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="4" t="e">
+        <f>VLOOKUP(C29,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="5" t="e">
+        <f>IF(EXACT(N29,E29),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="4">
+        <f>ROW(A29)</f>
+        <v>29</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f>TEXT(F29,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R29" s="4">
+        <f>IF(C29=C28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
+        <f>IF(C29=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O29" s="4" t="e">
-        <f>VLOOKUP(C29,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="R29" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="10"/>
+      <c r="U29" s="4">
+        <f>COUNTIF(C:C,C29)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P30</f>
         <v>Nombre del cliente 30</v>
       </c>
       <c r="C30">
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="3">
         <v>44958</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -5949,77 +5831,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;Q30,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f>VLOOKUP(C30,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="5" t="e">
+        <f>IF(EXACT(N30,E30),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="4">
+        <f>ROW(A30)</f>
+        <v>30</v>
+      </c>
+      <c r="Q30" s="4" t="str">
+        <f>TEXT(F30,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R30" s="4">
+        <f>IF(C30=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S30" s="4">
+        <f>IF(C30=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O30" s="4" t="e">
-        <f>VLOOKUP(C30,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="R30" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="10"/>
+      <c r="U30" s="4">
+        <f>COUNTIF(C:C,C30)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P31</f>
         <v>Nombre del cliente 31</v>
       </c>
       <c r="C31">
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F31" s="3">
         <v>44958</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -6027,77 +5905,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;Q31,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="4" t="e">
+        <f>VLOOKUP(C31,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="5" t="e">
+        <f>IF(EXACT(N31,E31),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="4">
+        <f>ROW(A31)</f>
+        <v>31</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <f>TEXT(F31,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R31" s="4">
+        <f>IF(C31=C30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
+        <f>IF(C31=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O31" s="4" t="e">
-        <f>VLOOKUP(C31,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="4">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="R31" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="10"/>
+      <c r="U31" s="4">
+        <f>COUNTIF(C:C,C31)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P32</f>
         <v>Nombre del cliente 32</v>
       </c>
       <c r="C32">
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F32" s="3">
         <v>44958</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K32" s="2" t="str">
@@ -6105,77 +5979,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;Q32,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="4" t="e">
+        <f>VLOOKUP(C32,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="5" t="e">
+        <f>IF(EXACT(N32,E32),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="4">
+        <f>ROW(A32)</f>
+        <v>32</v>
+      </c>
+      <c r="Q32" s="4" t="str">
+        <f>TEXT(F32,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R32" s="4">
+        <f>IF(C32=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
+        <f>IF(C32=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="4" t="e">
-        <f>VLOOKUP(C32,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="4">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="R32" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="10"/>
+      <c r="U32" s="4">
+        <f>COUNTIF(C:C,C32)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P33</f>
         <v>Nombre del cliente 33</v>
       </c>
       <c r="C33">
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F33" s="3">
         <v>44958</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K33" s="2" t="str">
@@ -6183,77 +6053,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;Q33,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="4" t="e">
+        <f>VLOOKUP(C33,[3]Hoja1!$J:$L,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="5" t="e">
+        <f>IF(EXACT(N33,E33),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="4">
+        <f>ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <f>TEXT(F33,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="R33" s="4">
+        <f>IF(C33=C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
+        <f>IF(C33=C34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
         <f t="shared" si="3"/>
-        <v>44985</v>
-      </c>
-      <c r="N33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="O33" s="4" t="e">
-        <f>VLOOKUP(C33,[3]Hoja1!$J:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="R33" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V33">
-        <f t="shared" si="10"/>
+      <c r="U33" s="4">
+        <f>COUNTIF(C:C,C33)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="15">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="7">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P34</f>
         <v>Nombre del cliente 34</v>
       </c>
       <c r="C34">
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F34" s="3">
         <v>44958</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K34" s="2" t="str">
@@ -6261,77 +6127,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="M34" s="2">
-        <f t="shared" ref="M34:M69" si="16">EOMONTH(F34,0)</f>
-        <v>44985</v>
-      </c>
-      <c r="N34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;Q34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="4" t="e">
+      <c r="N34" s="4" t="e">
         <f>VLOOKUP(C34,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="5" t="e">
-        <f t="shared" ref="P34:P65" si="17">IF(EXACT(O34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="18">ROW(A34)</f>
+      <c r="O34" s="5" t="e">
+        <f>IF(EXACT(N34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="4">
+        <f>ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="R34" s="4" t="str">
-        <f t="shared" ref="R34:R69" si="19">TEXT(F34,"AAAAMM")</f>
+      <c r="Q34" s="4" t="str">
+        <f>TEXT(F34,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R34" s="4">
+        <f>IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="20">IF(C34=C33,1,0)</f>
+        <f>IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T69" si="21">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <f t="shared" ref="U34:U65" si="22">SUM(S34:T34)</f>
+        <f t="shared" ref="T34:T65" si="8">SUM(R34:S34)</f>
         <v>2</v>
       </c>
-      <c r="V34">
-        <f t="shared" ref="V34:V69" si="23">COUNTIF(C:C,C34)</f>
+      <c r="U34" s="4">
+        <f>COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P35</f>
         <v>Nombre del cliente 35</v>
       </c>
       <c r="C35">
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F35" s="3">
         <v>44958</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K35" s="2" t="str">
@@ -6339,77 +6201,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="M35" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;Q35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="4" t="e">
+      <c r="N35" s="4" t="e">
         <f>VLOOKUP(C35,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="shared" si="18"/>
+      <c r="O35" s="5" t="e">
+        <f>IF(EXACT(N35,E35),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="4">
+        <f>ROW(A35)</f>
         <v>35</v>
       </c>
-      <c r="R35" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q35" s="4" t="str">
+        <f>TEXT(F35,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R35" s="4">
+        <f>IF(C35=C34,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S35" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C35=C36,1,0)</f>
         <v>1</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V35">
-        <f t="shared" si="23"/>
+      <c r="U35" s="4">
+        <f>COUNTIF(C:C,C35)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P36</f>
         <v>Nombre del cliente 36</v>
       </c>
       <c r="C36">
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F36" s="3">
         <v>44958</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K36" s="2" t="str">
@@ -6417,77 +6275,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="M36" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;Q36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="4" t="e">
+      <c r="N36" s="4" t="e">
         <f>VLOOKUP(C36,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" s="4">
-        <f t="shared" si="18"/>
+      <c r="O36" s="5" t="e">
+        <f>IF(EXACT(N36,E36),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P36" s="4">
+        <f>ROW(A36)</f>
         <v>36</v>
       </c>
-      <c r="R36" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q36" s="4" t="str">
+        <f>TEXT(F36,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R36" s="4">
+        <f>IF(C36=C35,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S36" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C36=C37,1,0)</f>
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="23"/>
+      <c r="U36" s="4">
+        <f>COUNTIF(C:C,C36)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P37</f>
         <v>Nombre del cliente 37</v>
       </c>
       <c r="C37">
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F37" s="3">
         <v>44958</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K37" s="2" t="str">
@@ -6495,77 +6349,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="M37" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;Q37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="4" t="e">
+      <c r="N37" s="4" t="e">
         <f>VLOOKUP(C37,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" s="4">
-        <f t="shared" si="18"/>
+      <c r="O37" s="5" t="e">
+        <f>IF(EXACT(N37,E37),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P37" s="4">
+        <f>ROW(A37)</f>
         <v>37</v>
       </c>
-      <c r="R37" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q37" s="4" t="str">
+        <f>TEXT(F37,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R37" s="4">
+        <f>IF(C37=C36,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S37" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C37=C38,1,0)</f>
         <v>1</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V37">
-        <f t="shared" si="23"/>
+      <c r="U37" s="4">
+        <f>COUNTIF(C:C,C37)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P38</f>
         <v>Nombre del cliente 38</v>
       </c>
       <c r="C38">
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F38" s="3">
         <v>44958</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K38" s="2" t="str">
@@ -6573,77 +6423,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="M38" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;Q38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="4" t="e">
+      <c r="N38" s="4" t="e">
         <f>VLOOKUP(C38,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" s="4">
-        <f t="shared" si="18"/>
+      <c r="O38" s="5" t="e">
+        <f>IF(EXACT(N38,E38),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P38" s="4">
+        <f>ROW(A38)</f>
         <v>38</v>
       </c>
-      <c r="R38" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q38" s="4" t="str">
+        <f>TEXT(F38,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R38" s="4">
+        <f>IF(C38=C37,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S38" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C38=C39,1,0)</f>
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="23"/>
+      <c r="U38" s="4">
+        <f>COUNTIF(C:C,C38)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P39</f>
         <v>Nombre del cliente 39</v>
       </c>
       <c r="C39">
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F39" s="3">
         <v>44958</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K39" s="2" t="str">
@@ -6651,77 +6497,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="M39" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;Q39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="4" t="e">
+      <c r="N39" s="4" t="e">
         <f>VLOOKUP(C39,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="4">
-        <f t="shared" si="18"/>
+      <c r="O39" s="5" t="e">
+        <f>IF(EXACT(N39,E39),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P39" s="4">
+        <f>ROW(A39)</f>
         <v>39</v>
       </c>
-      <c r="R39" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q39" s="4" t="str">
+        <f>TEXT(F39,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R39" s="4">
+        <f>IF(C39=C38,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S39" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C39=C40,1,0)</f>
         <v>1</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="23"/>
+      <c r="U39" s="4">
+        <f>COUNTIF(C:C,C39)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P40</f>
         <v>Nombre del cliente 40</v>
       </c>
       <c r="C40">
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F40" s="3">
         <v>44958</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K40" s="2" t="str">
@@ -6729,77 +6571,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="M40" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;Q40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="4" t="e">
+      <c r="N40" s="4" t="e">
         <f>VLOOKUP(C40,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" s="4">
-        <f t="shared" si="18"/>
+      <c r="O40" s="5" t="e">
+        <f>IF(EXACT(N40,E40),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P40" s="4">
+        <f>ROW(A40)</f>
         <v>40</v>
       </c>
-      <c r="R40" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q40" s="4" t="str">
+        <f>TEXT(F40,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R40" s="4">
+        <f>IF(C40=C39,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S40" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C40=C41,1,0)</f>
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="23"/>
+      <c r="U40" s="4">
+        <f>COUNTIF(C:C,C40)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P41</f>
         <v>Nombre del cliente 41</v>
       </c>
       <c r="C41">
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F41" s="3">
         <v>44958</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K41" s="2" t="str">
@@ -6807,77 +6645,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="M41" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;Q41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="4" t="e">
+      <c r="N41" s="4" t="e">
         <f>VLOOKUP(C41,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" s="4">
-        <f t="shared" si="18"/>
+      <c r="O41" s="5" t="e">
+        <f>IF(EXACT(N41,E41),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P41" s="4">
+        <f>ROW(A41)</f>
         <v>41</v>
       </c>
-      <c r="R41" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q41" s="4" t="str">
+        <f>TEXT(F41,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R41" s="4">
+        <f>IF(C41=C40,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S41" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C41=C42,1,0)</f>
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="23"/>
+      <c r="U41" s="4">
+        <f>COUNTIF(C:C,C41)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P42</f>
         <v>Nombre del cliente 42</v>
       </c>
       <c r="C42">
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F42" s="3">
         <v>44958</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K42" s="2" t="str">
@@ -6885,77 +6719,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="M42" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;Q42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="4" t="e">
+      <c r="N42" s="4" t="e">
         <f>VLOOKUP(C42,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" s="4">
-        <f t="shared" si="18"/>
+      <c r="O42" s="5" t="e">
+        <f>IF(EXACT(N42,E42),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P42" s="4">
+        <f>ROW(A42)</f>
         <v>42</v>
       </c>
-      <c r="R42" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q42" s="4" t="str">
+        <f>TEXT(F42,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R42" s="4">
+        <f>IF(C42=C41,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S42" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C42=C43,1,0)</f>
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="23"/>
+      <c r="U42" s="4">
+        <f>COUNTIF(C:C,C42)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P43</f>
         <v>Nombre del cliente 43</v>
       </c>
       <c r="C43">
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F43" s="3">
         <v>44958</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K43" s="2" t="str">
@@ -6963,77 +6793,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="M43" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;Q43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="4" t="e">
+      <c r="N43" s="4" t="e">
         <f>VLOOKUP(C43,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" s="4">
-        <f t="shared" si="18"/>
+      <c r="O43" s="5" t="e">
+        <f>IF(EXACT(N43,E43),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P43" s="4">
+        <f>ROW(A43)</f>
         <v>43</v>
       </c>
-      <c r="R43" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q43" s="4" t="str">
+        <f>TEXT(F43,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R43" s="4">
+        <f>IF(C43=C42,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S43" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C43=C44,1,0)</f>
         <v>1</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="23"/>
+      <c r="U43" s="4">
+        <f>COUNTIF(C:C,C43)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P44</f>
         <v>Nombre del cliente 44</v>
       </c>
       <c r="C44">
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F44" s="3">
         <v>44958</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K44" s="2" t="str">
@@ -7041,77 +6867,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="M44" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;Q44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="4" t="e">
+      <c r="N44" s="4" t="e">
         <f>VLOOKUP(C44,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" s="4">
-        <f t="shared" si="18"/>
+      <c r="O44" s="5" t="e">
+        <f>IF(EXACT(N44,E44),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P44" s="4">
+        <f>ROW(A44)</f>
         <v>44</v>
       </c>
-      <c r="R44" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q44" s="4" t="str">
+        <f>TEXT(F44,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R44" s="4">
+        <f>IF(C44=C43,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S44" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C44=C45,1,0)</f>
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V44">
-        <f t="shared" si="23"/>
+      <c r="U44" s="4">
+        <f>COUNTIF(C:C,C44)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P45</f>
         <v>Nombre del cliente 45</v>
       </c>
       <c r="C45">
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F45" s="3">
         <v>44958</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K45" s="2" t="str">
@@ -7119,77 +6941,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="M45" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;Q45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="4" t="e">
+      <c r="N45" s="4" t="e">
         <f>VLOOKUP(C45,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" s="4">
-        <f t="shared" si="18"/>
+      <c r="O45" s="5" t="e">
+        <f>IF(EXACT(N45,E45),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P45" s="4">
+        <f>ROW(A45)</f>
         <v>45</v>
       </c>
-      <c r="R45" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q45" s="4" t="str">
+        <f>TEXT(F45,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R45" s="4">
+        <f>IF(C45=C44,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S45" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C45=C46,1,0)</f>
         <v>1</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V45">
-        <f t="shared" si="23"/>
+      <c r="U45" s="4">
+        <f>COUNTIF(C:C,C45)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P46</f>
         <v>Nombre del cliente 46</v>
       </c>
       <c r="C46">
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F46" s="3">
         <v>44958</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K46" s="2" t="str">
@@ -7197,77 +7015,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="M46" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;Q46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="4" t="e">
+      <c r="N46" s="4" t="e">
         <f>VLOOKUP(C46,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" s="4">
-        <f t="shared" si="18"/>
+      <c r="O46" s="5" t="e">
+        <f>IF(EXACT(N46,E46),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P46" s="4">
+        <f>ROW(A46)</f>
         <v>46</v>
       </c>
-      <c r="R46" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q46" s="4" t="str">
+        <f>TEXT(F46,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R46" s="4">
+        <f>IF(C46=C45,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S46" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C46=C47,1,0)</f>
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="23"/>
+      <c r="U46" s="4">
+        <f>COUNTIF(C:C,C46)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P47</f>
         <v>Nombre del cliente 47</v>
       </c>
       <c r="C47">
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F47" s="3">
         <v>44958</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K47" s="2" t="str">
@@ -7275,77 +7089,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="M47" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;Q47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="4" t="e">
+      <c r="N47" s="4" t="e">
         <f>VLOOKUP(C47,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q47" s="4">
-        <f t="shared" si="18"/>
+      <c r="O47" s="5" t="e">
+        <f>IF(EXACT(N47,E47),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P47" s="4">
+        <f>ROW(A47)</f>
         <v>47</v>
       </c>
-      <c r="R47" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q47" s="4" t="str">
+        <f>TEXT(F47,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R47" s="4">
+        <f>IF(C47=C46,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S47" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C47=C48,1,0)</f>
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="23"/>
+      <c r="U47" s="4">
+        <f>COUNTIF(C:C,C47)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P48</f>
         <v>Nombre del cliente 48</v>
       </c>
       <c r="C48">
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F48" s="3">
         <v>44958</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K48" s="2" t="str">
@@ -7353,77 +7163,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="M48" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;Q48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="4" t="e">
+      <c r="N48" s="4" t="e">
         <f>VLOOKUP(C48,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" s="4">
-        <f t="shared" si="18"/>
+      <c r="O48" s="5" t="e">
+        <f>IF(EXACT(N48,E48),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P48" s="4">
+        <f>ROW(A48)</f>
         <v>48</v>
       </c>
-      <c r="R48" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q48" s="4" t="str">
+        <f>TEXT(F48,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R48" s="4">
+        <f>IF(C48=C47,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S48" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C48=C49,1,0)</f>
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="23"/>
+      <c r="U48" s="4">
+        <f>COUNTIF(C:C,C48)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P49</f>
         <v>Nombre del cliente 49</v>
       </c>
       <c r="C49">
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F49" s="3">
         <v>44958</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K49" s="2" t="str">
@@ -7431,77 +7237,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="M49" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;Q49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="4" t="e">
+      <c r="N49" s="4" t="e">
         <f>VLOOKUP(C49,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" s="4">
-        <f t="shared" si="18"/>
+      <c r="O49" s="5" t="e">
+        <f>IF(EXACT(N49,E49),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P49" s="4">
+        <f>ROW(A49)</f>
         <v>49</v>
       </c>
-      <c r="R49" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q49" s="4" t="str">
+        <f>TEXT(F49,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R49" s="4">
+        <f>IF(C49=C48,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S49" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C49=C50,1,0)</f>
         <v>1</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="23"/>
+      <c r="U49" s="4">
+        <f>COUNTIF(C:C,C49)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P50</f>
         <v>Nombre del cliente 50</v>
       </c>
       <c r="C50">
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F50" s="3">
         <v>44958</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K50" s="2" t="str">
@@ -7509,77 +7311,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="M50" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;Q50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="4" t="e">
+      <c r="N50" s="4" t="e">
         <f>VLOOKUP(C50,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" s="4">
-        <f t="shared" si="18"/>
+      <c r="O50" s="5" t="e">
+        <f>IF(EXACT(N50,E50),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P50" s="4">
+        <f>ROW(A50)</f>
         <v>50</v>
       </c>
-      <c r="R50" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q50" s="4" t="str">
+        <f>TEXT(F50,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R50" s="4">
+        <f>IF(C50=C49,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S50" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C50=C51,1,0)</f>
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="23"/>
+      <c r="U50" s="4">
+        <f>COUNTIF(C:C,C50)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P51</f>
         <v>Nombre del cliente 51</v>
       </c>
       <c r="C51">
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F51" s="3">
         <v>44958</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K51" s="2" t="str">
@@ -7587,77 +7385,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="M51" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;Q51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="4" t="e">
+      <c r="N51" s="4" t="e">
         <f>VLOOKUP(C51,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" s="4">
-        <f t="shared" si="18"/>
+      <c r="O51" s="5" t="e">
+        <f>IF(EXACT(N51,E51),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P51" s="4">
+        <f>ROW(A51)</f>
         <v>51</v>
       </c>
-      <c r="R51" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q51" s="4" t="str">
+        <f>TEXT(F51,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R51" s="4">
+        <f>IF(C51=C50,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S51" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C51=C52,1,0)</f>
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="23"/>
+      <c r="U51" s="4">
+        <f>COUNTIF(C:C,C51)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P52</f>
         <v>Nombre del cliente 52</v>
       </c>
       <c r="C52">
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F52" s="3">
         <v>44958</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K52" s="2" t="str">
@@ -7665,77 +7459,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="M52" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;Q52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="4" t="e">
+      <c r="N52" s="4" t="e">
         <f>VLOOKUP(C52,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="4">
-        <f t="shared" si="18"/>
+      <c r="O52" s="5" t="e">
+        <f>IF(EXACT(N52,E52),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P52" s="4">
+        <f>ROW(A52)</f>
         <v>52</v>
       </c>
-      <c r="R52" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q52" s="4" t="str">
+        <f>TEXT(F52,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R52" s="4">
+        <f>IF(C52=C51,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S52" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C52=C53,1,0)</f>
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V52">
-        <f t="shared" si="23"/>
+      <c r="U52" s="4">
+        <f>COUNTIF(C:C,C52)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P53</f>
         <v>Nombre del cliente 53</v>
       </c>
       <c r="C53">
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F53" s="3">
         <v>44958</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K53" s="2" t="str">
@@ -7743,77 +7533,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="M53" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;Q53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="4" t="e">
+      <c r="N53" s="4" t="e">
         <f>VLOOKUP(C53,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" s="4">
-        <f t="shared" si="18"/>
+      <c r="O53" s="5" t="e">
+        <f>IF(EXACT(N53,E53),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P53" s="4">
+        <f>ROW(A53)</f>
         <v>53</v>
       </c>
-      <c r="R53" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q53" s="4" t="str">
+        <f>TEXT(F53,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R53" s="4">
+        <f>IF(C53=C52,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S53" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C53=C54,1,0)</f>
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="23"/>
+      <c r="U53" s="4">
+        <f>COUNTIF(C:C,C53)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P54</f>
         <v>Nombre del cliente 54</v>
       </c>
       <c r="C54">
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F54" s="3">
         <v>44958</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K54" s="2" t="str">
@@ -7821,77 +7607,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="M54" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;Q54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="4" t="e">
+      <c r="N54" s="4" t="e">
         <f>VLOOKUP(C54,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="18"/>
+      <c r="O54" s="5" t="e">
+        <f>IF(EXACT(N54,E54),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P54" s="4">
+        <f>ROW(A54)</f>
         <v>54</v>
       </c>
-      <c r="R54" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q54" s="4" t="str">
+        <f>TEXT(F54,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R54" s="4">
+        <f>IF(C54=C53,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S54" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C54=C55,1,0)</f>
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V54">
-        <f t="shared" si="23"/>
+      <c r="U54" s="4">
+        <f>COUNTIF(C:C,C54)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P55</f>
         <v>Nombre del cliente 55</v>
       </c>
       <c r="C55">
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F55" s="3">
         <v>44958</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K55" s="2" t="str">
@@ -7899,77 +7681,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="M55" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;Q55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="4" t="e">
+      <c r="N55" s="4" t="e">
         <f>VLOOKUP(C55,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="18"/>
+      <c r="O55" s="5" t="e">
+        <f>IF(EXACT(N55,E55),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P55" s="4">
+        <f>ROW(A55)</f>
         <v>55</v>
       </c>
-      <c r="R55" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q55" s="4" t="str">
+        <f>TEXT(F55,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R55" s="4">
+        <f>IF(C55=C54,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S55" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C55=C56,1,0)</f>
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V55">
-        <f t="shared" si="23"/>
+      <c r="U55" s="4">
+        <f>COUNTIF(C:C,C55)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P56</f>
         <v>Nombre del cliente 56</v>
       </c>
       <c r="C56">
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F56" s="3">
         <v>44958</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K56" s="2" t="str">
@@ -7977,77 +7755,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="M56" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;Q56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="4" t="e">
+      <c r="N56" s="4" t="e">
         <f>VLOOKUP(C56,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="18"/>
+      <c r="O56" s="5" t="e">
+        <f>IF(EXACT(N56,E56),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P56" s="4">
+        <f>ROW(A56)</f>
         <v>56</v>
       </c>
-      <c r="R56" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q56" s="4" t="str">
+        <f>TEXT(F56,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R56" s="4">
+        <f>IF(C56=C55,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S56" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C56=C57,1,0)</f>
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V56">
-        <f t="shared" si="23"/>
+      <c r="U56" s="4">
+        <f>COUNTIF(C:C,C56)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P57</f>
         <v>Nombre del cliente 57</v>
       </c>
       <c r="C57">
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F57" s="3">
         <v>44958</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K57" s="2" t="str">
@@ -8055,77 +7829,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="M57" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;Q57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="4" t="e">
+      <c r="N57" s="4" t="e">
         <f>VLOOKUP(C57,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="18"/>
+      <c r="O57" s="5" t="e">
+        <f>IF(EXACT(N57,E57),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P57" s="4">
+        <f>ROW(A57)</f>
         <v>57</v>
       </c>
-      <c r="R57" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q57" s="4" t="str">
+        <f>TEXT(F57,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R57" s="4">
+        <f>IF(C57=C56,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S57" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C57=C58,1,0)</f>
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V57">
-        <f t="shared" si="23"/>
+      <c r="U57" s="4">
+        <f>COUNTIF(C:C,C57)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P58</f>
         <v>Nombre del cliente 58</v>
       </c>
       <c r="C58">
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F58" s="3">
         <v>44958</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K58" s="2" t="str">
@@ -8133,77 +7903,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="M58" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;Q58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="4" t="e">
+      <c r="N58" s="4" t="e">
         <f>VLOOKUP(C58,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="18"/>
+      <c r="O58" s="5" t="e">
+        <f>IF(EXACT(N58,E58),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P58" s="4">
+        <f>ROW(A58)</f>
         <v>58</v>
       </c>
-      <c r="R58" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q58" s="4" t="str">
+        <f>TEXT(F58,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R58" s="4">
+        <f>IF(C58=C57,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S58" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C58=C59,1,0)</f>
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="23"/>
+      <c r="U58" s="4">
+        <f>COUNTIF(C:C,C58)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P59</f>
         <v>Nombre del cliente 59</v>
       </c>
       <c r="C59">
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F59" s="3">
         <v>44958</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K59" s="2" t="str">
@@ -8211,77 +7977,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="M59" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;Q59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="4" t="e">
+      <c r="N59" s="4" t="e">
         <f>VLOOKUP(C59,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="18"/>
+      <c r="O59" s="5" t="e">
+        <f>IF(EXACT(N59,E59),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P59" s="4">
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
-      <c r="R59" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q59" s="4" t="str">
+        <f>TEXT(F59,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R59" s="4">
+        <f>IF(C59=C58,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S59" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C59=C60,1,0)</f>
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="23"/>
+      <c r="U59" s="4">
+        <f>COUNTIF(C:C,C59)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P60</f>
         <v>Nombre del cliente 60</v>
       </c>
       <c r="C60">
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F60" s="3">
         <v>44958</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K60" s="2" t="str">
@@ -8289,77 +8051,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="M60" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;Q60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="4" t="e">
+      <c r="N60" s="4" t="e">
         <f>VLOOKUP(C60,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="18"/>
+      <c r="O60" s="5" t="e">
+        <f>IF(EXACT(N60,E60),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P60" s="4">
+        <f>ROW(A60)</f>
         <v>60</v>
       </c>
-      <c r="R60" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q60" s="4" t="str">
+        <f>TEXT(F60,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R60" s="4">
+        <f>IF(C60=C59,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S60" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C60=C61,1,0)</f>
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V60">
-        <f t="shared" si="23"/>
+      <c r="U60" s="4">
+        <f>COUNTIF(C:C,C60)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P61</f>
         <v>Nombre del cliente 61</v>
       </c>
       <c r="C61">
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F61" s="3">
         <v>44958</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K61" s="2" t="str">
@@ -8367,77 +8125,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="M61" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;Q61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="4" t="e">
+      <c r="N61" s="4" t="e">
         <f>VLOOKUP(C61,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="18"/>
+      <c r="O61" s="5" t="e">
+        <f>IF(EXACT(N61,E61),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P61" s="4">
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
-      <c r="R61" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q61" s="4" t="str">
+        <f>TEXT(F61,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R61" s="4">
+        <f>IF(C61=C60,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S61" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C61=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V61">
-        <f t="shared" si="23"/>
+      <c r="U61" s="4">
+        <f>COUNTIF(C:C,C61)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P62</f>
         <v>Nombre del cliente 62</v>
       </c>
       <c r="C62">
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F62" s="3">
         <v>44958</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K62" s="2" t="str">
@@ -8445,77 +8199,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="M62" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;Q62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="4" t="e">
+      <c r="N62" s="4" t="e">
         <f>VLOOKUP(C62,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="18"/>
+      <c r="O62" s="5" t="e">
+        <f>IF(EXACT(N62,E62),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P62" s="4">
+        <f>ROW(A62)</f>
         <v>62</v>
       </c>
-      <c r="R62" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q62" s="4" t="str">
+        <f>TEXT(F62,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R62" s="4">
+        <f>IF(C62=C61,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S62" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C62=C63,1,0)</f>
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="23"/>
+      <c r="U62" s="4">
+        <f>COUNTIF(C:C,C62)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P63</f>
         <v>Nombre del cliente 63</v>
       </c>
       <c r="C63">
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F63" s="3">
         <v>44958</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K63" s="2" t="str">
@@ -8523,77 +8273,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="M63" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;Q63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="4" t="e">
+      <c r="N63" s="4" t="e">
         <f>VLOOKUP(C63,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="18"/>
+      <c r="O63" s="5" t="e">
+        <f>IF(EXACT(N63,E63),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P63" s="4">
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
-      <c r="R63" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q63" s="4" t="str">
+        <f>TEXT(F63,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R63" s="4">
+        <f>IF(C63=C62,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S63" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C63=C64,1,0)</f>
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="23"/>
+      <c r="U63" s="4">
+        <f>COUNTIF(C:C,C63)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P64</f>
         <v>Nombre del cliente 64</v>
       </c>
       <c r="C64">
         <v>20000000000</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F64" s="3">
         <v>44958</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K64" s="2" t="str">
@@ -8601,77 +8347,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="M64" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;Q64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="4" t="e">
+      <c r="N64" s="4" t="e">
         <f>VLOOKUP(C64,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="18"/>
+      <c r="O64" s="5" t="e">
+        <f>IF(EXACT(N64,E64),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P64" s="4">
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
-      <c r="R64" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q64" s="4" t="str">
+        <f>TEXT(F64,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R64" s="4">
+        <f>IF(C64=C63,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S64" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C64=C65,1,0)</f>
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V64">
-        <f t="shared" si="23"/>
+      <c r="U64" s="4">
+        <f>COUNTIF(C:C,C64)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P65</f>
         <v>Nombre del cliente 65</v>
       </c>
       <c r="C65">
         <v>20000000000</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F65" s="3">
         <v>44958</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K65" s="2" t="str">
@@ -8679,77 +8421,73 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="M65" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;Q65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="4" t="e">
+      <c r="N65" s="4" t="e">
         <f>VLOOKUP(C65,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="5" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q65" s="4">
-        <f t="shared" si="18"/>
+      <c r="O65" s="5" t="e">
+        <f>IF(EXACT(N65,E65),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P65" s="4">
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
-      <c r="R65" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q65" s="4" t="str">
+        <f>TEXT(F65,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R65" s="4">
+        <f>IF(C65=C64,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S65" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C65=C66,1,0)</f>
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="23"/>
+      <c r="U65" s="4">
+        <f>COUNTIF(C:C,C65)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="11"/>
+        <f>"Nombre del cliente "&amp;P66</f>
         <v>Nombre del cliente 66</v>
       </c>
       <c r="C66">
         <v>20000000000</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F66" s="3">
         <v>44958</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>01022023</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>28022023</v>
       </c>
       <c r="K66" s="2" t="str">
@@ -8757,287 +8495,271 @@
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="M66" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;Q66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="4" t="e">
+      <c r="N66" s="4" t="e">
         <f>VLOOKUP(C66,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P66" s="5" t="e">
-        <f t="shared" ref="P66:P69" si="24">IF(EXACT(O66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="4">
-        <f t="shared" si="18"/>
+      <c r="O66" s="5" t="e">
+        <f>IF(EXACT(N66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P66" s="4">
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="R66" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q66" s="4" t="str">
+        <f>TEXT(F66,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R66" s="4">
+        <f>IF(C66=C65,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S66" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C66=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <f t="shared" ref="U66:U69" si="25">SUM(S66:T66)</f>
+        <f t="shared" ref="T66:T69" si="9">SUM(R66:S66)</f>
         <v>2</v>
       </c>
-      <c r="V66">
-        <f t="shared" si="23"/>
+      <c r="U66" s="4">
+        <f>COUNTIF(C:C,C66)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="26">"Nombre del cliente "&amp;Q67</f>
+        <f t="shared" ref="B67:B69" si="10">"Nombre del cliente "&amp;P67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
         <v>20000000000</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F67" s="3">
         <v>44958</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="27">TEXT(F67,"DDMMAAAA")</f>
+        <f t="shared" ref="I67:I69" si="11">TEXT(F67,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="28">TEXT(M67,"DDMMAAAA")</f>
+        <f t="shared" ref="J67:J69" si="12">TEXT(EOMONTH(F67,0),"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="29">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="K67:K69" si="13">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="30">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="L67:L69" si="14">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="M67" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;Q67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="4" t="e">
+      <c r="N67" s="4" t="e">
         <f>VLOOKUP(C67,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="5" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q67" s="4">
-        <f t="shared" si="18"/>
+      <c r="O67" s="5" t="e">
+        <f>IF(EXACT(N67,E67),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P67" s="4">
+        <f>ROW(A67)</f>
         <v>67</v>
       </c>
-      <c r="R67" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q67" s="4" t="str">
+        <f>TEXT(F67,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R67" s="4">
+        <f>IF(C67=C66,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S67" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C67=C68,1,0)</f>
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V67">
-        <f t="shared" si="23"/>
+      <c r="U67" s="4">
+        <f>COUNTIF(C:C,C67)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>Nombre del cliente 68</v>
       </c>
       <c r="C68">
         <v>20000000000</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F68" s="3">
         <v>44958</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="M68" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;Q68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O68" s="4" t="e">
+      <c r="N68" s="4" t="e">
         <f>VLOOKUP(C68,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="5" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q68" s="4">
-        <f t="shared" si="18"/>
+      <c r="O68" s="5" t="e">
+        <f>IF(EXACT(N68,E68),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P68" s="4">
+        <f>ROW(A68)</f>
         <v>68</v>
       </c>
-      <c r="R68" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q68" s="4" t="str">
+        <f>TEXT(F68,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R68" s="4">
+        <f>IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S68" s="4">
-        <f t="shared" si="20"/>
+        <f>IF(C68=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="V68">
-        <f t="shared" si="23"/>
+      <c r="U68" s="4">
+        <f>COUNTIF(C:C,C68)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>Nombre del cliente 69</v>
       </c>
       <c r="C69">
         <v>20000000000</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F69" s="3">
         <v>44958</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="M69" s="2">
-        <f t="shared" si="16"/>
-        <v>44985</v>
-      </c>
-      <c r="N69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="M69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;Q69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="4" t="e">
+      <c r="N69" s="4" t="e">
         <f>VLOOKUP(C69,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="5" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q69" s="4">
-        <f t="shared" si="18"/>
+      <c r="O69" s="5" t="e">
+        <f>IF(EXACT(N69,E69),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P69" s="4">
+        <f>ROW(A69)</f>
         <v>69</v>
       </c>
-      <c r="R69" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q69" s="4" t="str">
+        <f>TEXT(F69,"AAAAMM")</f>
         <v>202302</v>
       </c>
+      <c r="R69" s="4">
+        <f>IF(C69=C68,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="S69" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f>IF(C69=C70,1,0)</f>
+        <v>0</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U69" s="4">
+        <f>COUNTIF(C:C,C69)</f>
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
@@ -9058,22 +8780,22 @@
   <sheetData>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7F8F7C-26A9-4981-B6B5-41E357BC6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B777CE-85BC-445C-BE38-C592ECF5BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Esta columna sirve solo para colocar un filtro (las filas filtradas no las ejecuta el bot)</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
     <t>Columna con los directorios donde se busca guardar los archivos</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Clave como valor Pegado (no Fórmula)</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
   </si>
 </sst>
 </file>
@@ -3622,9 +3622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -3713,18 +3713,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>"Nombre del cliente "&amp;P2</f>
+        <f t="shared" ref="B2:B33" si="1">"Nombre del cliente "&amp;P2</f>
         <v>Nombre del cliente 2</v>
       </c>
       <c r="C2">
         <v>20000000000</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D10" si="1">TEXT(C2,"00-00000000-0")</f>
+        <f t="shared" ref="D2:D10" si="2">TEXT(C2,"00-00000000-0")</f>
         <v>20-00000000-0</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
         <v>44958</v>
@@ -3733,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>TEXT(F2,"DDMMAAAA")</f>
@@ -3744,7 +3744,7 @@
         <v>28022023</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K66" si="2">CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f t="shared" ref="K2:K66" si="3">CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
       <c r="L2" s="2" t="str">
@@ -3760,31 +3760,31 @@
         <v>#N/A</v>
       </c>
       <c r="O2" s="5" t="e">
-        <f>IF(EXACT(N2,E2),"ü","x")</f>
+        <f t="shared" ref="O2:O33" si="4">IF(EXACT(N2,E2),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="P2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="P2:P33" si="5">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <f>TEXT(F2,"AAAAMM")</f>
+        <f t="shared" ref="Q2:Q33" si="6">TEXT(F2,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="R2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+        <f t="shared" ref="R2:R33" si="7">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f>IF(C2=C3,1,0)</f>
+        <f t="shared" ref="S2:S33" si="8">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="3">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T33" si="9">SUM(R2:S2)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f>COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="U2:U33" si="10">COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
@@ -3794,39 +3794,39 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f>"Nombre del cliente "&amp;P3</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 3</v>
       </c>
       <c r="C3">
         <v>20000000000</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>44958</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="4">TEXT(F3,"DDMMAAAA")</f>
+        <f t="shared" ref="I3:I66" si="11">TEXT(F3,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="5">TEXT(EOMONTH(F3,0),"DDMMAAAA")</f>
+        <f t="shared" ref="J3:J66" si="12">TEXT(EOMONTH(F3,0),"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="6">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="13">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
       <c r="M3" s="5" t="str">
@@ -3838,31 +3838,31 @@
         <v>#N/A</v>
       </c>
       <c r="O3" s="5" t="e">
-        <f>IF(EXACT(N3,E3),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f>TEXT(F3,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R3" s="4">
-        <f>IF(C3=C2,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S3" s="4">
-        <f>IF(C3=C4,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U3" s="4">
-        <f>COUNTIF(C:C,C3)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -3872,36 +3872,36 @@
         <v>0</v>
       </c>
       <c r="B4" t="str">
-        <f>"Nombre del cliente "&amp;P4</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 4</v>
       </c>
       <c r="C4">
         <v>20000000000</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>44958</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
       <c r="M4" s="5" t="str">
@@ -3913,31 +3913,31 @@
         <v>#N/A</v>
       </c>
       <c r="O4" s="5" t="e">
-        <f>IF(EXACT(N4,E4),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>TEXT(F4,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R4" s="4">
-        <f>IF(C4=C3,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S4" s="4">
-        <f>IF(C4=C5,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U4" s="4">
-        <f>COUNTIF(C:C,C4)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -3947,36 +3947,36 @@
         <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f>"Nombre del cliente "&amp;P5</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 5</v>
       </c>
       <c r="C5">
         <v>20000000000</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>44958</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
       <c r="M5" s="5" t="str">
@@ -3988,31 +3988,31 @@
         <v>#N/A</v>
       </c>
       <c r="O5" s="5" t="e">
-        <f>IF(EXACT(N5,E5),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>TEXT(F5,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R5" s="4">
-        <f>IF(C5=C4,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S5" s="4">
-        <f>IF(C5=C6,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U5" s="4">
-        <f>COUNTIF(C:C,C5)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4022,36 +4022,36 @@
         <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f>"Nombre del cliente "&amp;P6</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 6</v>
       </c>
       <c r="C6">
         <v>20000000000</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3">
         <v>44958</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
       <c r="L6" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
       <c r="M6" s="5" t="str">
@@ -4063,31 +4063,31 @@
         <v>#N/A</v>
       </c>
       <c r="O6" s="5" t="e">
-        <f>IF(EXACT(N6,E6),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>TEXT(F6,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R6" s="4">
-        <f>IF(C6=C5,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S6" s="4">
-        <f>IF(C6=C7,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U6" s="4">
-        <f>COUNTIF(C:C,C6)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4097,36 +4097,36 @@
         <v>0</v>
       </c>
       <c r="B7" t="str">
-        <f>"Nombre del cliente "&amp;P7</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 7</v>
       </c>
       <c r="C7">
         <v>20000000000</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>44958</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
       <c r="M7" s="5" t="str">
@@ -4138,31 +4138,31 @@
         <v>#N/A</v>
       </c>
       <c r="O7" s="5" t="e">
-        <f>IF(EXACT(N7,E7),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>TEXT(F7,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R7" s="4">
-        <f>IF(C7=C6,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S7" s="4">
-        <f>IF(C7=C8,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U7" s="4">
-        <f>COUNTIF(C:C,C7)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4172,36 +4172,36 @@
         <v>0</v>
       </c>
       <c r="B8" t="str">
-        <f>"Nombre del cliente "&amp;P8</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 8</v>
       </c>
       <c r="C8">
         <v>20000000000</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>44958</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
       <c r="M8" s="5" t="str">
@@ -4213,31 +4213,31 @@
         <v>#N/A</v>
       </c>
       <c r="O8" s="5" t="e">
-        <f>IF(EXACT(N8,E8),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>TEXT(F8,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R8" s="4">
-        <f>IF(C8=C7,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S8" s="4">
-        <f>IF(C8=C9,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U8" s="4">
-        <f>COUNTIF(C:C,C8)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4247,36 +4247,36 @@
         <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f>"Nombre del cliente "&amp;P9</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 9</v>
       </c>
       <c r="C9">
         <v>20000000000</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
         <v>44958</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
       <c r="L9" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
       <c r="M9" s="5" t="str">
@@ -4288,31 +4288,31 @@
         <v>#N/A</v>
       </c>
       <c r="O9" s="5" t="e">
-        <f>IF(EXACT(N9,E9),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>TEXT(F9,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R9" s="4">
-        <f>IF(C9=C8,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S9" s="4">
-        <f>IF(C9=C10,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U9" s="4">
-        <f>COUNTIF(C:C,C9)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4322,36 +4322,36 @@
         <v>0</v>
       </c>
       <c r="B10" t="str">
-        <f>"Nombre del cliente "&amp;P10</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 10</v>
       </c>
       <c r="C10">
         <v>20000000000</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20-00000000-0</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3">
         <v>44958</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
       <c r="M10" s="5" t="str">
@@ -4363,31 +4363,31 @@
         <v>#N/A</v>
       </c>
       <c r="O10" s="5" t="e">
-        <f>IF(EXACT(N10,E10),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>TEXT(F10,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R10" s="4">
-        <f>IF(C10=C9,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S10" s="4">
-        <f>IF(C10=C11,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U10" s="4">
-        <f>COUNTIF(C:C,C10)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <f>"Nombre del cliente "&amp;P11</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 11</v>
       </c>
       <c r="C11">
@@ -4407,25 +4407,25 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3">
         <v>44958</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
       <c r="M11" s="5" t="str">
@@ -4437,31 +4437,31 @@
         <v>#N/A</v>
       </c>
       <c r="O11" s="5" t="e">
-        <f>IF(EXACT(N11,E11),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>TEXT(F11,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R11" s="4">
-        <f>IF(C11=C10,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S11" s="4">
-        <f>IF(C11=C12,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U11" s="4">
-        <f>COUNTIF(C:C,C11)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f>"Nombre del cliente "&amp;P12</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 12</v>
       </c>
       <c r="C12">
@@ -4481,25 +4481,25 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3">
         <v>44958</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
       <c r="M12" s="5" t="str">
@@ -4511,31 +4511,31 @@
         <v>#N/A</v>
       </c>
       <c r="O12" s="5" t="e">
-        <f>IF(EXACT(N12,E12),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>TEXT(F12,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R12" s="4">
-        <f>IF(C12=C11,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S12" s="4">
-        <f>IF(C12=C13,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U12" s="4">
-        <f>COUNTIF(C:C,C12)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f>"Nombre del cliente "&amp;P13</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 13</v>
       </c>
       <c r="C13">
@@ -4555,25 +4555,25 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3">
         <v>44958</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
       <c r="M13" s="5" t="str">
@@ -4585,31 +4585,31 @@
         <v>#N/A</v>
       </c>
       <c r="O13" s="5" t="e">
-        <f>IF(EXACT(N13,E13),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f>TEXT(F13,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R13" s="4">
-        <f>IF(C13=C12,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S13" s="4">
-        <f>IF(C13=C14,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U13" s="4">
-        <f>COUNTIF(C:C,C13)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f>"Nombre del cliente "&amp;P14</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 14</v>
       </c>
       <c r="C14">
@@ -4629,25 +4629,25 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3">
         <v>44958</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
       <c r="M14" s="5" t="str">
@@ -4659,31 +4659,31 @@
         <v>#N/A</v>
       </c>
       <c r="O14" s="5" t="e">
-        <f>IF(EXACT(N14,E14),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f>TEXT(F14,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R14" s="4">
-        <f>IF(C14=C13,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S14" s="4">
-        <f>IF(C14=C15,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U14" s="4">
-        <f>COUNTIF(C:C,C14)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="str">
-        <f>"Nombre del cliente "&amp;P15</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 15</v>
       </c>
       <c r="C15">
@@ -4703,25 +4703,25 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="3">
         <v>44958</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
       <c r="M15" s="5" t="str">
@@ -4733,31 +4733,31 @@
         <v>#N/A</v>
       </c>
       <c r="O15" s="5" t="e">
-        <f>IF(EXACT(N15,E15),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <f>TEXT(F15,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R15" s="4">
-        <f>IF(C15=C14,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S15" s="4">
-        <f>IF(C15=C16,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U15" s="4">
-        <f>COUNTIF(C:C,C15)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f>"Nombre del cliente "&amp;P16</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 16</v>
       </c>
       <c r="C16">
@@ -4777,25 +4777,25 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3">
         <v>44958</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
       <c r="M16" s="5" t="str">
@@ -4807,31 +4807,31 @@
         <v>#N/A</v>
       </c>
       <c r="O16" s="5" t="e">
-        <f>IF(EXACT(N16,E16),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f>TEXT(F16,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R16" s="4">
-        <f>IF(C16=C15,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S16" s="4">
-        <f>IF(C16=C17,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U16" s="4">
-        <f>COUNTIF(C:C,C16)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="str">
-        <f>"Nombre del cliente "&amp;P17</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 17</v>
       </c>
       <c r="C17">
@@ -4851,25 +4851,25 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3">
         <v>44958</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
       <c r="M17" s="5" t="str">
@@ -4881,31 +4881,31 @@
         <v>#N/A</v>
       </c>
       <c r="O17" s="5" t="e">
-        <f>IF(EXACT(N17,E17),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f>TEXT(F17,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R17" s="4">
-        <f>IF(C17=C16,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S17" s="4">
-        <f>IF(C17=C18,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U17" s="4">
-        <f>COUNTIF(C:C,C17)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="str">
-        <f>"Nombre del cliente "&amp;P18</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 18</v>
       </c>
       <c r="C18">
@@ -4925,25 +4925,25 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3">
         <v>44958</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
       <c r="M18" s="5" t="str">
@@ -4955,31 +4955,31 @@
         <v>#N/A</v>
       </c>
       <c r="O18" s="5" t="e">
-        <f>IF(EXACT(N18,E18),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f>TEXT(F18,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R18" s="4">
-        <f>IF(C18=C17,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S18" s="4">
-        <f>IF(C18=C19,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U18" s="4">
-        <f>COUNTIF(C:C,C18)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f>"Nombre del cliente "&amp;P19</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 19</v>
       </c>
       <c r="C19">
@@ -4999,25 +4999,25 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="3">
         <v>44958</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
       <c r="M19" s="5" t="str">
@@ -5029,31 +5029,31 @@
         <v>#N/A</v>
       </c>
       <c r="O19" s="5" t="e">
-        <f>IF(EXACT(N19,E19),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f>TEXT(F19,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R19" s="4">
-        <f>IF(C19=C18,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S19" s="4">
-        <f>IF(C19=C20,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U19" s="4">
-        <f>COUNTIF(C:C,C19)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="str">
-        <f>"Nombre del cliente "&amp;P20</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 20</v>
       </c>
       <c r="C20">
@@ -5073,25 +5073,25 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3">
         <v>44958</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
       <c r="M20" s="5" t="str">
@@ -5103,31 +5103,31 @@
         <v>#N/A</v>
       </c>
       <c r="O20" s="5" t="e">
-        <f>IF(EXACT(N20,E20),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f>TEXT(F20,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R20" s="4">
-        <f>IF(C20=C19,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S20" s="4">
-        <f>IF(C20=C21,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U20" s="4">
-        <f>COUNTIF(C:C,C20)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="str">
-        <f>"Nombre del cliente "&amp;P21</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 21</v>
       </c>
       <c r="C21">
@@ -5147,25 +5147,25 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3">
         <v>44958</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
       <c r="M21" s="5" t="str">
@@ -5177,31 +5177,31 @@
         <v>#N/A</v>
       </c>
       <c r="O21" s="5" t="e">
-        <f>IF(EXACT(N21,E21),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="Q21" s="4" t="str">
-        <f>TEXT(F21,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R21" s="4">
-        <f>IF(C21=C20,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S21" s="4">
-        <f>IF(C21=C22,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U21" s="4">
-        <f>COUNTIF(C:C,C21)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f>"Nombre del cliente "&amp;P22</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 22</v>
       </c>
       <c r="C22">
@@ -5221,25 +5221,25 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3">
         <v>44958</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
       <c r="M22" s="5" t="str">
@@ -5251,31 +5251,31 @@
         <v>#N/A</v>
       </c>
       <c r="O22" s="5" t="e">
-        <f>IF(EXACT(N22,E22),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Q22" s="4" t="str">
-        <f>TEXT(F22,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R22" s="4">
-        <f>IF(C22=C21,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S22" s="4">
-        <f>IF(C22=C23,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U22" s="4">
-        <f>COUNTIF(C:C,C22)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f>"Nombre del cliente "&amp;P23</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 23</v>
       </c>
       <c r="C23">
@@ -5295,25 +5295,25 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="3">
         <v>44958</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
       <c r="M23" s="5" t="str">
@@ -5325,31 +5325,31 @@
         <v>#N/A</v>
       </c>
       <c r="O23" s="5" t="e">
-        <f>IF(EXACT(N23,E23),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <f>TEXT(F23,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R23" s="4">
-        <f>IF(C23=C22,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S23" s="4">
-        <f>IF(C23=C24,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U23" s="4">
-        <f>COUNTIF(C:C,C23)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f>"Nombre del cliente "&amp;P24</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 24</v>
       </c>
       <c r="C24">
@@ -5369,25 +5369,25 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="3">
         <v>44958</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
       <c r="M24" s="5" t="str">
@@ -5399,31 +5399,31 @@
         <v>#N/A</v>
       </c>
       <c r="O24" s="5" t="e">
-        <f>IF(EXACT(N24,E24),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <f>TEXT(F24,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R24" s="4">
-        <f>IF(C24=C23,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S24" s="4">
-        <f>IF(C24=C25,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U24" s="4">
-        <f>COUNTIF(C:C,C24)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f>"Nombre del cliente "&amp;P25</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 25</v>
       </c>
       <c r="C25">
@@ -5443,25 +5443,25 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="3">
         <v>44958</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
       <c r="M25" s="5" t="str">
@@ -5473,31 +5473,31 @@
         <v>#N/A</v>
       </c>
       <c r="O25" s="5" t="e">
-        <f>IF(EXACT(N25,E25),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q25" s="4" t="str">
-        <f>TEXT(F25,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R25" s="4">
-        <f>IF(C25=C24,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S25" s="4">
-        <f>IF(C25=C26,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U25" s="4">
-        <f>COUNTIF(C:C,C25)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="str">
-        <f>"Nombre del cliente "&amp;P26</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 26</v>
       </c>
       <c r="C26">
@@ -5517,25 +5517,25 @@
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="3">
         <v>44958</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
       <c r="M26" s="5" t="str">
@@ -5547,31 +5547,31 @@
         <v>#N/A</v>
       </c>
       <c r="O26" s="5" t="e">
-        <f>IF(EXACT(N26,E26),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="Q26" s="4" t="str">
-        <f>TEXT(F26,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R26" s="4">
-        <f>IF(C26=C25,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S26" s="4">
-        <f>IF(C26=C27,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U26" s="4">
-        <f>COUNTIF(C:C,C26)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="str">
-        <f>"Nombre del cliente "&amp;P27</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 27</v>
       </c>
       <c r="C27">
@@ -5591,25 +5591,25 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="3">
         <v>44958</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
       <c r="M27" s="5" t="str">
@@ -5621,31 +5621,31 @@
         <v>#N/A</v>
       </c>
       <c r="O27" s="5" t="e">
-        <f>IF(EXACT(N27,E27),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <f>TEXT(F27,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R27" s="4">
-        <f>IF(C27=C26,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S27" s="4">
-        <f>IF(C27=C28,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U27" s="4">
-        <f>COUNTIF(C:C,C27)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="str">
-        <f>"Nombre del cliente "&amp;P28</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 28</v>
       </c>
       <c r="C28">
@@ -5665,25 +5665,25 @@
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="3">
         <v>44958</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
       <c r="M28" s="5" t="str">
@@ -5695,31 +5695,31 @@
         <v>#N/A</v>
       </c>
       <c r="O28" s="5" t="e">
-        <f>IF(EXACT(N28,E28),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Q28" s="4" t="str">
-        <f>TEXT(F28,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R28" s="4">
-        <f>IF(C28=C27,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S28" s="4">
-        <f>IF(C28=C29,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U28" s="4">
-        <f>COUNTIF(C:C,C28)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="str">
-        <f>"Nombre del cliente "&amp;P29</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 29</v>
       </c>
       <c r="C29">
@@ -5739,25 +5739,25 @@
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="3">
         <v>44958</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -5769,31 +5769,31 @@
         <v>#N/A</v>
       </c>
       <c r="O29" s="5" t="e">
-        <f>IF(EXACT(N29,E29),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="Q29" s="4" t="str">
-        <f>TEXT(F29,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R29" s="4">
-        <f>IF(C29=C28,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S29" s="4">
-        <f>IF(C29=C30,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U29" s="4">
-        <f>COUNTIF(C:C,C29)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="str">
-        <f>"Nombre del cliente "&amp;P30</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 30</v>
       </c>
       <c r="C30">
@@ -5813,25 +5813,25 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="3">
         <v>44958</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
       <c r="L30" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
       <c r="M30" s="5" t="str">
@@ -5843,31 +5843,31 @@
         <v>#N/A</v>
       </c>
       <c r="O30" s="5" t="e">
-        <f>IF(EXACT(N30,E30),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="Q30" s="4" t="str">
-        <f>TEXT(F30,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R30" s="4">
-        <f>IF(C30=C29,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S30" s="4">
-        <f>IF(C30=C31,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U30" s="4">
-        <f>COUNTIF(C:C,C30)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f>"Nombre del cliente "&amp;P31</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 31</v>
       </c>
       <c r="C31">
@@ -5887,25 +5887,25 @@
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="3">
         <v>44958</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
       <c r="L31" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
       <c r="M31" s="5" t="str">
@@ -5917,31 +5917,31 @@
         <v>#N/A</v>
       </c>
       <c r="O31" s="5" t="e">
-        <f>IF(EXACT(N31,E31),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="Q31" s="4" t="str">
-        <f>TEXT(F31,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R31" s="4">
-        <f>IF(C31=C30,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S31" s="4">
-        <f>IF(C31=C32,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U31" s="4">
-        <f>COUNTIF(C:C,C31)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f>"Nombre del cliente "&amp;P32</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 32</v>
       </c>
       <c r="C32">
@@ -5961,25 +5961,25 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="3">
         <v>44958</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
       <c r="L32" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
       <c r="M32" s="5" t="str">
@@ -5991,31 +5991,31 @@
         <v>#N/A</v>
       </c>
       <c r="O32" s="5" t="e">
-        <f>IF(EXACT(N32,E32),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <f>TEXT(F32,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R32" s="4">
-        <f>IF(C32=C31,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S32" s="4">
-        <f>IF(C32=C33,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U32" s="4">
-        <f>COUNTIF(C:C,C32)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f>"Nombre del cliente "&amp;P33</f>
+        <f t="shared" si="1"/>
         <v>Nombre del cliente 33</v>
       </c>
       <c r="C33">
@@ -6035,25 +6035,25 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="3">
         <v>44958</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
       <c r="L33" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
       <c r="M33" s="5" t="str">
@@ -6065,41 +6065,41 @@
         <v>#N/A</v>
       </c>
       <c r="O33" s="5" t="e">
-        <f>IF(EXACT(N33,E33),"ü","x")</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="P33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f>TEXT(F33,"AAAAMM")</f>
+        <f t="shared" si="6"/>
         <v>202302</v>
       </c>
       <c r="R33" s="4">
-        <f>IF(C33=C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S33" s="4">
-        <f>IF(C33=C34,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U33" s="4">
-        <f>COUNTIF(C:C,C33)</f>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="7">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="14">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f>"Nombre del cliente "&amp;P34</f>
+        <f t="shared" ref="B34:B66" si="15">"Nombre del cliente "&amp;P34</f>
         <v>Nombre del cliente 34</v>
       </c>
       <c r="C34">
@@ -6109,25 +6109,25 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="3">
         <v>44958</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
       <c r="M34" s="5" t="str">
@@ -6139,41 +6139,41 @@
         <v>#N/A</v>
       </c>
       <c r="O34" s="5" t="e">
-        <f>IF(EXACT(N34,E34),"ü","x")</f>
+        <f t="shared" ref="O34:O65" si="16">IF(EXACT(N34,E34),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="P34" s="4">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="P34:P69" si="17">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f>TEXT(F34,"AAAAMM")</f>
+        <f t="shared" ref="Q34:Q69" si="18">TEXT(F34,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="R34" s="4">
-        <f>IF(C34=C33,1,0)</f>
+        <f t="shared" ref="R34:R69" si="19">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="S34" s="4">
-        <f>IF(C34=C35,1,0)</f>
+        <f t="shared" ref="S34:S69" si="20">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T65" si="8">SUM(R34:S34)</f>
+        <f t="shared" ref="T34:T65" si="21">SUM(R34:S34)</f>
         <v>2</v>
       </c>
       <c r="U34" s="4">
-        <f>COUNTIF(C:C,C34)</f>
+        <f t="shared" ref="U34:U69" si="22">COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f>"Nombre del cliente "&amp;P35</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 35</v>
       </c>
       <c r="C35">
@@ -6183,25 +6183,25 @@
         <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="3">
         <v>44958</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
       <c r="L35" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
       <c r="M35" s="5" t="str">
@@ -6213,41 +6213,41 @@
         <v>#N/A</v>
       </c>
       <c r="O35" s="5" t="e">
-        <f>IF(EXACT(N35,E35),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P35" s="4">
-        <f>ROW(A35)</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f>TEXT(F35,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R35" s="4">
-        <f>IF(C35=C34,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S35" s="4">
-        <f>IF(C35=C36,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U35" s="4">
-        <f>COUNTIF(C:C,C35)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f>"Nombre del cliente "&amp;P36</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 36</v>
       </c>
       <c r="C36">
@@ -6257,25 +6257,25 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="3">
         <v>44958</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
       <c r="M36" s="5" t="str">
@@ -6287,41 +6287,41 @@
         <v>#N/A</v>
       </c>
       <c r="O36" s="5" t="e">
-        <f>IF(EXACT(N36,E36),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P36" s="4">
-        <f>ROW(A36)</f>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <f>TEXT(F36,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R36" s="4">
-        <f>IF(C36=C35,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S36" s="4">
-        <f>IF(C36=C37,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U36" s="4">
-        <f>COUNTIF(C:C,C36)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f>"Nombre del cliente "&amp;P37</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 37</v>
       </c>
       <c r="C37">
@@ -6331,25 +6331,25 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="3">
         <v>44958</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
       <c r="M37" s="5" t="str">
@@ -6361,41 +6361,41 @@
         <v>#N/A</v>
       </c>
       <c r="O37" s="5" t="e">
-        <f>IF(EXACT(N37,E37),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P37" s="4">
-        <f>ROW(A37)</f>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f>TEXT(F37,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R37" s="4">
-        <f>IF(C37=C36,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S37" s="4">
-        <f>IF(C37=C38,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U37" s="4">
-        <f>COUNTIF(C:C,C37)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f>"Nombre del cliente "&amp;P38</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 38</v>
       </c>
       <c r="C38">
@@ -6405,25 +6405,25 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="3">
         <v>44958</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
       <c r="M38" s="5" t="str">
@@ -6435,41 +6435,41 @@
         <v>#N/A</v>
       </c>
       <c r="O38" s="5" t="e">
-        <f>IF(EXACT(N38,E38),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P38" s="4">
-        <f>ROW(A38)</f>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f>TEXT(F38,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R38" s="4">
-        <f>IF(C38=C37,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S38" s="4">
-        <f>IF(C38=C39,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U38" s="4">
-        <f>COUNTIF(C:C,C38)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f>"Nombre del cliente "&amp;P39</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 39</v>
       </c>
       <c r="C39">
@@ -6479,25 +6479,25 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="3">
         <v>44958</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
       <c r="M39" s="5" t="str">
@@ -6509,41 +6509,41 @@
         <v>#N/A</v>
       </c>
       <c r="O39" s="5" t="e">
-        <f>IF(EXACT(N39,E39),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P39" s="4">
-        <f>ROW(A39)</f>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <f>TEXT(F39,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R39" s="4">
-        <f>IF(C39=C38,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S39" s="4">
-        <f>IF(C39=C40,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U39" s="4">
-        <f>COUNTIF(C:C,C39)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f>"Nombre del cliente "&amp;P40</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 40</v>
       </c>
       <c r="C40">
@@ -6553,25 +6553,25 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
         <v>44958</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
       <c r="M40" s="5" t="str">
@@ -6583,41 +6583,41 @@
         <v>#N/A</v>
       </c>
       <c r="O40" s="5" t="e">
-        <f>IF(EXACT(N40,E40),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P40" s="4">
-        <f>ROW(A40)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <f>TEXT(F40,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R40" s="4">
-        <f>IF(C40=C39,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S40" s="4">
-        <f>IF(C40=C41,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U40" s="4">
-        <f>COUNTIF(C:C,C40)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f>"Nombre del cliente "&amp;P41</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 41</v>
       </c>
       <c r="C41">
@@ -6627,25 +6627,25 @@
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="3">
         <v>44958</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
       <c r="M41" s="5" t="str">
@@ -6657,41 +6657,41 @@
         <v>#N/A</v>
       </c>
       <c r="O41" s="5" t="e">
-        <f>IF(EXACT(N41,E41),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P41" s="4">
-        <f>ROW(A41)</f>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f>TEXT(F41,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R41" s="4">
-        <f>IF(C41=C40,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S41" s="4">
-        <f>IF(C41=C42,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U41" s="4">
-        <f>COUNTIF(C:C,C41)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f>"Nombre del cliente "&amp;P42</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 42</v>
       </c>
       <c r="C42">
@@ -6701,25 +6701,25 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="3">
         <v>44958</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
       <c r="M42" s="5" t="str">
@@ -6731,41 +6731,41 @@
         <v>#N/A</v>
       </c>
       <c r="O42" s="5" t="e">
-        <f>IF(EXACT(N42,E42),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P42" s="4">
-        <f>ROW(A42)</f>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="Q42" s="4" t="str">
-        <f>TEXT(F42,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R42" s="4">
-        <f>IF(C42=C41,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(C42=C43,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U42" s="4">
-        <f>COUNTIF(C:C,C42)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f>"Nombre del cliente "&amp;P43</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 43</v>
       </c>
       <c r="C43">
@@ -6775,25 +6775,25 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="3">
         <v>44958</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
       <c r="M43" s="5" t="str">
@@ -6805,41 +6805,41 @@
         <v>#N/A</v>
       </c>
       <c r="O43" s="5" t="e">
-        <f>IF(EXACT(N43,E43),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P43" s="4">
-        <f>ROW(A43)</f>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="Q43" s="4" t="str">
-        <f>TEXT(F43,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R43" s="4">
-        <f>IF(C43=C42,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(C43=C44,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U43" s="4">
-        <f>COUNTIF(C:C,C43)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f>"Nombre del cliente "&amp;P44</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 44</v>
       </c>
       <c r="C44">
@@ -6849,25 +6849,25 @@
         <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="3">
         <v>44958</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
       <c r="M44" s="5" t="str">
@@ -6879,41 +6879,41 @@
         <v>#N/A</v>
       </c>
       <c r="O44" s="5" t="e">
-        <f>IF(EXACT(N44,E44),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P44" s="4">
-        <f>ROW(A44)</f>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f>TEXT(F44,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R44" s="4">
-        <f>IF(C44=C43,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(C44=C45,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U44" s="4">
-        <f>COUNTIF(C:C,C44)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f>"Nombre del cliente "&amp;P45</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 45</v>
       </c>
       <c r="C45">
@@ -6923,25 +6923,25 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="3">
         <v>44958</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
       <c r="M45" s="5" t="str">
@@ -6953,41 +6953,41 @@
         <v>#N/A</v>
       </c>
       <c r="O45" s="5" t="e">
-        <f>IF(EXACT(N45,E45),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P45" s="4">
-        <f>ROW(A45)</f>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f>TEXT(F45,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R45" s="4">
-        <f>IF(C45=C44,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S45" s="4">
-        <f>IF(C45=C46,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U45" s="4">
-        <f>COUNTIF(C:C,C45)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f>"Nombre del cliente "&amp;P46</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 46</v>
       </c>
       <c r="C46">
@@ -6997,25 +6997,25 @@
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="3">
         <v>44958</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
       <c r="M46" s="5" t="str">
@@ -7027,41 +7027,41 @@
         <v>#N/A</v>
       </c>
       <c r="O46" s="5" t="e">
-        <f>IF(EXACT(N46,E46),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P46" s="4">
-        <f>ROW(A46)</f>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <f>TEXT(F46,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R46" s="4">
-        <f>IF(C46=C45,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S46" s="4">
-        <f>IF(C46=C47,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U46" s="4">
-        <f>COUNTIF(C:C,C46)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f>"Nombre del cliente "&amp;P47</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 47</v>
       </c>
       <c r="C47">
@@ -7071,25 +7071,25 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="3">
         <v>44958</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
       <c r="M47" s="5" t="str">
@@ -7101,41 +7101,41 @@
         <v>#N/A</v>
       </c>
       <c r="O47" s="5" t="e">
-        <f>IF(EXACT(N47,E47),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P47" s="4">
-        <f>ROW(A47)</f>
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <f>TEXT(F47,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R47" s="4">
-        <f>IF(C47=C46,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S47" s="4">
-        <f>IF(C47=C48,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U47" s="4">
-        <f>COUNTIF(C:C,C47)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f>"Nombre del cliente "&amp;P48</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 48</v>
       </c>
       <c r="C48">
@@ -7145,25 +7145,25 @@
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="3">
         <v>44958</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
       <c r="M48" s="5" t="str">
@@ -7175,41 +7175,41 @@
         <v>#N/A</v>
       </c>
       <c r="O48" s="5" t="e">
-        <f>IF(EXACT(N48,E48),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P48" s="4">
-        <f>ROW(A48)</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="Q48" s="4" t="str">
-        <f>TEXT(F48,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R48" s="4">
-        <f>IF(C48=C47,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S48" s="4">
-        <f>IF(C48=C49,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U48" s="4">
-        <f>COUNTIF(C:C,C48)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f>"Nombre del cliente "&amp;P49</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 49</v>
       </c>
       <c r="C49">
@@ -7219,25 +7219,25 @@
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" s="3">
         <v>44958</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
       <c r="M49" s="5" t="str">
@@ -7249,41 +7249,41 @@
         <v>#N/A</v>
       </c>
       <c r="O49" s="5" t="e">
-        <f>IF(EXACT(N49,E49),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P49" s="4">
-        <f>ROW(A49)</f>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <f>TEXT(F49,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R49" s="4">
-        <f>IF(C49=C48,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S49" s="4">
-        <f>IF(C49=C50,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U49" s="4">
-        <f>COUNTIF(C:C,C49)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f>"Nombre del cliente "&amp;P50</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 50</v>
       </c>
       <c r="C50">
@@ -7293,25 +7293,25 @@
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="3">
         <v>44958</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
       <c r="M50" s="5" t="str">
@@ -7323,41 +7323,41 @@
         <v>#N/A</v>
       </c>
       <c r="O50" s="5" t="e">
-        <f>IF(EXACT(N50,E50),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P50" s="4">
-        <f>ROW(A50)</f>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f>TEXT(F50,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R50" s="4">
-        <f>IF(C50=C49,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S50" s="4">
-        <f>IF(C50=C51,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U50" s="4">
-        <f>COUNTIF(C:C,C50)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f>"Nombre del cliente "&amp;P51</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 51</v>
       </c>
       <c r="C51">
@@ -7367,25 +7367,25 @@
         <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" s="3">
         <v>44958</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
       <c r="M51" s="5" t="str">
@@ -7397,41 +7397,41 @@
         <v>#N/A</v>
       </c>
       <c r="O51" s="5" t="e">
-        <f>IF(EXACT(N51,E51),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P51" s="4">
-        <f>ROW(A51)</f>
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
       <c r="Q51" s="4" t="str">
-        <f>TEXT(F51,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R51" s="4">
-        <f>IF(C51=C50,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S51" s="4">
-        <f>IF(C51=C52,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U51" s="4">
-        <f>COUNTIF(C:C,C51)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f>"Nombre del cliente "&amp;P52</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 52</v>
       </c>
       <c r="C52">
@@ -7441,25 +7441,25 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="3">
         <v>44958</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
       <c r="M52" s="5" t="str">
@@ -7471,41 +7471,41 @@
         <v>#N/A</v>
       </c>
       <c r="O52" s="5" t="e">
-        <f>IF(EXACT(N52,E52),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P52" s="4">
-        <f>ROW(A52)</f>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f>TEXT(F52,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R52" s="4">
-        <f>IF(C52=C51,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S52" s="4">
-        <f>IF(C52=C53,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U52" s="4">
-        <f>COUNTIF(C:C,C52)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f>"Nombre del cliente "&amp;P53</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 53</v>
       </c>
       <c r="C53">
@@ -7515,25 +7515,25 @@
         <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="3">
         <v>44958</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
       <c r="M53" s="5" t="str">
@@ -7545,41 +7545,41 @@
         <v>#N/A</v>
       </c>
       <c r="O53" s="5" t="e">
-        <f>IF(EXACT(N53,E53),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P53" s="4">
-        <f>ROW(A53)</f>
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
       <c r="Q53" s="4" t="str">
-        <f>TEXT(F53,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R53" s="4">
-        <f>IF(C53=C52,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S53" s="4">
-        <f>IF(C53=C54,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U53" s="4">
-        <f>COUNTIF(C:C,C53)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f>"Nombre del cliente "&amp;P54</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 54</v>
       </c>
       <c r="C54">
@@ -7589,25 +7589,25 @@
         <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="3">
         <v>44958</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
       <c r="M54" s="5" t="str">
@@ -7619,41 +7619,41 @@
         <v>#N/A</v>
       </c>
       <c r="O54" s="5" t="e">
-        <f>IF(EXACT(N54,E54),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P54" s="4">
-        <f>ROW(A54)</f>
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f>TEXT(F54,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R54" s="4">
-        <f>IF(C54=C53,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S54" s="4">
-        <f>IF(C54=C55,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U54" s="4">
-        <f>COUNTIF(C:C,C54)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f>"Nombre del cliente "&amp;P55</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 55</v>
       </c>
       <c r="C55">
@@ -7663,25 +7663,25 @@
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" s="3">
         <v>44958</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
       <c r="L55" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
       <c r="M55" s="5" t="str">
@@ -7693,41 +7693,41 @@
         <v>#N/A</v>
       </c>
       <c r="O55" s="5" t="e">
-        <f>IF(EXACT(N55,E55),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P55" s="4">
-        <f>ROW(A55)</f>
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f>TEXT(F55,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R55" s="4">
-        <f>IF(C55=C54,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S55" s="4">
-        <f>IF(C55=C56,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U55" s="4">
-        <f>COUNTIF(C:C,C55)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f>"Nombre del cliente "&amp;P56</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 56</v>
       </c>
       <c r="C56">
@@ -7737,25 +7737,25 @@
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F56" s="3">
         <v>44958</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
       <c r="M56" s="5" t="str">
@@ -7767,41 +7767,41 @@
         <v>#N/A</v>
       </c>
       <c r="O56" s="5" t="e">
-        <f>IF(EXACT(N56,E56),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P56" s="4">
-        <f>ROW(A56)</f>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f>TEXT(F56,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R56" s="4">
-        <f>IF(C56=C55,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S56" s="4">
-        <f>IF(C56=C57,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U56" s="4">
-        <f>COUNTIF(C:C,C56)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f>"Nombre del cliente "&amp;P57</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 57</v>
       </c>
       <c r="C57">
@@ -7811,25 +7811,25 @@
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F57" s="3">
         <v>44958</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
       <c r="M57" s="5" t="str">
@@ -7841,41 +7841,41 @@
         <v>#N/A</v>
       </c>
       <c r="O57" s="5" t="e">
-        <f>IF(EXACT(N57,E57),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P57" s="4">
-        <f>ROW(A57)</f>
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
       <c r="Q57" s="4" t="str">
-        <f>TEXT(F57,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R57" s="4">
-        <f>IF(C57=C56,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S57" s="4">
-        <f>IF(C57=C58,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U57" s="4">
-        <f>COUNTIF(C:C,C57)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f>"Nombre del cliente "&amp;P58</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 58</v>
       </c>
       <c r="C58">
@@ -7885,25 +7885,25 @@
         <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" s="3">
         <v>44958</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
       <c r="M58" s="5" t="str">
@@ -7915,41 +7915,41 @@
         <v>#N/A</v>
       </c>
       <c r="O58" s="5" t="e">
-        <f>IF(EXACT(N58,E58),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P58" s="4">
-        <f>ROW(A58)</f>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <f>TEXT(F58,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R58" s="4">
-        <f>IF(C58=C57,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S58" s="4">
-        <f>IF(C58=C59,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U58" s="4">
-        <f>COUNTIF(C:C,C58)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f>"Nombre del cliente "&amp;P59</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 59</v>
       </c>
       <c r="C59">
@@ -7959,25 +7959,25 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="3">
         <v>44958</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
       <c r="M59" s="5" t="str">
@@ -7989,41 +7989,41 @@
         <v>#N/A</v>
       </c>
       <c r="O59" s="5" t="e">
-        <f>IF(EXACT(N59,E59),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P59" s="4">
-        <f>ROW(A59)</f>
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="str">
-        <f>TEXT(F59,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R59" s="4">
-        <f>IF(C59=C58,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S59" s="4">
-        <f>IF(C59=C60,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U59" s="4">
-        <f>COUNTIF(C:C,C59)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f>"Nombre del cliente "&amp;P60</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 60</v>
       </c>
       <c r="C60">
@@ -8033,25 +8033,25 @@
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" s="3">
         <v>44958</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
       <c r="M60" s="5" t="str">
@@ -8063,41 +8063,41 @@
         <v>#N/A</v>
       </c>
       <c r="O60" s="5" t="e">
-        <f>IF(EXACT(N60,E60),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P60" s="4">
-        <f>ROW(A60)</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <f>TEXT(F60,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R60" s="4">
-        <f>IF(C60=C59,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S60" s="4">
-        <f>IF(C60=C61,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U60" s="4">
-        <f>COUNTIF(C:C,C60)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f>"Nombre del cliente "&amp;P61</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 61</v>
       </c>
       <c r="C61">
@@ -8107,25 +8107,25 @@
         <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" s="3">
         <v>44958</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
       <c r="M61" s="5" t="str">
@@ -8137,41 +8137,41 @@
         <v>#N/A</v>
       </c>
       <c r="O61" s="5" t="e">
-        <f>IF(EXACT(N61,E61),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P61" s="4">
-        <f>ROW(A61)</f>
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
       <c r="Q61" s="4" t="str">
-        <f>TEXT(F61,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R61" s="4">
-        <f>IF(C61=C60,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S61" s="4">
-        <f>IF(C61=C62,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U61" s="4">
-        <f>COUNTIF(C:C,C61)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f>"Nombre del cliente "&amp;P62</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 62</v>
       </c>
       <c r="C62">
@@ -8181,25 +8181,25 @@
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F62" s="3">
         <v>44958</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
       <c r="L62" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
       <c r="M62" s="5" t="str">
@@ -8211,41 +8211,41 @@
         <v>#N/A</v>
       </c>
       <c r="O62" s="5" t="e">
-        <f>IF(EXACT(N62,E62),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P62" s="4">
-        <f>ROW(A62)</f>
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="Q62" s="4" t="str">
-        <f>TEXT(F62,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R62" s="4">
-        <f>IF(C62=C61,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S62" s="4">
-        <f>IF(C62=C63,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U62" s="4">
-        <f>COUNTIF(C:C,C62)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f>"Nombre del cliente "&amp;P63</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 63</v>
       </c>
       <c r="C63">
@@ -8255,25 +8255,25 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F63" s="3">
         <v>44958</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
       <c r="L63" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
       <c r="M63" s="5" t="str">
@@ -8285,41 +8285,41 @@
         <v>#N/A</v>
       </c>
       <c r="O63" s="5" t="e">
-        <f>IF(EXACT(N63,E63),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P63" s="4">
-        <f>ROW(A63)</f>
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
       <c r="Q63" s="4" t="str">
-        <f>TEXT(F63,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R63" s="4">
-        <f>IF(C63=C62,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S63" s="4">
-        <f>IF(C63=C64,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U63" s="4">
-        <f>COUNTIF(C:C,C63)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f>"Nombre del cliente "&amp;P64</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 64</v>
       </c>
       <c r="C64">
@@ -8329,25 +8329,25 @@
         <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F64" s="3">
         <v>44958</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
       <c r="L64" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
       <c r="M64" s="5" t="str">
@@ -8359,41 +8359,41 @@
         <v>#N/A</v>
       </c>
       <c r="O64" s="5" t="e">
-        <f>IF(EXACT(N64,E64),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P64" s="4">
-        <f>ROW(A64)</f>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <f>TEXT(F64,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R64" s="4">
-        <f>IF(C64=C63,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S64" s="4">
-        <f>IF(C64=C65,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U64" s="4">
-        <f>COUNTIF(C:C,C64)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f>"Nombre del cliente "&amp;P65</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 65</v>
       </c>
       <c r="C65">
@@ -8403,25 +8403,25 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F65" s="3">
         <v>44958</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
       <c r="L65" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
       <c r="M65" s="5" t="str">
@@ -8433,41 +8433,41 @@
         <v>#N/A</v>
       </c>
       <c r="O65" s="5" t="e">
-        <f>IF(EXACT(N65,E65),"ü","x")</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="P65" s="4">
-        <f>ROW(A65)</f>
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
       <c r="Q65" s="4" t="str">
-        <f>TEXT(F65,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R65" s="4">
-        <f>IF(C65=C64,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S65" s="4">
-        <f>IF(C65=C66,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="U65" s="4">
-        <f>COUNTIF(C:C,C65)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f>"Nombre del cliente "&amp;P66</f>
+        <f t="shared" si="15"/>
         <v>Nombre del cliente 66</v>
       </c>
       <c r="C66">
@@ -8477,25 +8477,25 @@
         <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F66" s="3">
         <v>44958</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>01022023</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28022023</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
       <c r="M66" s="5" t="str">
@@ -8507,41 +8507,41 @@
         <v>#N/A</v>
       </c>
       <c r="O66" s="5" t="e">
-        <f>IF(EXACT(N66,E66),"ü","x")</f>
+        <f t="shared" ref="O66:O97" si="23">IF(EXACT(N66,E66),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="P66" s="4">
-        <f>ROW(A66)</f>
+        <f t="shared" si="17"/>
         <v>66</v>
       </c>
       <c r="Q66" s="4" t="str">
-        <f>TEXT(F66,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R66" s="4">
-        <f>IF(C66=C65,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S66" s="4">
-        <f>IF(C66=C67,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T69" si="9">SUM(R66:S66)</f>
+        <f t="shared" ref="T66:T69" si="24">SUM(R66:S66)</f>
         <v>2</v>
       </c>
       <c r="U66" s="4">
-        <f>COUNTIF(C:C,C66)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="10">"Nombre del cliente "&amp;P67</f>
+        <f t="shared" ref="B67:B69" si="25">"Nombre del cliente "&amp;P67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
@@ -8551,25 +8551,25 @@
         <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F67" s="3">
         <v>44958</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="11">TEXT(F67,"DDMMAAAA")</f>
+        <f t="shared" ref="I67:I69" si="26">TEXT(F67,"DDMMAAAA")</f>
         <v>01022023</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="12">TEXT(EOMONTH(F67,0),"DDMMAAAA")</f>
+        <f t="shared" ref="J67:J69" si="27">TEXT(EOMONTH(F67,0),"DDMMAAAA")</f>
         <v>28022023</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="13">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="K67:K69" si="28">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="14">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="L67:L69" si="29">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
       <c r="M67" s="5" t="str">
@@ -8581,41 +8581,41 @@
         <v>#N/A</v>
       </c>
       <c r="O67" s="5" t="e">
-        <f>IF(EXACT(N67,E67),"ü","x")</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="P67" s="4">
-        <f>ROW(A67)</f>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <f>TEXT(F67,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R67" s="4">
-        <f>IF(C67=C66,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S67" s="4">
-        <f>IF(C67=C68,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="U67" s="4">
-        <f>COUNTIF(C:C,C67)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Nombre del cliente 68</v>
       </c>
       <c r="C68">
@@ -8625,25 +8625,25 @@
         <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F68" s="3">
         <v>44958</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>01022023</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>28022023</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
       <c r="L68" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
       <c r="M68" s="5" t="str">
@@ -8655,41 +8655,41 @@
         <v>#N/A</v>
       </c>
       <c r="O68" s="5" t="e">
-        <f>IF(EXACT(N68,E68),"ü","x")</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="P68" s="4">
-        <f>ROW(A68)</f>
+        <f t="shared" si="17"/>
         <v>68</v>
       </c>
       <c r="Q68" s="4" t="str">
-        <f>TEXT(F68,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R68" s="4">
-        <f>IF(C68=C67,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S68" s="4">
-        <f>IF(C68=C69,1,0)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T68" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="U68" s="4">
-        <f>COUNTIF(C:C,C68)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>Nombre del cliente 69</v>
       </c>
       <c r="C69">
@@ -8699,25 +8699,25 @@
         <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F69" s="3">
         <v>44958</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>01022023</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>28022023</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
       <c r="M69" s="5" t="str">
@@ -8729,31 +8729,31 @@
         <v>#N/A</v>
       </c>
       <c r="O69" s="5" t="e">
-        <f>IF(EXACT(N69,E69),"ü","x")</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="P69" s="4">
-        <f>ROW(A69)</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
       <c r="Q69" s="4" t="str">
-        <f>TEXT(F69,"AAAAMM")</f>
+        <f t="shared" si="18"/>
         <v>202302</v>
       </c>
       <c r="R69" s="4">
-        <f>IF(C69=C68,1,0)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S69" s="4">
-        <f>IF(C69=C70,1,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="U69" s="4">
-        <f>COUNTIF(C:C,C69)</f>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>

--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B777CE-85BC-445C-BE38-C592ECF5BD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9146CC5-073E-477D-B2D5-1372AE30CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado" sheetId="1" r:id="rId1"/>
@@ -3622,9 +3622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,19 +3736,19 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="str">
-        <f>TEXT(F2,"DDMMAAAA")</f>
+        <f>TEXT(DAY(F2),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>01022023</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>TEXT(EOMONTH(F2,0),"DDMMAAAA")</f>
+        <f>TEXT(DAY(EOMONTH(F2,0)),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>28022023</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f t="shared" ref="K2:K66" si="3">CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",TEXT(F2,"AAAAMM")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
       <c r="M2" s="5" t="str">
@@ -3760,31 +3760,31 @@
         <v>#N/A</v>
       </c>
       <c r="O2" s="5" t="e">
-        <f t="shared" ref="O2:O33" si="4">IF(EXACT(N2,E2),"ü","x")</f>
+        <f t="shared" ref="O2:O33" si="3">IF(EXACT(N2,E2),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="5">ROW(A2)</f>
+        <f t="shared" ref="P2:P33" si="4">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="4" t="str">
-        <f t="shared" ref="Q2:Q33" si="6">TEXT(F2,"AAAAMM")</f>
+      <c r="Q2" s="2" t="str">
+        <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202302</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="7">IF(C2=C1,1,0)</f>
+        <f t="shared" ref="R2:R33" si="5">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="8">IF(C2=C3,1,0)</f>
+        <f t="shared" ref="S2:S33" si="6">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="9">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T33" si="7">SUM(R2:S2)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="10">COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="U2:U33" si="8">COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
@@ -3814,19 +3814,19 @@
         <v>26</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="11">TEXT(F3,"DDMMAAAA")</f>
+        <f t="shared" ref="I3:I66" si="9">TEXT(DAY(F3),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>01022023</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="12">TEXT(EOMONTH(F3,0),"DDMMAAAA")</f>
+        <f t="shared" ref="J3:J66" si="10">TEXT(DAY(EOMONTH(F3,0)),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>28022023</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K3:K66" si="11">CONCATENATE(TEXT(A3,"0")," - ",K$1," - ",YEAR(F3),TEXT(MONTH(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="13">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",TEXT(F3,"AAAAMM")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <f t="shared" ref="L3:L66" si="12">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",Q3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
       <c r="M3" s="5" t="str">
@@ -3838,31 +3838,31 @@
         <v>#N/A</v>
       </c>
       <c r="O3" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ref="Q3:Q66" si="13">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+        <v>202302</v>
+      </c>
+      <c r="R3" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
+        <v>2</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T3" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -3889,19 +3889,19 @@
         <v>44958</v>
       </c>
       <c r="I4" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K4" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J4" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
+      </c>
+      <c r="L4" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
       <c r="M4" s="5" t="str">
@@ -3913,31 +3913,31 @@
         <v>#N/A</v>
       </c>
       <c r="O4" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R4" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Q4" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -3964,19 +3964,19 @@
         <v>44958</v>
       </c>
       <c r="I5" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K5" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J5" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
+      </c>
+      <c r="L5" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
       <c r="M5" s="5" t="str">
@@ -3988,31 +3988,31 @@
         <v>#N/A</v>
       </c>
       <c r="O5" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R5" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q5" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4039,19 +4039,19 @@
         <v>44958</v>
       </c>
       <c r="I6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J6" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
+      </c>
+      <c r="L6" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
       <c r="M6" s="5" t="str">
@@ -4063,31 +4063,31 @@
         <v>#N/A</v>
       </c>
       <c r="O6" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Q6" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4114,19 +4114,19 @@
         <v>44958</v>
       </c>
       <c r="I7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J7" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
+      </c>
+      <c r="L7" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
       <c r="M7" s="5" t="str">
@@ -4138,31 +4138,31 @@
         <v>#N/A</v>
       </c>
       <c r="O7" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R7" s="4">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
+        <v>2</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4189,19 +4189,19 @@
         <v>44958</v>
       </c>
       <c r="I8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K8" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J8" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
+      </c>
+      <c r="L8" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
       <c r="M8" s="5" t="str">
@@ -4213,31 +4213,31 @@
         <v>#N/A</v>
       </c>
       <c r="O8" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P8" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R8" s="4">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
+        <v>2</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4264,19 +4264,19 @@
         <v>44958</v>
       </c>
       <c r="I9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K9" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
+      </c>
+      <c r="L9" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
       <c r="M9" s="5" t="str">
@@ -4288,31 +4288,31 @@
         <v>#N/A</v>
       </c>
       <c r="O9" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R9" s="4">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="Q9" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
+        <v>2</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4339,19 +4339,19 @@
         <v>44958</v>
       </c>
       <c r="I10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K10" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J10" s="2" t="str">
+        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
+      </c>
+      <c r="L10" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
       <c r="M10" s="5" t="str">
@@ -4363,31 +4363,31 @@
         <v>#N/A</v>
       </c>
       <c r="O10" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Q10" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4413,19 +4413,19 @@
         <v>44958</v>
       </c>
       <c r="I11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K11" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J11" s="2" t="str">
+        <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
+      </c>
+      <c r="L11" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
       <c r="M11" s="5" t="str">
@@ -4437,31 +4437,31 @@
         <v>#N/A</v>
       </c>
       <c r="O11" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="Q11" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
+        <v>2</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4487,19 +4487,19 @@
         <v>44958</v>
       </c>
       <c r="I12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K12" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J12" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
+      </c>
+      <c r="L12" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
       <c r="M12" s="5" t="str">
@@ -4511,31 +4511,31 @@
         <v>#N/A</v>
       </c>
       <c r="O12" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
+        <v>2</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4561,19 +4561,19 @@
         <v>44958</v>
       </c>
       <c r="I13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K13" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J13" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
+      </c>
+      <c r="L13" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
-      </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
       <c r="M13" s="5" t="str">
@@ -4585,31 +4585,31 @@
         <v>#N/A</v>
       </c>
       <c r="O13" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="Q13" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4635,19 +4635,19 @@
         <v>44958</v>
       </c>
       <c r="I14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K14" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J14" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
+      </c>
+      <c r="L14" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K14" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
       <c r="M14" s="5" t="str">
@@ -4659,31 +4659,31 @@
         <v>#N/A</v>
       </c>
       <c r="O14" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="Q14" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4709,19 +4709,19 @@
         <v>44958</v>
       </c>
       <c r="I15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K15" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
+      </c>
+      <c r="L15" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
-      </c>
-      <c r="L15" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
       <c r="M15" s="5" t="str">
@@ -4733,31 +4733,31 @@
         <v>#N/A</v>
       </c>
       <c r="O15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
+        <v>2</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4783,19 +4783,19 @@
         <v>44958</v>
       </c>
       <c r="I16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K16" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J16" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
+      </c>
+      <c r="L16" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
       <c r="M16" s="5" t="str">
@@ -4807,31 +4807,31 @@
         <v>#N/A</v>
       </c>
       <c r="O16" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R16" s="4">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
+        <v>2</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4857,19 +4857,19 @@
         <v>44958</v>
       </c>
       <c r="I17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J17" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
+      </c>
+      <c r="L17" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K17" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
       <c r="M17" s="5" t="str">
@@ -4881,31 +4881,31 @@
         <v>#N/A</v>
       </c>
       <c r="O17" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="Q17" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="4">
+        <v>2</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -4931,19 +4931,19 @@
         <v>44958</v>
       </c>
       <c r="I18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K18" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
+      </c>
+      <c r="L18" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
       <c r="M18" s="5" t="str">
@@ -4955,31 +4955,31 @@
         <v>#N/A</v>
       </c>
       <c r="O18" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R18" s="4">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="Q18" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
+        <v>2</v>
+      </c>
+      <c r="U18" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5005,19 +5005,19 @@
         <v>44958</v>
       </c>
       <c r="I19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K19" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J19" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
+      </c>
+      <c r="L19" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
       <c r="M19" s="5" t="str">
@@ -5029,31 +5029,31 @@
         <v>#N/A</v>
       </c>
       <c r="O19" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R19" s="4">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="Q19" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
+        <v>2</v>
+      </c>
+      <c r="U19" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U19" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5079,19 +5079,19 @@
         <v>44958</v>
       </c>
       <c r="I20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K20" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J20" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
+      </c>
+      <c r="L20" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
-      </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
       <c r="M20" s="5" t="str">
@@ -5103,31 +5103,31 @@
         <v>#N/A</v>
       </c>
       <c r="O20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R20" s="4">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="U20" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U20" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5153,19 +5153,19 @@
         <v>44958</v>
       </c>
       <c r="I21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K21" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J21" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
+      </c>
+      <c r="L21" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
-      </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
       <c r="M21" s="5" t="str">
@@ -5177,31 +5177,31 @@
         <v>#N/A</v>
       </c>
       <c r="O21" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="Q21" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
+        <v>2</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5227,19 +5227,19 @@
         <v>44958</v>
       </c>
       <c r="I22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K22" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J22" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
-      </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
       <c r="M22" s="5" t="str">
@@ -5251,31 +5251,31 @@
         <v>#N/A</v>
       </c>
       <c r="O22" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="Q22" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
+        <v>2</v>
+      </c>
+      <c r="U22" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T22" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U22" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5301,19 +5301,19 @@
         <v>44958</v>
       </c>
       <c r="I23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K23" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J23" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K23" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
       <c r="M23" s="5" t="str">
@@ -5325,31 +5325,31 @@
         <v>#N/A</v>
       </c>
       <c r="O23" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="Q23" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="4">
+        <v>2</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5375,19 +5375,19 @@
         <v>44958</v>
       </c>
       <c r="I24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K24" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J24" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
+      </c>
+      <c r="L24" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K24" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
       <c r="M24" s="5" t="str">
@@ -5399,31 +5399,31 @@
         <v>#N/A</v>
       </c>
       <c r="O24" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="4">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="Q24" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
+        <v>2</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U24" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5449,19 +5449,19 @@
         <v>44958</v>
       </c>
       <c r="I25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K25" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J25" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
+      </c>
+      <c r="L25" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
       <c r="M25" s="5" t="str">
@@ -5473,31 +5473,31 @@
         <v>#N/A</v>
       </c>
       <c r="O25" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="Q25" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="4">
+        <v>2</v>
+      </c>
+      <c r="U25" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5523,19 +5523,19 @@
         <v>44958</v>
       </c>
       <c r="I26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K26" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J26" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
+      </c>
+      <c r="L26" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
       <c r="M26" s="5" t="str">
@@ -5547,31 +5547,31 @@
         <v>#N/A</v>
       </c>
       <c r="O26" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R26" s="4">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="Q26" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
+        <v>2</v>
+      </c>
+      <c r="U26" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U26" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5597,19 +5597,19 @@
         <v>44958</v>
       </c>
       <c r="I27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K27" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J27" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
+      </c>
+      <c r="L27" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
       <c r="M27" s="5" t="str">
@@ -5621,31 +5621,31 @@
         <v>#N/A</v>
       </c>
       <c r="O27" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R27" s="4">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="Q27" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
+        <v>2</v>
+      </c>
+      <c r="U27" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U27" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5671,19 +5671,19 @@
         <v>44958</v>
       </c>
       <c r="I28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K28" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J28" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
+      </c>
+      <c r="L28" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
       <c r="M28" s="5" t="str">
@@ -5695,31 +5695,31 @@
         <v>#N/A</v>
       </c>
       <c r="O28" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R28" s="4">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="Q28" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
+        <v>2</v>
+      </c>
+      <c r="U28" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U28" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5745,19 +5745,19 @@
         <v>44958</v>
       </c>
       <c r="I29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K29" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J29" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
+      </c>
+      <c r="L29" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -5769,31 +5769,31 @@
         <v>#N/A</v>
       </c>
       <c r="O29" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R29" s="4">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="Q29" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="4">
+        <v>2</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U29" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5819,19 +5819,19 @@
         <v>44958</v>
       </c>
       <c r="I30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K30" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J30" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
+      </c>
+      <c r="L30" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K30" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
       <c r="M30" s="5" t="str">
@@ -5843,31 +5843,31 @@
         <v>#N/A</v>
       </c>
       <c r="O30" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R30" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="Q30" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="4">
+        <v>2</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5893,19 +5893,19 @@
         <v>44958</v>
       </c>
       <c r="I31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K31" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J31" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
+      </c>
+      <c r="L31" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
-      </c>
-      <c r="L31" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
       <c r="M31" s="5" t="str">
@@ -5917,31 +5917,31 @@
         <v>#N/A</v>
       </c>
       <c r="O31" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R31" s="4">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="Q31" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S31" s="4">
+        <v>2</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U31" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -5967,19 +5967,19 @@
         <v>44958</v>
       </c>
       <c r="I32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K32" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J32" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
+      </c>
+      <c r="L32" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
-      </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
       <c r="M32" s="5" t="str">
@@ -5991,31 +5991,31 @@
         <v>#N/A</v>
       </c>
       <c r="O32" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="Q32" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
+        <v>2</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T32" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U32" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -6041,19 +6041,19 @@
         <v>44958</v>
       </c>
       <c r="I33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K33" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J33" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
+      </c>
+      <c r="L33" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
-      </c>
-      <c r="L33" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
       <c r="M33" s="5" t="str">
@@ -6065,31 +6065,31 @@
         <v>#N/A</v>
       </c>
       <c r="O33" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="4">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R33" s="4">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="Q33" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="6"/>
-        <v>202302</v>
-      </c>
-      <c r="R33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S33" s="4">
+        <v>2</v>
+      </c>
+      <c r="U33" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U33" s="4">
-        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
@@ -6115,19 +6115,19 @@
         <v>44958</v>
       </c>
       <c r="I34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K34" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J34" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
+      </c>
+      <c r="L34" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
       <c r="M34" s="5" t="str">
@@ -6146,24 +6146,24 @@
         <f t="shared" ref="P34:P69" si="17">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q69" si="18">TEXT(F34,"AAAAMM")</f>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202302</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="19">IF(C34=C33,1,0)</f>
+        <f t="shared" ref="R34:R69" si="18">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="20">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="S34:S69" si="19">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T65" si="21">SUM(R34:S34)</f>
+        <f t="shared" ref="T34:T65" si="20">SUM(R34:S34)</f>
         <v>2</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U69" si="22">COUNTIF(C:C,C34)</f>
+        <f t="shared" ref="U34:U69" si="21">COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
@@ -6189,19 +6189,19 @@
         <v>44958</v>
       </c>
       <c r="I35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K35" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J35" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
+      </c>
+      <c r="L35" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
-      </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
       <c r="M35" s="5" t="str">
@@ -6220,24 +6220,24 @@
         <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="4" t="str">
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R35" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T35" s="4">
+        <v>2</v>
+      </c>
+      <c r="U35" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6263,19 +6263,19 @@
         <v>44958</v>
       </c>
       <c r="I36" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K36" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J36" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
+      </c>
+      <c r="L36" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
       <c r="M36" s="5" t="str">
@@ -6294,24 +6294,24 @@
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="4" t="str">
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R36" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R36" s="4">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="4">
+        <v>2</v>
+      </c>
+      <c r="U36" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6337,19 +6337,19 @@
         <v>44958</v>
       </c>
       <c r="I37" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K37" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J37" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
+      </c>
+      <c r="L37" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
       <c r="M37" s="5" t="str">
@@ -6368,24 +6368,24 @@
         <f t="shared" si="17"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="4" t="str">
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R37" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T37" s="4">
+        <v>2</v>
+      </c>
+      <c r="U37" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6411,19 +6411,19 @@
         <v>44958</v>
       </c>
       <c r="I38" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K38" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J38" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
+      </c>
+      <c r="L38" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
       <c r="M38" s="5" t="str">
@@ -6442,24 +6442,24 @@
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="4" t="str">
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R38" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T38" s="4">
+        <v>2</v>
+      </c>
+      <c r="U38" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U38" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6485,19 +6485,19 @@
         <v>44958</v>
       </c>
       <c r="I39" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K39" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J39" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
+      </c>
+      <c r="L39" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
       <c r="M39" s="5" t="str">
@@ -6516,24 +6516,24 @@
         <f t="shared" si="17"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="4" t="str">
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R39" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="S39" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
+        <v>2</v>
+      </c>
+      <c r="U39" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U39" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6559,19 +6559,19 @@
         <v>44958</v>
       </c>
       <c r="I40" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K40" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J40" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
+      </c>
+      <c r="L40" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
-      </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
       <c r="M40" s="5" t="str">
@@ -6590,24 +6590,24 @@
         <f t="shared" si="17"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="4" t="str">
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R40" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
+        <v>2</v>
+      </c>
+      <c r="U40" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6633,19 +6633,19 @@
         <v>44958</v>
       </c>
       <c r="I41" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K41" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J41" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
+      </c>
+      <c r="L41" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
-      </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
       <c r="M41" s="5" t="str">
@@ -6664,24 +6664,24 @@
         <f t="shared" si="17"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="4" t="str">
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R41" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T41" s="4">
+        <v>2</v>
+      </c>
+      <c r="U41" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U41" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6707,19 +6707,19 @@
         <v>44958</v>
       </c>
       <c r="I42" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K42" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J42" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
+      </c>
+      <c r="L42" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
       <c r="M42" s="5" t="str">
@@ -6738,24 +6738,24 @@
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="4" t="str">
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R42" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T42" s="4">
+        <v>2</v>
+      </c>
+      <c r="U42" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U42" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6781,19 +6781,19 @@
         <v>44958</v>
       </c>
       <c r="I43" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K43" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J43" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
+      </c>
+      <c r="L43" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
       <c r="M43" s="5" t="str">
@@ -6812,24 +6812,24 @@
         <f t="shared" si="17"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="4" t="str">
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R43" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T43" s="4">
+        <v>2</v>
+      </c>
+      <c r="U43" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U43" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6855,19 +6855,19 @@
         <v>44958</v>
       </c>
       <c r="I44" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K44" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J44" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
+      </c>
+      <c r="L44" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
       <c r="M44" s="5" t="str">
@@ -6886,24 +6886,24 @@
         <f t="shared" si="17"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="4" t="str">
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R44" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T44" s="4">
+        <v>2</v>
+      </c>
+      <c r="U44" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U44" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -6929,19 +6929,19 @@
         <v>44958</v>
       </c>
       <c r="I45" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K45" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J45" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
+      </c>
+      <c r="L45" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
       <c r="M45" s="5" t="str">
@@ -6960,24 +6960,24 @@
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="4" t="str">
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R45" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R45" s="4">
+        <v>1</v>
+      </c>
+      <c r="S45" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T45" s="4">
+        <v>2</v>
+      </c>
+      <c r="U45" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U45" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7003,19 +7003,19 @@
         <v>44958</v>
       </c>
       <c r="I46" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K46" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J46" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
+      </c>
+      <c r="L46" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
       <c r="M46" s="5" t="str">
@@ -7034,24 +7034,24 @@
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
-      <c r="Q46" s="4" t="str">
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R46" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R46" s="4">
+        <v>1</v>
+      </c>
+      <c r="S46" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T46" s="4">
+        <v>2</v>
+      </c>
+      <c r="U46" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U46" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7077,19 +7077,19 @@
         <v>44958</v>
       </c>
       <c r="I47" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K47" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J47" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
+      </c>
+      <c r="L47" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
       <c r="M47" s="5" t="str">
@@ -7108,24 +7108,24 @@
         <f t="shared" si="17"/>
         <v>47</v>
       </c>
-      <c r="Q47" s="4" t="str">
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R47" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T47" s="4">
+        <v>2</v>
+      </c>
+      <c r="U47" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U47" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7151,19 +7151,19 @@
         <v>44958</v>
       </c>
       <c r="I48" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J48" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
+      </c>
+      <c r="L48" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
       <c r="M48" s="5" t="str">
@@ -7182,24 +7182,24 @@
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="Q48" s="4" t="str">
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R48" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R48" s="4">
+        <v>1</v>
+      </c>
+      <c r="S48" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T48" s="4">
+        <v>2</v>
+      </c>
+      <c r="U48" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U48" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7225,19 +7225,19 @@
         <v>44958</v>
       </c>
       <c r="I49" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K49" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J49" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
+      </c>
+      <c r="L49" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
       <c r="M49" s="5" t="str">
@@ -7256,24 +7256,24 @@
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="4" t="str">
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R49" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T49" s="4">
+        <v>2</v>
+      </c>
+      <c r="U49" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U49" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7299,19 +7299,19 @@
         <v>44958</v>
       </c>
       <c r="I50" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K50" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J50" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
+      </c>
+      <c r="L50" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
       <c r="M50" s="5" t="str">
@@ -7330,24 +7330,24 @@
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="Q50" s="4" t="str">
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R50" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R50" s="4">
+        <v>1</v>
+      </c>
+      <c r="S50" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T50" s="4">
+        <v>2</v>
+      </c>
+      <c r="U50" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U50" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7373,19 +7373,19 @@
         <v>44958</v>
       </c>
       <c r="I51" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K51" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J51" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
+      </c>
+      <c r="L51" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
       <c r="M51" s="5" t="str">
@@ -7404,24 +7404,24 @@
         <f t="shared" si="17"/>
         <v>51</v>
       </c>
-      <c r="Q51" s="4" t="str">
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R51" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T51" s="4">
+        <v>2</v>
+      </c>
+      <c r="U51" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U51" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7447,19 +7447,19 @@
         <v>44958</v>
       </c>
       <c r="I52" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K52" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J52" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
+      </c>
+      <c r="L52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
-      </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
       <c r="M52" s="5" t="str">
@@ -7478,24 +7478,24 @@
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="Q52" s="4" t="str">
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R52" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R52" s="4">
+        <v>1</v>
+      </c>
+      <c r="S52" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T52" s="4">
+        <v>2</v>
+      </c>
+      <c r="U52" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U52" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7521,19 +7521,19 @@
         <v>44958</v>
       </c>
       <c r="I53" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K53" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J53" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
+      </c>
+      <c r="L53" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
-      </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
       <c r="M53" s="5" t="str">
@@ -7552,24 +7552,24 @@
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="Q53" s="4" t="str">
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R53" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T53" s="4">
+        <v>2</v>
+      </c>
+      <c r="U53" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U53" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7595,19 +7595,19 @@
         <v>44958</v>
       </c>
       <c r="I54" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K54" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J54" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
+      </c>
+      <c r="L54" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
-      </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
       <c r="M54" s="5" t="str">
@@ -7626,24 +7626,24 @@
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="Q54" s="4" t="str">
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R54" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R54" s="4">
+        <v>1</v>
+      </c>
+      <c r="S54" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T54" s="4">
+        <v>2</v>
+      </c>
+      <c r="U54" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U54" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7669,19 +7669,19 @@
         <v>44958</v>
       </c>
       <c r="I55" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K55" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J55" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
+      </c>
+      <c r="L55" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
-      </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
       <c r="M55" s="5" t="str">
@@ -7700,24 +7700,24 @@
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="Q55" s="4" t="str">
+      <c r="Q55" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R55" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R55" s="4">
+        <v>1</v>
+      </c>
+      <c r="S55" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T55" s="4">
+        <v>2</v>
+      </c>
+      <c r="U55" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U55" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7743,19 +7743,19 @@
         <v>44958</v>
       </c>
       <c r="I56" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K56" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J56" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
+      </c>
+      <c r="L56" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
       <c r="M56" s="5" t="str">
@@ -7774,24 +7774,24 @@
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="Q56" s="4" t="str">
+      <c r="Q56" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R56" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R56" s="4">
+        <v>1</v>
+      </c>
+      <c r="S56" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T56" s="4">
+        <v>2</v>
+      </c>
+      <c r="U56" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U56" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7817,19 +7817,19 @@
         <v>44958</v>
       </c>
       <c r="I57" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K57" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J57" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
+      </c>
+      <c r="L57" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
       <c r="M57" s="5" t="str">
@@ -7848,24 +7848,24 @@
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="Q57" s="4" t="str">
+      <c r="Q57" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R57" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R57" s="4">
+        <v>1</v>
+      </c>
+      <c r="S57" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T57" s="4">
+        <v>2</v>
+      </c>
+      <c r="U57" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U57" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7891,19 +7891,19 @@
         <v>44958</v>
       </c>
       <c r="I58" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K58" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J58" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
+      </c>
+      <c r="L58" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
       <c r="M58" s="5" t="str">
@@ -7922,24 +7922,24 @@
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="Q58" s="4" t="str">
+      <c r="Q58" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R58" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T58" s="4">
+        <v>2</v>
+      </c>
+      <c r="U58" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U58" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -7965,19 +7965,19 @@
         <v>44958</v>
       </c>
       <c r="I59" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K59" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J59" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
+      </c>
+      <c r="L59" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K59" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
       <c r="M59" s="5" t="str">
@@ -7996,24 +7996,24 @@
         <f t="shared" si="17"/>
         <v>59</v>
       </c>
-      <c r="Q59" s="4" t="str">
+      <c r="Q59" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R59" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R59" s="4">
+        <v>1</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T59" s="4">
+        <v>2</v>
+      </c>
+      <c r="U59" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U59" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8039,19 +8039,19 @@
         <v>44958</v>
       </c>
       <c r="I60" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K60" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J60" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
+      </c>
+      <c r="L60" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
       <c r="M60" s="5" t="str">
@@ -8070,24 +8070,24 @@
         <f t="shared" si="17"/>
         <v>60</v>
       </c>
-      <c r="Q60" s="4" t="str">
+      <c r="Q60" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R60" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R60" s="4">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T60" s="4">
+        <v>2</v>
+      </c>
+      <c r="U60" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U60" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8113,19 +8113,19 @@
         <v>44958</v>
       </c>
       <c r="I61" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K61" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J61" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
+      </c>
+      <c r="L61" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
       <c r="M61" s="5" t="str">
@@ -8144,24 +8144,24 @@
         <f t="shared" si="17"/>
         <v>61</v>
       </c>
-      <c r="Q61" s="4" t="str">
+      <c r="Q61" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R61" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R61" s="4">
+        <v>1</v>
+      </c>
+      <c r="S61" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T61" s="4">
+        <v>2</v>
+      </c>
+      <c r="U61" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U61" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8187,19 +8187,19 @@
         <v>44958</v>
       </c>
       <c r="I62" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K62" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J62" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
+      </c>
+      <c r="L62" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K62" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
       <c r="M62" s="5" t="str">
@@ -8218,24 +8218,24 @@
         <f t="shared" si="17"/>
         <v>62</v>
       </c>
-      <c r="Q62" s="4" t="str">
+      <c r="Q62" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R62" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R62" s="4">
+        <v>1</v>
+      </c>
+      <c r="S62" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T62" s="4">
+        <v>2</v>
+      </c>
+      <c r="U62" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U62" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8261,19 +8261,19 @@
         <v>44958</v>
       </c>
       <c r="I63" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J63" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
+      </c>
+      <c r="L63" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
       <c r="M63" s="5" t="str">
@@ -8292,24 +8292,24 @@
         <f t="shared" si="17"/>
         <v>63</v>
       </c>
-      <c r="Q63" s="4" t="str">
+      <c r="Q63" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R63" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R63" s="4">
+        <v>1</v>
+      </c>
+      <c r="S63" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T63" s="4">
+        <v>2</v>
+      </c>
+      <c r="U63" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U63" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8335,19 +8335,19 @@
         <v>44958</v>
       </c>
       <c r="I64" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K64" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J64" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
+      </c>
+      <c r="L64" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K64" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
       <c r="M64" s="5" t="str">
@@ -8366,24 +8366,24 @@
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="Q64" s="4" t="str">
+      <c r="Q64" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R64" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R64" s="4">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T64" s="4">
+        <v>2</v>
+      </c>
+      <c r="U64" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U64" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8409,19 +8409,19 @@
         <v>44958</v>
       </c>
       <c r="I65" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K65" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J65" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
+      </c>
+      <c r="L65" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K65" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
       <c r="M65" s="5" t="str">
@@ -8440,24 +8440,24 @@
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="Q65" s="4" t="str">
+      <c r="Q65" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R65" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R65" s="4">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="4">
+        <v>2</v>
+      </c>
+      <c r="U65" s="4">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="U65" s="4">
-        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
@@ -8483,19 +8483,19 @@
         <v>44958</v>
       </c>
       <c r="I66" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>01022023</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>28022023</v>
+      </c>
+      <c r="K66" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>01022023</v>
-      </c>
-      <c r="J66" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
+      </c>
+      <c r="L66" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>28022023</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
-      </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
       <c r="M66" s="5" t="str">
@@ -8507,31 +8507,31 @@
         <v>#N/A</v>
       </c>
       <c r="O66" s="5" t="e">
-        <f t="shared" ref="O66:O97" si="23">IF(EXACT(N66,E66),"ü","x")</f>
+        <f t="shared" ref="O66:O69" si="22">IF(EXACT(N66,E66),"ü","x")</f>
         <v>#N/A</v>
       </c>
       <c r="P66" s="4">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="Q66" s="4" t="str">
+      <c r="Q66" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>202302</v>
+      </c>
+      <c r="R66" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R66" s="4">
+        <v>1</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S66" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T69" si="24">SUM(R66:S66)</f>
+        <f t="shared" ref="T66:T69" si="23">SUM(R66:S66)</f>
         <v>2</v>
       </c>
       <c r="U66" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="25">"Nombre del cliente "&amp;P67</f>
+        <f t="shared" ref="B67:B69" si="24">"Nombre del cliente "&amp;P67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
@@ -8557,19 +8557,19 @@
         <v>44958</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="26">TEXT(F67,"DDMMAAAA")</f>
+        <f t="shared" ref="I67:I69" si="25">TEXT(DAY(F67),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>01022023</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="27">TEXT(EOMONTH(F67,0),"DDMMAAAA")</f>
+        <f t="shared" ref="J67:J69" si="26">TEXT(DAY(EOMONTH(F67,0)),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>28022023</v>
       </c>
       <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="28">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="K67:K69" si="27">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",YEAR(F67),TEXT(MONTH(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
       <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="29">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",TEXT(F67,"AAAAMM")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <f t="shared" ref="L67:L69" si="28">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",Q67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
       <c r="M67" s="5" t="str">
@@ -8581,31 +8581,31 @@
         <v>#N/A</v>
       </c>
       <c r="O67" s="5" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="P67" s="4">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="Q67" s="4" t="str">
+      <c r="Q67" s="2" t="str">
+        <f t="shared" ref="Q67:Q69" si="29">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+        <v>202302</v>
+      </c>
+      <c r="R67" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R67" s="4">
+        <v>1</v>
+      </c>
+      <c r="S67" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S67" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
       <c r="T67" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>Nombre del cliente 68</v>
       </c>
       <c r="C68">
@@ -8631,19 +8631,19 @@
         <v>44958</v>
       </c>
       <c r="I68" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>01022023</v>
+      </c>
+      <c r="J68" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>01022023</v>
-      </c>
-      <c r="J68" s="2" t="str">
+        <v>28022023</v>
+      </c>
+      <c r="K68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>28022023</v>
-      </c>
-      <c r="K68" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
+      </c>
+      <c r="L68" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
-      </c>
-      <c r="L68" s="2" t="str">
-        <f t="shared" si="29"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
       <c r="M68" s="5" t="str">
@@ -8655,31 +8655,31 @@
         <v>#N/A</v>
       </c>
       <c r="O68" s="5" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="P68" s="4">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="Q68" s="4" t="str">
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>202302</v>
+      </c>
+      <c r="R68" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R68" s="4">
+        <v>1</v>
+      </c>
+      <c r="S68" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
       <c r="T68" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>Nombre del cliente 69</v>
       </c>
       <c r="C69">
@@ -8705,19 +8705,19 @@
         <v>44958</v>
       </c>
       <c r="I69" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>01022023</v>
+      </c>
+      <c r="J69" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>01022023</v>
-      </c>
-      <c r="J69" s="2" t="str">
+        <v>28022023</v>
+      </c>
+      <c r="K69" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>28022023</v>
-      </c>
-      <c r="K69" s="2" t="str">
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
+      </c>
+      <c r="L69" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
-      </c>
-      <c r="L69" s="2" t="str">
-        <f t="shared" si="29"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
       <c r="M69" s="5" t="str">
@@ -8729,31 +8729,31 @@
         <v>#N/A</v>
       </c>
       <c r="O69" s="5" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="P69" s="4">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="Q69" s="4" t="str">
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>202302</v>
+      </c>
+      <c r="R69" s="4">
         <f t="shared" si="18"/>
-        <v>202302</v>
-      </c>
-      <c r="R69" s="4">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T69" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="U69" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>

--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-Mis-Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9146CC5-073E-477D-B2D5-1372AE30CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FBE90-7E24-4E5D-ABBB-9699A1D57310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descargados!$B$2:$B$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +43,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BFB4E4FB-C16E-4528-9B71-5C59C194E706}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuit para iniciar sesión</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4B2CFD6D-90EF-4C6D-93EB-B575B754D4ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del representado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2E3172AB-D99E-4906-9DCB-49847C4623EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+si el archivo no se guarda en la carpeta de la ubicación se debe colocar 'NO'.
+Hat que asegurarse que se tienen habilitadas las descargas de archivos y que siempre pregunte la ubicación de descarga.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="31">
   <si>
     <t>Nro</t>
   </si>
@@ -132,12 +215,18 @@
   <si>
     <t>Ubicacion</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +252,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,396 +342,6 @@
           </cell>
           <cell r="E1">
             <v>767</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>20-07482745-5 - 202302</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>20-07706563-7 - 202302</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>20-08275048-8 - 202302</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>20-12118283-2 - 202302</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>20-13005663-7 - 202302</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>20-14946673-9 - 202302</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>20-16829128-1 - 202302</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>20-16829168-0 - 202302</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>20-16829183-4 - 202302</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>33-65352043-9 - 202302</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>20-17039484-5 - 202302</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>20-17039516-7 - 202302</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>20-17252177-1 - 202302</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>20-23096673-8 - 202302</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>20-24600810-9 - 202302</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>20-30165008-7 - 202302</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>20-31573133-0 - 202302</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>23-12053820-9 - 202302</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>30-71534792-6 - 202302</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>30-70941956-7 - 202302</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>23-24294666-9 - 202302</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>27-11697662-0 - 202302</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>27-14826810-5 - 202302</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>27-17170992-5 - 202302</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>27-17387830-9 - 202302</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>27-18265397-2 - 202302</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>27-20193226-8 - 202302</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>27-21723654-7 - 202302</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>30-71202679-7 - 202302</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>27-23687374-4 - 202302</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>27-26182736-6 - 202302</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>27-35487218-3 - 202302</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>30-70837012-2 - 202302</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>30-70862634-8 - 202302</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>20-14713020-2 - 202302</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>30-65094066-7 - 202302</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>20-14946260-1 - 202302</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>30-70943183-4 - 202302</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>30-71040413-1 - 202302</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>20-14946635-6 - 202302</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>20-17412307-2 - 202302</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>30-67237269-7 - 202302</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>30-70791222-3 - 202302</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53" t="str">
-            <v>23-14946207-4 - 202302</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54" t="str">
-            <v>23-35189707-4 - 202302</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55" t="str">
-            <v>30-71508540-9 - 202302</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>30-71705911-1 - 202302</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>27-10979725-7 - 202302</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58" t="str">
-            <v>30-71753715-3 - 202302</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>27-20117877-6 - 202302</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>30-65714685-0 - 202302</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>20-13376276-1 - 202302</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>30-71557774-3 - 202302</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>30-71579586-4 - 202302</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>30-71650381-6 - 202302</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>20-33425032-7 - 202302</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>30-70129953-8 - 202302</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>20-17525581-9 - 202302</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>33-71237082-9 - 202302</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>33-71252990-9 - 202302</v>
           </cell>
         </row>
       </sheetData>
@@ -3619,12 +3331,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,14 +3347,15 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3668,52 +3381,55 @@
         <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>767</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>216</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B33" si="1">"Nombre del cliente "&amp;P2</f>
+        <f t="shared" ref="B2:B33" si="1">"Nombre del cliente "&amp;Q2</f>
         <v>Nombre del cliente 2</v>
       </c>
       <c r="C2">
@@ -3735,60 +3451,63 @@
       <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="str">
         <f>TEXT(DAY(F2),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="K2" s="2" t="str">
         <f>TEXT(DAY(EOMONTH(F2,0)),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="K2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",K$1," - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="L2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",Q2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",M$1," - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="M2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;Q2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N2" s="4" t="e">
+      <c r="O2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O2" s="5" t="e">
-        <f t="shared" ref="O2:O33" si="3">IF(EXACT(N2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P33" si="4">ROW(A2)</f>
+      <c r="P2" s="5" t="e">
+        <f t="shared" ref="P2:P33" si="3">IF(EXACT(O2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q33" si="4">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="R2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202302</v>
       </c>
-      <c r="R2" s="4">
-        <f t="shared" ref="R2:R33" si="5">IF(C2=C1,1,0)</f>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="5">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="6">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="7">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T33" si="6">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="8">COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="U2:U33" si="7">SUM(S2:T2)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V33" si="8">COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3813,60 +3532,63 @@
       <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="9">TEXT(DAY(F3),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J66" si="9">TEXT(DAY(F3),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="10">TEXT(DAY(EOMONTH(F3,0)),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="10">TEXT(DAY(EOMONTH(F3,0)),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K66" si="11">CONCATENATE(TEXT(A3,"0")," - ",K$1," - ",YEAR(F3),TEXT(MONTH(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="11">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",YEAR(F3),TEXT(MONTH(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="12">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",Q3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="12">CONCATENATE(TEXT(A3,"0")," - ",M$1," - ",R3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="M3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;Q3,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N3" s="4" t="e">
+      <c r="O3" s="4" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O3" s="5" t="e">
+      <c r="P3" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f t="shared" ref="Q3:Q66" si="13">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="R3" s="2" t="str">
+        <f t="shared" ref="R3:R66" si="13">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202302</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3888,60 +3610,63 @@
       <c r="F4" s="3">
         <v>44958</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="M4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;Q4,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N4" s="4" t="e">
+      <c r="O4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O4" s="5" t="e">
+      <c r="P4" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="R4" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3963,60 +3688,63 @@
       <c r="F5" s="3">
         <v>44958</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="K5" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="M5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;Q5,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N5" s="4" t="e">
+      <c r="O5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O5" s="5" t="e">
+      <c r="P5" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="2" t="str">
+      <c r="R5" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4038,60 +3766,63 @@
       <c r="F6" s="3">
         <v>44958</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="K6" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="M6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;Q6,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N6" s="4" t="e">
+      <c r="O6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O6" s="5" t="e">
+      <c r="P6" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Q6" s="2" t="str">
+      <c r="R6" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4113,60 +3844,63 @@
       <c r="F7" s="3">
         <v>44958</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="K7" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="M7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;Q7,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N7" s="4" t="e">
+      <c r="O7" s="4" t="e">
         <f>VLOOKUP(C7,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O7" s="5" t="e">
+      <c r="P7" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="R7" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4188,60 +3922,63 @@
       <c r="F8" s="3">
         <v>44958</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="K8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="M8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;Q8,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N8" s="4" t="e">
+      <c r="O8" s="4" t="e">
         <f>VLOOKUP(C8,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O8" s="5" t="e">
+      <c r="P8" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="2" t="str">
+      <c r="R8" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4263,60 +4000,63 @@
       <c r="F9" s="3">
         <v>44958</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="K9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="M9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;Q9,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N9" s="4" t="e">
+      <c r="O9" s="4" t="e">
         <f>VLOOKUP(C9,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O9" s="5" t="e">
+      <c r="P9" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="R9" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4338,60 +4078,63 @@
       <c r="F10" s="3">
         <v>44958</v>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="K10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="M10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;Q10,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N10" s="4" t="e">
+      <c r="O10" s="4" t="e">
         <f>VLOOKUP(C10,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O10" s="5" t="e">
+      <c r="P10" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="Q10" s="2" t="str">
+      <c r="R10" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U10" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4412,60 +4155,63 @@
       <c r="F11" s="3">
         <v>44958</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="K11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="M11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;Q11,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N11" s="4" t="e">
+      <c r="O11" s="4" t="e">
         <f>VLOOKUP(C11,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O11" s="5" t="e">
+      <c r="P11" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="2" t="str">
+      <c r="R11" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4486,60 +4232,63 @@
       <c r="F12" s="3">
         <v>44958</v>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J12" s="2" t="str">
+      <c r="K12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="M12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;Q12,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N12" s="4" t="e">
+      <c r="O12" s="4" t="e">
         <f>VLOOKUP(C12,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O12" s="5" t="e">
+      <c r="P12" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="Q12" s="2" t="str">
+      <c r="R12" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4560,60 +4309,63 @@
       <c r="F13" s="3">
         <v>44958</v>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J13" s="2" t="str">
+      <c r="K13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="M13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;Q13,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N13" s="4" t="e">
+      <c r="O13" s="4" t="e">
         <f>VLOOKUP(C13,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="5" t="e">
+      <c r="P13" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="Q13" s="2" t="str">
+      <c r="R13" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4634,60 +4386,63 @@
       <c r="F14" s="3">
         <v>44958</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J14" s="2" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="M14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;Q14,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N14" s="4" t="e">
+      <c r="O14" s="4" t="e">
         <f>VLOOKUP(C14,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O14" s="5" t="e">
+      <c r="P14" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="Q14" s="2" t="str">
+      <c r="R14" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4708,60 +4463,63 @@
       <c r="F15" s="3">
         <v>44958</v>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J15" s="2" t="str">
+      <c r="K15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="M15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;Q15,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N15" s="4" t="e">
+      <c r="O15" s="4" t="e">
         <f>VLOOKUP(C15,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O15" s="5" t="e">
+      <c r="P15" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="Q15" s="2" t="str">
+      <c r="R15" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4782,60 +4540,63 @@
       <c r="F16" s="3">
         <v>44958</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J16" s="2" t="str">
+      <c r="K16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="M16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;Q16,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N16" s="4" t="e">
+      <c r="O16" s="4" t="e">
         <f>VLOOKUP(C16,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="5" t="e">
+      <c r="P16" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="Q16" s="2" t="str">
+      <c r="R16" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U16" s="4">
+      <c r="V16" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4856,60 +4617,63 @@
       <c r="F17" s="3">
         <v>44958</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J17" s="2" t="str">
+      <c r="K17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="M17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;Q17,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N17" s="4" t="e">
+      <c r="O17" s="4" t="e">
         <f>VLOOKUP(C17,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="5" t="e">
+      <c r="P17" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="Q17" s="2" t="str">
+      <c r="R17" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U17" s="4">
+      <c r="V17" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4930,60 +4694,63 @@
       <c r="F18" s="3">
         <v>44958</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J18" s="2" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="M18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;Q18,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="O18" s="4" t="e">
         <f>VLOOKUP(C18,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O18" s="5" t="e">
+      <c r="P18" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="Q18" s="2" t="str">
+      <c r="R18" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5004,60 +4771,63 @@
       <c r="F19" s="3">
         <v>44958</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J19" s="2" t="str">
+      <c r="K19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="M19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;Q19,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N19" s="4" t="e">
+      <c r="O19" s="4" t="e">
         <f>VLOOKUP(C19,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="5" t="e">
+      <c r="P19" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="Q19" s="2" t="str">
+      <c r="R19" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5078,60 +4848,63 @@
       <c r="F20" s="3">
         <v>44958</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="K20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="M20" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="M20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;Q20,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N20" s="4" t="e">
+      <c r="O20" s="4" t="e">
         <f>VLOOKUP(C20,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="5" t="e">
+      <c r="P20" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="Q20" s="2" t="str">
+      <c r="R20" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S20" s="4">
+      <c r="T20" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5152,60 +4925,63 @@
       <c r="F21" s="3">
         <v>44958</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J21" s="2" t="str">
+      <c r="K21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="M21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;Q21,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N21" s="4" t="e">
+      <c r="O21" s="4" t="e">
         <f>VLOOKUP(C21,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O21" s="5" t="e">
+      <c r="P21" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="Q21" s="2" t="str">
+      <c r="R21" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="T21" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5226,60 +5002,63 @@
       <c r="F22" s="3">
         <v>44958</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J22" s="2" t="str">
+      <c r="K22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="M22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;Q22,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N22" s="4" t="e">
+      <c r="O22" s="4" t="e">
         <f>VLOOKUP(C22,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O22" s="5" t="e">
+      <c r="P22" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="Q22" s="2" t="str">
+      <c r="R22" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5300,60 +5079,63 @@
       <c r="F23" s="3">
         <v>44958</v>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J23" s="2" t="str">
+      <c r="K23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="M23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;Q23,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N23" s="4" t="e">
+      <c r="O23" s="4" t="e">
         <f>VLOOKUP(C23,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O23" s="5" t="e">
+      <c r="P23" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="Q23" s="2" t="str">
+      <c r="R23" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5374,60 +5156,63 @@
       <c r="F24" s="3">
         <v>44958</v>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J24" s="2" t="str">
+      <c r="K24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="M24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;Q24,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N24" s="4" t="e">
+      <c r="O24" s="4" t="e">
         <f>VLOOKUP(C24,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O24" s="5" t="e">
+      <c r="P24" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="Q24" s="2" t="str">
+      <c r="R24" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S24" s="4">
+      <c r="T24" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5448,60 +5233,63 @@
       <c r="F25" s="3">
         <v>44958</v>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="I25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J25" s="2" t="str">
+      <c r="K25" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="M25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;Q25,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N25" s="4" t="e">
+      <c r="O25" s="4" t="e">
         <f>VLOOKUP(C25,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O25" s="5" t="e">
+      <c r="P25" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="Q25" s="2" t="str">
+      <c r="R25" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5522,60 +5310,63 @@
       <c r="F26" s="3">
         <v>44958</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J26" s="2" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="M26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;Q26,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N26" s="4" t="e">
+      <c r="O26" s="4" t="e">
         <f>VLOOKUP(C26,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O26" s="5" t="e">
+      <c r="P26" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="Q26" s="2" t="str">
+      <c r="R26" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5596,60 +5387,63 @@
       <c r="F27" s="3">
         <v>44958</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J27" s="2" t="str">
+      <c r="K27" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="M27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;Q27,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N27" s="4" t="e">
+      <c r="O27" s="4" t="e">
         <f>VLOOKUP(C27,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O27" s="5" t="e">
+      <c r="P27" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="Q27" s="2" t="str">
+      <c r="R27" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S27" s="4">
+      <c r="T27" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5670,60 +5464,63 @@
       <c r="F28" s="3">
         <v>44958</v>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J28" s="2" t="str">
+      <c r="K28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="M28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;Q28,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N28" s="4" t="e">
+      <c r="O28" s="4" t="e">
         <f>VLOOKUP(C28,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O28" s="5" t="e">
+      <c r="P28" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="Q28" s="2" t="str">
+      <c r="R28" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S28" s="4">
+      <c r="T28" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5744,60 +5541,63 @@
       <c r="F29" s="3">
         <v>44958</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="M29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;Q29,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N29" s="4" t="e">
+      <c r="O29" s="4" t="e">
         <f>VLOOKUP(C29,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O29" s="5" t="e">
+      <c r="P29" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="Q29" s="2" t="str">
+      <c r="R29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="T29" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5818,60 +5618,63 @@
       <c r="F30" s="3">
         <v>44958</v>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J30" s="2" t="str">
+      <c r="K30" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="M30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;Q30,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N30" s="4" t="e">
+      <c r="O30" s="4" t="e">
         <f>VLOOKUP(C30,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O30" s="5" t="e">
+      <c r="P30" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="2" t="str">
+      <c r="R30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S30" s="4">
+      <c r="T30" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5892,60 +5695,63 @@
       <c r="F31" s="3">
         <v>44958</v>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J31" s="2" t="str">
+      <c r="K31" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="L31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="M31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;Q31,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N31" s="4" t="e">
+      <c r="O31" s="4" t="e">
         <f>VLOOKUP(C31,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O31" s="5" t="e">
+      <c r="P31" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="Q31" s="2" t="str">
+      <c r="R31" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S31" s="4">
+      <c r="T31" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5966,60 +5772,63 @@
       <c r="F32" s="3">
         <v>44958</v>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J32" s="2" t="str">
+      <c r="K32" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="M32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;Q32,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N32" s="4" t="e">
+      <c r="O32" s="4" t="e">
         <f>VLOOKUP(C32,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O32" s="5" t="e">
+      <c r="P32" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="Q32" s="2" t="str">
+      <c r="R32" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S32" s="4">
+      <c r="T32" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6040,66 +5849,69 @@
       <c r="F33" s="3">
         <v>44958</v>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J33" s="2" t="str">
+      <c r="K33" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="M33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;Q33,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N33" s="4" t="e">
+      <c r="O33" s="4" t="e">
         <f>VLOOKUP(C33,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O33" s="5" t="e">
+      <c r="P33" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="Q33" s="2" t="str">
+      <c r="R33" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S33" s="4">
+      <c r="T33" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U33" s="4">
+      <c r="V33" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" ref="A34:A69" si="14">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B66" si="15">"Nombre del cliente "&amp;P34</f>
+        <f t="shared" ref="B34:B66" si="15">"Nombre del cliente "&amp;Q34</f>
         <v>Nombre del cliente 34</v>
       </c>
       <c r="C34">
@@ -6114,60 +5926,63 @@
       <c r="F34" s="3">
         <v>44958</v>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="I34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J34" s="2" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="L34" s="2" t="str">
+      <c r="M34" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="M34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;Q34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N34" s="4" t="e">
+      <c r="O34" s="4" t="e">
         <f>VLOOKUP(C34,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O34" s="5" t="e">
-        <f t="shared" ref="O34:O65" si="16">IF(EXACT(N34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" ref="P34:P69" si="17">ROW(A34)</f>
+      <c r="P34" s="5" t="e">
+        <f t="shared" ref="P34:P65" si="16">IF(EXACT(O34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34:Q69" si="17">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="Q34" s="2" t="str">
+      <c r="R34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R34" s="4">
-        <f t="shared" ref="R34:R69" si="18">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="19">IF(C34=C35,1,0)</f>
+        <f t="shared" ref="S34:S69" si="18">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T65" si="20">SUM(R34:S34)</f>
+        <f t="shared" ref="T34:T69" si="19">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:U65" si="20">SUM(S34:T34)</f>
         <v>2</v>
       </c>
-      <c r="U34" s="4">
-        <f t="shared" ref="U34:U69" si="21">COUNTIF(C:C,C34)</f>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V69" si="21">COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6188,60 +6003,63 @@
       <c r="F35" s="3">
         <v>44958</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="I35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J35" s="2" t="str">
+      <c r="K35" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="L35" s="2" t="str">
+      <c r="M35" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="M35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;Q35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N35" s="4" t="e">
+      <c r="O35" s="4" t="e">
         <f>VLOOKUP(C35,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O35" s="5" t="e">
+      <c r="P35" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="2" t="str">
+      <c r="R35" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S35" s="4">
+      <c r="T35" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6262,60 +6080,63 @@
       <c r="F36" s="3">
         <v>44958</v>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J36" s="2" t="str">
+      <c r="K36" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="L36" s="2" t="str">
+      <c r="M36" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="M36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;Q36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N36" s="4" t="e">
+      <c r="O36" s="4" t="e">
         <f>VLOOKUP(C36,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O36" s="5" t="e">
+      <c r="P36" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="2" t="str">
+      <c r="R36" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S36" s="4">
+      <c r="T36" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6336,60 +6157,63 @@
       <c r="F37" s="3">
         <v>44958</v>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="I37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J37" s="2" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="L37" s="2" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="M37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;Q37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N37" s="4" t="e">
+      <c r="O37" s="4" t="e">
         <f>VLOOKUP(C37,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O37" s="5" t="e">
+      <c r="P37" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <f t="shared" si="17"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="2" t="str">
+      <c r="R37" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S37" s="4">
+      <c r="T37" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6410,60 +6234,63 @@
       <c r="F38" s="3">
         <v>44958</v>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="I38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="K38" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="L38" s="2" t="str">
+      <c r="M38" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="M38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;Q38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N38" s="4" t="e">
+      <c r="O38" s="4" t="e">
         <f>VLOOKUP(C38,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O38" s="5" t="e">
+      <c r="P38" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <f t="shared" si="17"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="2" t="str">
+      <c r="R38" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S38" s="4">
+      <c r="T38" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6484,60 +6311,63 @@
       <c r="F39" s="3">
         <v>44958</v>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J39" s="2" t="str">
+      <c r="K39" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="L39" s="2" t="str">
+      <c r="M39" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="M39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;Q39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N39" s="4" t="e">
+      <c r="O39" s="4" t="e">
         <f>VLOOKUP(C39,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O39" s="5" t="e">
+      <c r="P39" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <f t="shared" si="17"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="2" t="str">
+      <c r="R39" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S39" s="4">
+      <c r="T39" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6558,60 +6388,63 @@
       <c r="F40" s="3">
         <v>44958</v>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J40" s="2" t="str">
+      <c r="K40" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="L40" s="2" t="str">
+      <c r="M40" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="M40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;Q40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N40" s="4" t="e">
+      <c r="O40" s="4" t="e">
         <f>VLOOKUP(C40,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O40" s="5" t="e">
+      <c r="P40" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <f t="shared" si="17"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="2" t="str">
+      <c r="R40" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S40" s="4">
+      <c r="T40" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6632,60 +6465,63 @@
       <c r="F41" s="3">
         <v>44958</v>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J41" s="2" t="str">
+      <c r="K41" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="L41" s="2" t="str">
+      <c r="M41" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="M41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;Q41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N41" s="4" t="e">
+      <c r="O41" s="4" t="e">
         <f>VLOOKUP(C41,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O41" s="5" t="e">
+      <c r="P41" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <f t="shared" si="17"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="2" t="str">
+      <c r="R41" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S41" s="4">
+      <c r="T41" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6706,60 +6542,63 @@
       <c r="F42" s="3">
         <v>44958</v>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J42" s="2" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="L42" s="2" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="M42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;Q42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N42" s="4" t="e">
+      <c r="O42" s="4" t="e">
         <f>VLOOKUP(C42,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O42" s="5" t="e">
+      <c r="P42" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="4">
+      <c r="Q42" s="4">
         <f t="shared" si="17"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="2" t="str">
+      <c r="R42" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S42" s="4">
+      <c r="T42" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6780,60 +6619,63 @@
       <c r="F43" s="3">
         <v>44958</v>
       </c>
-      <c r="I43" s="2" t="str">
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J43" s="2" t="str">
+      <c r="K43" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="M43" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="M43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;Q43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N43" s="4" t="e">
+      <c r="O43" s="4" t="e">
         <f>VLOOKUP(C43,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O43" s="5" t="e">
+      <c r="P43" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <f t="shared" si="17"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="2" t="str">
+      <c r="R43" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="T43" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6854,60 +6696,63 @@
       <c r="F44" s="3">
         <v>44958</v>
       </c>
-      <c r="I44" s="2" t="str">
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J44" s="2" t="str">
+      <c r="K44" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="L44" s="2" t="str">
+      <c r="M44" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="M44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;Q44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N44" s="4" t="e">
+      <c r="O44" s="4" t="e">
         <f>VLOOKUP(C44,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O44" s="5" t="e">
+      <c r="P44" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <f t="shared" si="17"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="2" t="str">
+      <c r="R44" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S44" s="4">
+      <c r="T44" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U44" s="4">
+      <c r="V44" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6928,60 +6773,63 @@
       <c r="F45" s="3">
         <v>44958</v>
       </c>
-      <c r="I45" s="2" t="str">
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J45" s="2" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="L45" s="2" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="M45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;Q45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N45" s="4" t="e">
+      <c r="O45" s="4" t="e">
         <f>VLOOKUP(C45,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O45" s="5" t="e">
+      <c r="P45" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="2" t="str">
+      <c r="R45" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S45" s="4">
+      <c r="T45" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7002,60 +6850,63 @@
       <c r="F46" s="3">
         <v>44958</v>
       </c>
-      <c r="I46" s="2" t="str">
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J46" s="2" t="str">
+      <c r="K46" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="L46" s="2" t="str">
+      <c r="M46" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="M46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;Q46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N46" s="4" t="e">
+      <c r="O46" s="4" t="e">
         <f>VLOOKUP(C46,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O46" s="5" t="e">
+      <c r="P46" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <f t="shared" si="17"/>
         <v>46</v>
       </c>
-      <c r="Q46" s="2" t="str">
+      <c r="R46" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S46" s="4">
+      <c r="T46" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7076,60 +6927,63 @@
       <c r="F47" s="3">
         <v>44958</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="K47" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="M47" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="M47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;Q47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N47" s="4" t="e">
+      <c r="O47" s="4" t="e">
         <f>VLOOKUP(C47,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O47" s="5" t="e">
+      <c r="P47" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="4">
+      <c r="Q47" s="4">
         <f t="shared" si="17"/>
         <v>47</v>
       </c>
-      <c r="Q47" s="2" t="str">
+      <c r="R47" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S47" s="4">
+      <c r="T47" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7150,60 +7004,63 @@
       <c r="F48" s="3">
         <v>44958</v>
       </c>
-      <c r="I48" s="2" t="str">
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J48" s="2" t="str">
+      <c r="K48" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="L48" s="2" t="str">
+      <c r="M48" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="M48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;Q48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N48" s="4" t="e">
+      <c r="O48" s="4" t="e">
         <f>VLOOKUP(C48,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O48" s="5" t="e">
+      <c r="P48" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="4">
+      <c r="Q48" s="4">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="Q48" s="2" t="str">
+      <c r="R48" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S48" s="4">
+      <c r="T48" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T48" s="4">
+      <c r="U48" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7224,60 +7081,63 @@
       <c r="F49" s="3">
         <v>44958</v>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J49" s="2" t="str">
+      <c r="K49" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="L49" s="2" t="str">
+      <c r="M49" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="M49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;Q49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N49" s="4" t="e">
+      <c r="O49" s="4" t="e">
         <f>VLOOKUP(C49,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O49" s="5" t="e">
+      <c r="P49" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="4">
+      <c r="Q49" s="4">
         <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="2" t="str">
+      <c r="R49" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S49" s="4">
+      <c r="T49" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T49" s="4">
+      <c r="U49" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7298,60 +7158,63 @@
       <c r="F50" s="3">
         <v>44958</v>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J50" s="2" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="L50" s="2" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="M50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;Q50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="4" t="e">
+      <c r="O50" s="4" t="e">
         <f>VLOOKUP(C50,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O50" s="5" t="e">
+      <c r="P50" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="4">
+      <c r="Q50" s="4">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="Q50" s="2" t="str">
+      <c r="R50" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S50" s="4">
+      <c r="T50" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7372,60 +7235,63 @@
       <c r="F51" s="3">
         <v>44958</v>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J51" s="2" t="str">
+      <c r="K51" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="L51" s="2" t="str">
+      <c r="M51" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="M51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;Q51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N51" s="4" t="e">
+      <c r="O51" s="4" t="e">
         <f>VLOOKUP(C51,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O51" s="5" t="e">
+      <c r="P51" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="4">
+      <c r="Q51" s="4">
         <f t="shared" si="17"/>
         <v>51</v>
       </c>
-      <c r="Q51" s="2" t="str">
+      <c r="R51" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S51" s="4">
+      <c r="T51" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T51" s="4">
+      <c r="U51" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7446,60 +7312,63 @@
       <c r="F52" s="3">
         <v>44958</v>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J52" s="2" t="str">
+      <c r="K52" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="L52" s="2" t="str">
+      <c r="M52" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="M52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;Q52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N52" s="4" t="e">
+      <c r="O52" s="4" t="e">
         <f>VLOOKUP(C52,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O52" s="5" t="e">
+      <c r="P52" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="4">
+      <c r="Q52" s="4">
         <f t="shared" si="17"/>
         <v>52</v>
       </c>
-      <c r="Q52" s="2" t="str">
+      <c r="R52" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S52" s="4">
+      <c r="T52" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T52" s="4">
+      <c r="U52" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7520,60 +7389,63 @@
       <c r="F53" s="3">
         <v>44958</v>
       </c>
-      <c r="I53" s="2" t="str">
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J53" s="2" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="L53" s="2" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="M53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;Q53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N53" s="4" t="e">
+      <c r="O53" s="4" t="e">
         <f>VLOOKUP(C53,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O53" s="5" t="e">
+      <c r="P53" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="4">
+      <c r="Q53" s="4">
         <f t="shared" si="17"/>
         <v>53</v>
       </c>
-      <c r="Q53" s="2" t="str">
+      <c r="R53" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S53" s="4">
+      <c r="T53" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T53" s="4">
+      <c r="U53" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U53" s="4">
+      <c r="V53" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7594,60 +7466,63 @@
       <c r="F54" s="3">
         <v>44958</v>
       </c>
-      <c r="I54" s="2" t="str">
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J54" s="2" t="str">
+      <c r="K54" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="L54" s="2" t="str">
+      <c r="M54" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="M54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;Q54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N54" s="4" t="e">
+      <c r="O54" s="4" t="e">
         <f>VLOOKUP(C54,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O54" s="5" t="e">
+      <c r="P54" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="4">
+      <c r="Q54" s="4">
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="Q54" s="2" t="str">
+      <c r="R54" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S54" s="4">
+      <c r="T54" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T54" s="4">
+      <c r="U54" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7668,60 +7543,63 @@
       <c r="F55" s="3">
         <v>44958</v>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J55" s="2" t="str">
+      <c r="K55" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="L55" s="2" t="str">
+      <c r="M55" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="M55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;Q55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N55" s="4" t="e">
+      <c r="O55" s="4" t="e">
         <f>VLOOKUP(C55,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O55" s="5" t="e">
+      <c r="P55" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="4">
+      <c r="Q55" s="4">
         <f t="shared" si="17"/>
         <v>55</v>
       </c>
-      <c r="Q55" s="2" t="str">
+      <c r="R55" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S55" s="4">
+      <c r="T55" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T55" s="4">
+      <c r="U55" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7742,60 +7620,63 @@
       <c r="F56" s="3">
         <v>44958</v>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J56" s="2" t="str">
+      <c r="K56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="L56" s="2" t="str">
+      <c r="M56" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="M56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;Q56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N56" s="4" t="e">
+      <c r="O56" s="4" t="e">
         <f>VLOOKUP(C56,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O56" s="5" t="e">
+      <c r="P56" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="4">
+      <c r="Q56" s="4">
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="Q56" s="2" t="str">
+      <c r="R56" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S56" s="4">
+      <c r="T56" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T56" s="4">
+      <c r="U56" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U56" s="4">
+      <c r="V56" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7816,60 +7697,63 @@
       <c r="F57" s="3">
         <v>44958</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J57" s="2" t="str">
+      <c r="K57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="L57" s="2" t="str">
+      <c r="M57" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="M57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;Q57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N57" s="4" t="e">
+      <c r="O57" s="4" t="e">
         <f>VLOOKUP(C57,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O57" s="5" t="e">
+      <c r="P57" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="4">
+      <c r="Q57" s="4">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="Q57" s="2" t="str">
+      <c r="R57" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="T57" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T57" s="4">
+      <c r="U57" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7890,60 +7774,63 @@
       <c r="F58" s="3">
         <v>44958</v>
       </c>
-      <c r="I58" s="2" t="str">
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J58" s="2" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="L58" s="2" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="M58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;Q58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N58" s="4" t="e">
+      <c r="O58" s="4" t="e">
         <f>VLOOKUP(C58,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O58" s="5" t="e">
+      <c r="P58" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="4">
+      <c r="Q58" s="4">
         <f t="shared" si="17"/>
         <v>58</v>
       </c>
-      <c r="Q58" s="2" t="str">
+      <c r="R58" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S58" s="4">
+      <c r="T58" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T58" s="4">
+      <c r="U58" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7964,60 +7851,63 @@
       <c r="F59" s="3">
         <v>44958</v>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J59" s="2" t="str">
+      <c r="K59" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="L59" s="2" t="str">
+      <c r="M59" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="M59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;Q59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N59" s="4" t="e">
+      <c r="O59" s="4" t="e">
         <f>VLOOKUP(C59,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O59" s="5" t="e">
+      <c r="P59" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="4">
+      <c r="Q59" s="4">
         <f t="shared" si="17"/>
         <v>59</v>
       </c>
-      <c r="Q59" s="2" t="str">
+      <c r="R59" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S59" s="4">
+      <c r="T59" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T59" s="4">
+      <c r="U59" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U59" s="4">
+      <c r="V59" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8038,60 +7928,63 @@
       <c r="F60" s="3">
         <v>44958</v>
       </c>
-      <c r="I60" s="2" t="str">
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J60" s="2" t="str">
+      <c r="K60" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="L60" s="2" t="str">
+      <c r="M60" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="M60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;Q60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N60" s="4" t="e">
+      <c r="O60" s="4" t="e">
         <f>VLOOKUP(C60,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O60" s="5" t="e">
+      <c r="P60" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="4">
+      <c r="Q60" s="4">
         <f t="shared" si="17"/>
         <v>60</v>
       </c>
-      <c r="Q60" s="2" t="str">
+      <c r="R60" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S60" s="4">
+      <c r="T60" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T60" s="4">
+      <c r="U60" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8112,60 +8005,63 @@
       <c r="F61" s="3">
         <v>44958</v>
       </c>
-      <c r="I61" s="2" t="str">
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J61" s="2" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="L61" s="2" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="M61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;Q61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N61" s="4" t="e">
+      <c r="O61" s="4" t="e">
         <f>VLOOKUP(C61,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="5" t="e">
+      <c r="P61" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="4">
+      <c r="Q61" s="4">
         <f t="shared" si="17"/>
         <v>61</v>
       </c>
-      <c r="Q61" s="2" t="str">
+      <c r="R61" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S61" s="4">
+      <c r="T61" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T61" s="4">
+      <c r="U61" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8186,60 +8082,63 @@
       <c r="F62" s="3">
         <v>44958</v>
       </c>
-      <c r="I62" s="2" t="str">
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J62" s="2" t="str">
+      <c r="K62" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="L62" s="2" t="str">
+      <c r="M62" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="M62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;Q62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N62" s="4" t="e">
+      <c r="O62" s="4" t="e">
         <f>VLOOKUP(C62,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O62" s="5" t="e">
+      <c r="P62" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="4">
+      <c r="Q62" s="4">
         <f t="shared" si="17"/>
         <v>62</v>
       </c>
-      <c r="Q62" s="2" t="str">
+      <c r="R62" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S62" s="4">
+      <c r="T62" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T62" s="4">
+      <c r="U62" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U62" s="4">
+      <c r="V62" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8260,60 +8159,63 @@
       <c r="F63" s="3">
         <v>44958</v>
       </c>
-      <c r="I63" s="2" t="str">
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J63" s="2" t="str">
+      <c r="K63" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="L63" s="2" t="str">
+      <c r="M63" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="M63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;Q63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N63" s="4" t="e">
+      <c r="O63" s="4" t="e">
         <f>VLOOKUP(C63,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="5" t="e">
+      <c r="P63" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="4">
+      <c r="Q63" s="4">
         <f t="shared" si="17"/>
         <v>63</v>
       </c>
-      <c r="Q63" s="2" t="str">
+      <c r="R63" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S63" s="4">
+      <c r="T63" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T63" s="4">
+      <c r="U63" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V63" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8334,60 +8236,63 @@
       <c r="F64" s="3">
         <v>44958</v>
       </c>
-      <c r="I64" s="2" t="str">
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J64" s="2" t="str">
+      <c r="K64" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="L64" s="2" t="str">
+      <c r="M64" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="M64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;Q64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N64" s="4" t="e">
+      <c r="O64" s="4" t="e">
         <f>VLOOKUP(C64,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O64" s="5" t="e">
+      <c r="P64" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="4">
+      <c r="Q64" s="4">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="Q64" s="2" t="str">
+      <c r="R64" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S64" s="4">
+      <c r="T64" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T64" s="4">
+      <c r="U64" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U64" s="4">
+      <c r="V64" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8408,60 +8313,63 @@
       <c r="F65" s="3">
         <v>44958</v>
       </c>
-      <c r="I65" s="2" t="str">
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J65" s="2" t="str">
+      <c r="K65" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="L65" s="2" t="str">
+      <c r="M65" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="M65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;Q65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N65" s="4" t="e">
+      <c r="O65" s="4" t="e">
         <f>VLOOKUP(C65,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O65" s="5" t="e">
+      <c r="P65" s="5" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="4">
+      <c r="Q65" s="4">
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="Q65" s="2" t="str">
+      <c r="R65" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S65" s="4">
+      <c r="T65" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T65" s="4">
+      <c r="U65" s="4">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="U65" s="4">
+      <c r="V65" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8482,66 +8390,69 @@
       <c r="F66" s="3">
         <v>44958</v>
       </c>
-      <c r="I66" s="2" t="str">
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="J66" s="2" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="L66" s="2" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="12"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="M66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;Q66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N66" s="4" t="e">
+      <c r="O66" s="4" t="e">
         <f>VLOOKUP(C66,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O66" s="5" t="e">
-        <f t="shared" ref="O66:O69" si="22">IF(EXACT(N66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5" t="e">
+        <f t="shared" ref="P66:P69" si="22">IF(EXACT(O66,E66),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" s="4">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="Q66" s="2" t="str">
+      <c r="R66" s="2" t="str">
         <f t="shared" si="13"/>
         <v>202302</v>
       </c>
-      <c r="R66" s="4">
+      <c r="S66" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S66" s="4">
+      <c r="T66" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T66" s="4">
-        <f t="shared" ref="T66:T69" si="23">SUM(R66:S66)</f>
+      <c r="U66" s="4">
+        <f t="shared" ref="U66:U69" si="23">SUM(S66:T66)</f>
         <v>2</v>
       </c>
-      <c r="U66" s="4">
+      <c r="V66" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="24">"Nombre del cliente "&amp;P67</f>
+        <f t="shared" ref="B67:B69" si="24">"Nombre del cliente "&amp;Q67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
@@ -8556,60 +8467,63 @@
       <c r="F67" s="3">
         <v>44958</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I69" si="25">TEXT(DAY(F67),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" ref="J67:J69" si="25">TEXT(DAY(F67),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="26">TEXT(DAY(EOMONTH(F67,0)),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K69" si="26">TEXT(DAY(EOMONTH(F67,0)),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="27">CONCATENATE(TEXT(A67,"0")," - ",K$1," - ",YEAR(F67),TEXT(MONTH(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L69" si="27">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",YEAR(F67),TEXT(MONTH(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="28">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",Q67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="28">CONCATENATE(TEXT(A67,"0")," - ",M$1," - ",R67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="M67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;Q67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N67" s="4" t="e">
+      <c r="O67" s="4" t="e">
         <f>VLOOKUP(C67,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O67" s="5" t="e">
+      <c r="P67" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="4">
+      <c r="Q67" s="4">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="29">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+      <c r="R67" s="2" t="str">
+        <f t="shared" ref="R67:R69" si="29">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
         <v>202302</v>
       </c>
-      <c r="R67" s="4">
+      <c r="S67" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S67" s="4">
+      <c r="T67" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T67" s="4">
+      <c r="U67" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="U67" s="4">
+      <c r="V67" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8630,60 +8544,63 @@
       <c r="F68" s="3">
         <v>44958</v>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" s="2" t="str">
         <f t="shared" si="25"/>
         <v>01022023</v>
       </c>
-      <c r="J68" s="2" t="str">
+      <c r="K68" s="2" t="str">
         <f t="shared" si="26"/>
         <v>28022023</v>
       </c>
-      <c r="K68" s="2" t="str">
+      <c r="L68" s="2" t="str">
         <f t="shared" si="27"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="L68" s="2" t="str">
+      <c r="M68" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="M68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;Q68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N68" s="4" t="e">
+      <c r="O68" s="4" t="e">
         <f>VLOOKUP(C68,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O68" s="5" t="e">
+      <c r="P68" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="4">
+      <c r="Q68" s="4">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="Q68" s="2" t="str">
+      <c r="R68" s="2" t="str">
         <f t="shared" si="29"/>
         <v>202302</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S68" s="4">
+      <c r="T68" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="T68" s="4">
+      <c r="U68" s="4">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="U68" s="4">
+      <c r="V68" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8704,67 +8621,76 @@
       <c r="F69" s="3">
         <v>44958</v>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="I69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" s="2" t="str">
         <f t="shared" si="25"/>
         <v>01022023</v>
       </c>
-      <c r="J69" s="2" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="26"/>
         <v>28022023</v>
       </c>
-      <c r="K69" s="2" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="27"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="L69" s="2" t="str">
+      <c r="M69" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="M69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;Q69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="N69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="N69" s="4" t="e">
+      <c r="O69" s="4" t="e">
         <f>VLOOKUP(C69,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="O69" s="5" t="e">
+      <c r="P69" s="5" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="4">
+      <c r="Q69" s="4">
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="Q69" s="2" t="str">
+      <c r="R69" s="2" t="str">
         <f t="shared" si="29"/>
         <v>202302</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="S69" s="4">
+      <c r="T69" s="4">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T69" s="4">
+      <c r="U69" s="4">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="U69" s="4">
+      <c r="V69" s="4">
         <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I69" xr:uid="{02408F5B-C6F6-4B3C-BAB1-FB5714DC1501}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Listado MR.xlsx
+++ b/Listado MR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-Mis-Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FBE90-7E24-4E5D-ABBB-9699A1D57310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2E4E2B-8A9E-4AB6-9B71-16EAB2A77D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Descargados!$B$2:$B$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$V$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$X$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -66,7 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cuit para iniciar sesión</t>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -90,14 +90,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CUIT del representado</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2E3172AB-D99E-4906-9DCB-49847C4623EB}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2E3172AB-D99E-4906-9DCB-49847C4623EB}">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -114,7 +114,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 si el archivo no se guarda en la carpeta de la ubicación se debe colocar 'NO'.
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="34">
   <si>
     <t>Nro</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Desde (No Formula)</t>
-  </si>
-  <si>
-    <t>Importar</t>
   </si>
   <si>
     <t>Importado</t>
@@ -221,6 +218,18 @@
   <si>
     <t>SI</t>
   </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Descargar Aduaneras</t>
+  </si>
+  <si>
+    <t>767 Aduanera</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
 </sst>
 </file>
 
@@ -257,14 +266,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3332,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3346,16 +3355,17 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3375,61 +3385,67 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1">
+        <v>767</v>
+      </c>
+      <c r="O1" s="1">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1">
-        <v>767</v>
-      </c>
-      <c r="M1" s="1">
-        <v>216</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B33" si="1">"Nombre del cliente "&amp;Q2</f>
+        <f t="shared" ref="B2:B33" si="1">"Nombre del cliente "&amp;S2</f>
         <v>Nombre del cliente 2</v>
       </c>
       <c r="C2">
@@ -3440,74 +3456,81 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3">
         <v>44958</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="str">
         <f>TEXT(DAY(F2),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="L2" s="2" t="str">
         <f>TEXT(DAY(EOMONTH(F2,0)),"00")&amp;TEXT(MONTH(F2),"00")&amp;TEXT(YEAR(F2),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",L$1," - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",M$1," - ",T2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 2</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",N$1," - ",T2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",M$1," - ",R2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="O2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",O$1," - ",T2," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 2</v>
       </c>
-      <c r="N2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;T2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="4" t="e">
+      <c r="Q2" s="4" t="e">
         <f>VLOOKUP(C2,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P2" s="5" t="e">
-        <f t="shared" ref="P2:P33" si="3">IF(EXACT(O2,E2),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="4">ROW(A2)</f>
+      <c r="R2" s="5" t="e">
+        <f t="shared" ref="R2:R33" si="3">IF(EXACT(Q2,E2),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="4">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="str">
+      <c r="T2" s="2" t="str">
         <f>YEAR(F2)&amp;TEXT(MONTH(F2),"00")</f>
         <v>202302</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="5">IF(C2=C1,1,0)</f>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="5">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="6">IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" ref="U2:U33" si="7">SUM(S2:T2)</f>
-        <v>1</v>
-      </c>
       <c r="V2" s="4">
-        <f t="shared" ref="V2:V33" si="8">COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="V2:V33" si="6">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2:W33" si="7">SUM(U2:V2)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:X33" si="8">COUNTIF(C:C,C2)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3524,71 +3547,78 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3">
         <v>44958</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" si="9">TEXT(DAY(F3),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="9">TEXT(DAY(F3),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3:K66" si="10">TEXT(DAY(EOMONTH(F3,0)),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="10">TEXT(DAY(EOMONTH(F3,0)),"00")&amp;TEXT(MONTH(F3),"00")&amp;TEXT(YEAR(F3),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="11">CONCATENATE(TEXT(A3,"0")," - ",L$1," - ",YEAR(F3),TEXT(MONTH(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="11">CONCATENATE(TEXT(A3,"0")," - ",M$1," - ",T3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 3</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="12">CONCATENATE(TEXT(A3,"0")," - ",N$1," - ",YEAR(F3),TEXT(MONTH(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="12">CONCATENATE(TEXT(A3,"0")," - ",M$1," - ",R3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="O3" s="2" t="str">
+        <f t="shared" ref="O3:O66" si="13">CONCATENATE(TEXT(A3,"0")," - ",O$1," - ",T3," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 3</v>
       </c>
-      <c r="N3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;T3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O3" s="4" t="e">
+      <c r="Q3" s="4" t="e">
         <f>VLOOKUP(C3,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P3" s="5" t="e">
+      <c r="R3" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R3" s="2" t="str">
-        <f t="shared" ref="R3:R66" si="13">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
+      <c r="T3" s="2" t="str">
+        <f t="shared" ref="T3:T66" si="14">YEAR(F3)&amp;TEXT(MONTH(F3),"00")</f>
         <v>202302</v>
       </c>
-      <c r="S3" s="4">
+      <c r="U3" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="V3" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3605,68 +3635,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3">
         <v>44958</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="str">
+      <c r="G4" s="3"/>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 4</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 4</v>
       </c>
-      <c r="N4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;T4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O4" s="4" t="e">
+      <c r="Q4" s="4" t="e">
         <f>VLOOKUP(C4,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P4" s="5" t="e">
+      <c r="R4" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R4" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T4" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T4" s="4">
+      <c r="V4" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W4" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3683,68 +3718,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3">
         <v>44958</v>
       </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="str">
+      <c r="G5" s="3"/>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="L5" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 5</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="M5" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 5</v>
       </c>
-      <c r="N5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;T5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O5" s="4" t="e">
+      <c r="Q5" s="4" t="e">
         <f>VLOOKUP(C5,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P5" s="5" t="e">
+      <c r="R5" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="R5" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3761,68 +3801,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3">
         <v>44958</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="str">
+      <c r="G6" s="3"/>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="L6" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 6</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="M6" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 6</v>
       </c>
-      <c r="N6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;T6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O6" s="4" t="e">
+      <c r="Q6" s="4" t="e">
         <f>VLOOKUP(C6,[2]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P6" s="5" t="e">
+      <c r="R6" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R6" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3839,68 +3884,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>44958</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="str">
+      <c r="G7" s="3"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="L7" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 7</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="M7" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 7</v>
       </c>
-      <c r="N7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;T7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O7" s="4" t="e">
+      <c r="Q7" s="4" t="e">
         <f>VLOOKUP(C7,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="5" t="e">
+      <c r="R7" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3917,68 +3967,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
         <v>44958</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="str">
+      <c r="G8" s="3"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="L8" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="M8" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 8</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 8</v>
       </c>
-      <c r="N8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;T8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O8" s="4" t="e">
+      <c r="Q8" s="4" t="e">
         <f>VLOOKUP(C8,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P8" s="5" t="e">
+      <c r="R8" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="R8" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3995,68 +4050,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
         <v>44958</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="2" t="str">
+      <c r="G9" s="3"/>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="L9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="M9" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 9</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="M9" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 9</v>
       </c>
-      <c r="N9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;T9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O9" s="4" t="e">
+      <c r="Q9" s="4" t="e">
         <f>VLOOKUP(C9,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P9" s="5" t="e">
+      <c r="R9" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="R9" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4073,68 +4133,73 @@
         <v>20-00000000-0</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3">
         <v>44958</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2" t="str">
+      <c r="G10" s="3"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="L10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="M10" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 20000000000 - Nombre del cliente 10</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="M10" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 20000000000 - Nombre del cliente 10</v>
       </c>
-      <c r="N10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;T10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O10" s="4" t="e">
+      <c r="Q10" s="4" t="e">
         <f>VLOOKUP(C10,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P10" s="5" t="e">
+      <c r="R10" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="R10" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T10" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T10" s="4">
+      <c r="V10" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4147,71 +4212,76 @@
         <v>20000000000</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="3">
         <v>44958</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="2" t="str">
+      <c r="G11" s="3"/>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="L11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="M11" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 30000000000 - Nombre del cliente 11</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 30000000000 - Nombre del cliente 11</v>
       </c>
-      <c r="N11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;T11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O11" s="4" t="e">
+      <c r="Q11" s="4" t="e">
         <f>VLOOKUP(C11,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P11" s="5" t="e">
+      <c r="R11" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="R11" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4224,71 +4294,76 @@
         <v>20000000000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3">
         <v>44958</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="2" t="str">
+      <c r="G12" s="3"/>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K12" s="2" t="str">
+      <c r="L12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L12" s="2" t="str">
+      <c r="M12" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 12</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 12</v>
       </c>
-      <c r="N12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;T12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O12" s="4" t="e">
+      <c r="Q12" s="4" t="e">
         <f>VLOOKUP(C12,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P12" s="5" t="e">
+      <c r="R12" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="R12" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4301,71 +4376,76 @@
         <v>20000000000</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3">
         <v>44958</v>
       </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="2" t="str">
+      <c r="G13" s="3"/>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="L13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L13" s="2" t="str">
+      <c r="M13" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 13</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 13</v>
       </c>
-      <c r="N13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;T13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O13" s="4" t="e">
+      <c r="Q13" s="4" t="e">
         <f>VLOOKUP(C13,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="5" t="e">
+      <c r="R13" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="R13" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T13" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4378,71 +4458,76 @@
         <v>20000000000</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3">
         <v>44958</v>
       </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="2" t="str">
+      <c r="G14" s="3"/>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="L14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L14" s="2" t="str">
+      <c r="M14" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 14</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 14</v>
       </c>
-      <c r="N14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;T14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O14" s="4" t="e">
+      <c r="Q14" s="4" t="e">
         <f>VLOOKUP(C14,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P14" s="5" t="e">
+      <c r="R14" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="R14" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T14" s="4">
+      <c r="V14" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4455,71 +4540,76 @@
         <v>20000000000</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3">
         <v>44958</v>
       </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="2" t="str">
+      <c r="G15" s="3"/>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K15" s="2" t="str">
+      <c r="L15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="M15" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 15</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 15</v>
       </c>
-      <c r="N15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;T15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O15" s="4" t="e">
+      <c r="Q15" s="4" t="e">
         <f>VLOOKUP(C15,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P15" s="5" t="e">
+      <c r="R15" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="R15" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T15" s="4">
+      <c r="V15" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4532,71 +4622,76 @@
         <v>20000000000</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3">
         <v>44958</v>
       </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2" t="str">
+      <c r="G16" s="3"/>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="L16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="M16" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 16</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 16</v>
       </c>
-      <c r="N16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;T16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O16" s="4" t="e">
+      <c r="Q16" s="4" t="e">
         <f>VLOOKUP(C16,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="5" t="e">
+      <c r="R16" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="R16" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T16" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T16" s="4">
+      <c r="V16" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4609,71 +4704,76 @@
         <v>20000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="3">
         <v>44958</v>
       </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="2" t="str">
+      <c r="G17" s="3"/>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K17" s="2" t="str">
+      <c r="L17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L17" s="2" t="str">
+      <c r="M17" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 17</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 17</v>
       </c>
-      <c r="N17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;T17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O17" s="4" t="e">
+      <c r="Q17" s="4" t="e">
         <f>VLOOKUP(C17,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="5" t="e">
+      <c r="R17" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="R17" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T17" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T17" s="4">
+      <c r="V17" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4686,71 +4786,76 @@
         <v>20000000000</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="3">
         <v>44958</v>
       </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="2" t="str">
+      <c r="G18" s="3"/>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K18" s="2" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L18" s="2" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 18</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 18</v>
       </c>
-      <c r="N18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;T18,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O18" s="4" t="e">
+      <c r="Q18" s="4" t="e">
         <f>VLOOKUP(C18,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P18" s="5" t="e">
+      <c r="R18" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="R18" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T18" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S18" s="4">
+      <c r="U18" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U18" s="4">
+      <c r="W18" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4763,71 +4868,76 @@
         <v>20000000000</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3">
         <v>44958</v>
       </c>
-      <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="2" t="str">
+      <c r="G19" s="3"/>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K19" s="2" t="str">
+      <c r="L19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="M19" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 19</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 19</v>
       </c>
-      <c r="N19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;T19,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O19" s="4" t="e">
+      <c r="Q19" s="4" t="e">
         <f>VLOOKUP(C19,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="5" t="e">
+      <c r="R19" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="R19" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T19" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V19" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U19" s="4">
+      <c r="W19" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4840,71 +4950,76 @@
         <v>20000000000</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="3">
         <v>44958</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2" t="str">
+      <c r="G20" s="3"/>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="L20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="M20" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 20</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 20</v>
       </c>
-      <c r="N20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;T20,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O20" s="4" t="e">
+      <c r="Q20" s="4" t="e">
         <f>VLOOKUP(C20,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="5" t="e">
+      <c r="R20" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="R20" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T20" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T20" s="4">
+      <c r="V20" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U20" s="4">
+      <c r="W20" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4917,71 +5032,76 @@
         <v>20000000000</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="3">
         <v>44958</v>
       </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="2" t="str">
+      <c r="G21" s="3"/>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K21" s="2" t="str">
+      <c r="L21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L21" s="2" t="str">
+      <c r="M21" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 21</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 21</v>
       </c>
-      <c r="N21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;T21,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O21" s="4" t="e">
+      <c r="Q21" s="4" t="e">
         <f>VLOOKUP(C21,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P21" s="5" t="e">
+      <c r="R21" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="R21" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T21" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V21" s="4">
+      <c r="X21" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4994,71 +5114,76 @@
         <v>20000000000</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3">
         <v>44958</v>
       </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="2" t="str">
+      <c r="G22" s="3"/>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K22" s="2" t="str">
+      <c r="L22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="M22" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 22</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 22</v>
       </c>
-      <c r="N22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;T22,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O22" s="4" t="e">
+      <c r="Q22" s="4" t="e">
         <f>VLOOKUP(C22,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P22" s="5" t="e">
+      <c r="R22" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="R22" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T22" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T22" s="4">
+      <c r="V22" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U22" s="4">
+      <c r="W22" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5071,71 +5196,76 @@
         <v>20000000000</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="3">
         <v>44958</v>
       </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="2" t="str">
+      <c r="G23" s="3"/>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K23" s="2" t="str">
+      <c r="L23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L23" s="2" t="str">
+      <c r="M23" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 23</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 23</v>
       </c>
-      <c r="N23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;T23,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O23" s="4" t="e">
+      <c r="Q23" s="4" t="e">
         <f>VLOOKUP(C23,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P23" s="5" t="e">
+      <c r="R23" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="R23" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T23" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5148,71 +5278,76 @@
         <v>20000000000</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="3">
         <v>44958</v>
       </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="2" t="str">
+      <c r="G24" s="3"/>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K24" s="2" t="str">
+      <c r="L24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L24" s="2" t="str">
+      <c r="M24" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 24</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="M24" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 24</v>
       </c>
-      <c r="N24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;T24,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O24" s="4" t="e">
+      <c r="Q24" s="4" t="e">
         <f>VLOOKUP(C24,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P24" s="5" t="e">
+      <c r="R24" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="R24" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T24" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T24" s="4">
+      <c r="V24" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U24" s="4">
+      <c r="W24" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5225,71 +5360,76 @@
         <v>20000000000</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="3">
         <v>44958</v>
       </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2" t="str">
+      <c r="G25" s="3"/>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K25" s="2" t="str">
+      <c r="L25" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L25" s="2" t="str">
+      <c r="M25" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 25</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 25</v>
       </c>
-      <c r="N25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;T25,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O25" s="4" t="e">
+      <c r="Q25" s="4" t="e">
         <f>VLOOKUP(C25,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P25" s="5" t="e">
+      <c r="R25" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R25" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T25" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U25" s="4">
+      <c r="W25" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V25" s="4">
+      <c r="X25" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5302,71 +5442,76 @@
         <v>20000000000</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="3">
         <v>44958</v>
       </c>
-      <c r="I26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="2" t="str">
+      <c r="G26" s="3"/>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K26" s="2" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L26" s="2" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 26</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 26</v>
       </c>
-      <c r="N26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;T26,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O26" s="4" t="e">
+      <c r="Q26" s="4" t="e">
         <f>VLOOKUP(C26,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P26" s="5" t="e">
+      <c r="R26" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T26" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S26" s="4">
+      <c r="U26" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T26" s="4">
+      <c r="V26" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U26" s="4">
+      <c r="W26" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V26" s="4">
+      <c r="X26" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5379,71 +5524,76 @@
         <v>20000000000</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="3">
         <v>44958</v>
       </c>
-      <c r="I27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="2" t="str">
+      <c r="G27" s="3"/>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K27" s="2" t="str">
+      <c r="L27" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L27" s="2" t="str">
+      <c r="M27" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 27</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 27</v>
       </c>
-      <c r="N27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;T27,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O27" s="4" t="e">
+      <c r="Q27" s="4" t="e">
         <f>VLOOKUP(C27,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P27" s="5" t="e">
+      <c r="R27" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="R27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T27" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T27" s="4">
+      <c r="V27" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U27" s="4">
+      <c r="W27" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V27" s="4">
+      <c r="X27" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5456,71 +5606,76 @@
         <v>20000000000</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="3">
         <v>44958</v>
       </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="2" t="str">
+      <c r="G28" s="3"/>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K28" s="2" t="str">
+      <c r="L28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L28" s="2" t="str">
+      <c r="M28" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 28</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 28</v>
       </c>
-      <c r="N28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;T28,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O28" s="4" t="e">
+      <c r="Q28" s="4" t="e">
         <f>VLOOKUP(C28,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P28" s="5" t="e">
+      <c r="R28" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="R28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T28" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T28" s="4">
+      <c r="V28" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U28" s="4">
+      <c r="W28" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V28" s="4">
+      <c r="X28" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5533,71 +5688,76 @@
         <v>20000000000</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="3">
         <v>44958</v>
       </c>
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="2" t="str">
+      <c r="G29" s="3"/>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 29</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="M29" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 29</v>
       </c>
-      <c r="N29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;T29,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O29" s="4" t="e">
+      <c r="Q29" s="4" t="e">
         <f>VLOOKUP(C29,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P29" s="5" t="e">
+      <c r="R29" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="R29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T29" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T29" s="4">
+      <c r="V29" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U29" s="4">
+      <c r="W29" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V29" s="4">
+      <c r="X29" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5610,71 +5770,76 @@
         <v>20000000000</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="3">
         <v>44958</v>
       </c>
-      <c r="I30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="2" t="str">
+      <c r="G30" s="3"/>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K30" s="2" t="str">
+      <c r="L30" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L30" s="2" t="str">
+      <c r="M30" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 30</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 30</v>
       </c>
-      <c r="N30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;T30,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O30" s="4" t="e">
+      <c r="Q30" s="4" t="e">
         <f>VLOOKUP(C30,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P30" s="5" t="e">
+      <c r="R30" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="R30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T30" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T30" s="4">
+      <c r="V30" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U30" s="4">
+      <c r="W30" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V30" s="4">
+      <c r="X30" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5687,71 +5852,76 @@
         <v>20000000000</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="3">
         <v>44958</v>
       </c>
-      <c r="I31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="2" t="str">
+      <c r="G31" s="3"/>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K31" s="2" t="str">
+      <c r="L31" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L31" s="2" t="str">
+      <c r="M31" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 31</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 31</v>
       </c>
-      <c r="N31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;T31,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O31" s="4" t="e">
+      <c r="Q31" s="4" t="e">
         <f>VLOOKUP(C31,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P31" s="5" t="e">
+      <c r="R31" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="R31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T31" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S31" s="4">
+      <c r="U31" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T31" s="4">
+      <c r="V31" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U31" s="4">
+      <c r="W31" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V31" s="4">
+      <c r="X31" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5764,71 +5934,76 @@
         <v>20000000000</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="3">
         <v>44958</v>
       </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="2" t="str">
+      <c r="G32" s="3"/>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K32" s="2" t="str">
+      <c r="L32" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L32" s="2" t="str">
+      <c r="M32" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 32</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 32</v>
       </c>
-      <c r="N32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;T32,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O32" s="4" t="e">
+      <c r="Q32" s="4" t="e">
         <f>VLOOKUP(C32,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P32" s="5" t="e">
+      <c r="R32" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="R32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T32" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S32" s="4">
+      <c r="U32" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T32" s="4">
+      <c r="V32" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U32" s="4">
+      <c r="W32" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V32" s="4">
+      <c r="X32" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5841,2850 +6016,3038 @@
         <v>20000000000</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="3">
         <v>44958</v>
       </c>
-      <c r="I33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="2" t="str">
+      <c r="G33" s="3"/>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K33" s="2" t="str">
+      <c r="L33" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L33" s="2" t="str">
+      <c r="M33" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 33</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="M33" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 33</v>
       </c>
-      <c r="N33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;T33,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O33" s="4" t="e">
+      <c r="Q33" s="4" t="e">
         <f>VLOOKUP(C33,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P33" s="5" t="e">
+      <c r="R33" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="R33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T33" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S33" s="4">
+      <c r="U33" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T33" s="4">
+      <c r="V33" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="U33" s="4">
+      <c r="W33" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V33" s="4">
+      <c r="X33" s="4">
         <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="14">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="15">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B66" si="15">"Nombre del cliente "&amp;Q34</f>
+        <f t="shared" ref="B34:B66" si="16">"Nombre del cliente "&amp;S34</f>
         <v>Nombre del cliente 34</v>
       </c>
       <c r="C34">
         <v>20000000000</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F34" s="3">
         <v>44958</v>
       </c>
-      <c r="I34" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="2" t="str">
+      <c r="G34" s="3"/>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K34" s="2" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L34" s="2" t="str">
+      <c r="M34" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 34</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 34</v>
       </c>
-      <c r="N34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;T34,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="4" t="e">
+      <c r="Q34" s="4" t="e">
         <f>VLOOKUP(C34,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P34" s="5" t="e">
-        <f t="shared" ref="P34:P65" si="16">IF(EXACT(O34,E34),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q69" si="17">ROW(A34)</f>
+      <c r="R34" s="5" t="e">
+        <f t="shared" ref="R34:R65" si="17">IF(EXACT(Q34,E34),"ü","x")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="4">
+        <f t="shared" ref="S34:S69" si="18">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="T34" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
-      <c r="S34" s="4">
-        <f t="shared" ref="S34:S69" si="18">IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T34" s="4">
-        <f t="shared" ref="T34:T69" si="19">IF(C34=C35,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="U34" s="4">
-        <f t="shared" ref="U34:U65" si="20">SUM(S34:T34)</f>
+        <f t="shared" ref="U34:U69" si="19">IF(C34=C33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" ref="V34:V69" si="20">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="4">
+        <f t="shared" ref="W34:W65" si="21">SUM(U34:V34)</f>
         <v>2</v>
       </c>
-      <c r="V34" s="4">
-        <f t="shared" ref="V34:V69" si="21">COUNTIF(C:C,C34)</f>
+      <c r="X34" s="4">
+        <f t="shared" ref="X34:X69" si="22">COUNTIF(C:C,C34)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 35</v>
       </c>
       <c r="C35">
         <v>20000000000</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" s="3">
         <v>44958</v>
       </c>
-      <c r="I35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J35" s="2" t="str">
+      <c r="G35" s="3"/>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K35" s="2" t="str">
+      <c r="L35" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L35" s="2" t="str">
+      <c r="M35" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 35</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 35</v>
       </c>
-      <c r="N35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;T35,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="4" t="e">
+      <c r="Q35" s="4" t="e">
         <f>VLOOKUP(C35,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P35" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>35</v>
-      </c>
-      <c r="R35" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T35" s="4">
+        <v>35</v>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U35" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U35" s="4">
+      <c r="V35" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V35" s="4">
-        <f t="shared" si="21"/>
+      <c r="X35" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 36</v>
       </c>
       <c r="C36">
         <v>20000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="3">
         <v>44958</v>
       </c>
-      <c r="I36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="2" t="str">
+      <c r="G36" s="3"/>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K36" s="2" t="str">
+      <c r="L36" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L36" s="2" t="str">
+      <c r="M36" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 36</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 36</v>
       </c>
-      <c r="N36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;T36,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="4" t="e">
+      <c r="Q36" s="4" t="e">
         <f>VLOOKUP(C36,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P36" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="R36" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="4">
+        <v>36</v>
+      </c>
+      <c r="T36" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U36" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U36" s="4">
+      <c r="V36" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V36" s="4">
-        <f t="shared" si="21"/>
+      <c r="X36" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 37</v>
       </c>
       <c r="C37">
         <v>20000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="3">
         <v>44958</v>
       </c>
-      <c r="I37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="2" t="str">
+      <c r="G37" s="3"/>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K37" s="2" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L37" s="2" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 37</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 37</v>
       </c>
-      <c r="N37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;T37,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="4" t="e">
+      <c r="Q37" s="4" t="e">
         <f>VLOOKUP(C37,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P37" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>37</v>
-      </c>
-      <c r="R37" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S37" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T37" s="4">
+        <v>37</v>
+      </c>
+      <c r="T37" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U37" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U37" s="4">
+      <c r="V37" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V37" s="4">
-        <f t="shared" si="21"/>
+      <c r="X37" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 38</v>
       </c>
       <c r="C38">
         <v>20000000000</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="3">
         <v>44958</v>
       </c>
-      <c r="I38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="2" t="str">
+      <c r="G38" s="3"/>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="L38" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L38" s="2" t="str">
+      <c r="M38" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 38</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 38</v>
       </c>
-      <c r="N38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;T38,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="4" t="e">
+      <c r="Q38" s="4" t="e">
         <f>VLOOKUP(C38,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P38" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>38</v>
-      </c>
-      <c r="R38" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S38" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T38" s="4">
+        <v>38</v>
+      </c>
+      <c r="T38" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U38" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U38" s="4">
+      <c r="V38" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V38" s="4">
-        <f t="shared" si="21"/>
+      <c r="X38" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 39</v>
       </c>
       <c r="C39">
         <v>20000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="3">
         <v>44958</v>
       </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2" t="str">
+      <c r="G39" s="3"/>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K39" s="2" t="str">
+      <c r="L39" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L39" s="2" t="str">
+      <c r="M39" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 39</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 39</v>
       </c>
-      <c r="N39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;T39,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="4" t="e">
+      <c r="Q39" s="4" t="e">
         <f>VLOOKUP(C39,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P39" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>39</v>
-      </c>
-      <c r="R39" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
+        <v>39</v>
+      </c>
+      <c r="T39" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U39" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U39" s="4">
+      <c r="V39" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V39" s="4">
-        <f t="shared" si="21"/>
+      <c r="X39" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 40</v>
       </c>
       <c r="C40">
         <v>20000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="3">
         <v>44958</v>
       </c>
-      <c r="I40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="2" t="str">
+      <c r="G40" s="3"/>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K40" s="2" t="str">
+      <c r="L40" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L40" s="2" t="str">
+      <c r="M40" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 40</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 40</v>
       </c>
-      <c r="N40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;T40,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="4" t="e">
+      <c r="Q40" s="4" t="e">
         <f>VLOOKUP(C40,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P40" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>40</v>
-      </c>
-      <c r="R40" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S40" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
+        <v>40</v>
+      </c>
+      <c r="T40" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U40" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U40" s="4">
+      <c r="V40" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V40" s="4">
-        <f t="shared" si="21"/>
+      <c r="X40" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 41</v>
       </c>
       <c r="C41">
         <v>20000000000</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="3">
         <v>44958</v>
       </c>
-      <c r="I41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="2" t="str">
+      <c r="G41" s="3"/>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K41" s="2" t="str">
+      <c r="L41" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L41" s="2" t="str">
+      <c r="M41" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 41</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 41</v>
       </c>
-      <c r="N41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;T41,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="4" t="e">
+      <c r="Q41" s="4" t="e">
         <f>VLOOKUP(C41,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P41" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>41</v>
-      </c>
-      <c r="R41" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T41" s="4">
+        <v>41</v>
+      </c>
+      <c r="T41" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U41" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U41" s="4">
+      <c r="V41" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V41" s="4">
-        <f t="shared" si="21"/>
+      <c r="X41" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 42</v>
       </c>
       <c r="C42">
         <v>20000000000</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F42" s="3">
         <v>44958</v>
       </c>
-      <c r="I42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="2" t="str">
+      <c r="G42" s="3"/>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K42" s="2" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L42" s="2" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 42</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 42</v>
       </c>
-      <c r="N42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;T42,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="4" t="e">
+      <c r="Q42" s="4" t="e">
         <f>VLOOKUP(C42,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P42" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>42</v>
-      </c>
-      <c r="R42" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T42" s="4">
+        <v>42</v>
+      </c>
+      <c r="T42" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U42" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U42" s="4">
+      <c r="V42" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V42" s="4">
-        <f t="shared" si="21"/>
+      <c r="X42" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 43</v>
       </c>
       <c r="C43">
         <v>20000000000</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F43" s="3">
         <v>44958</v>
       </c>
-      <c r="I43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="2" t="str">
+      <c r="G43" s="3"/>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K43" s="2" t="str">
+      <c r="L43" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L43" s="2" t="str">
+      <c r="M43" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 43</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 43</v>
       </c>
-      <c r="N43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;T43,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="4" t="e">
+      <c r="Q43" s="4" t="e">
         <f>VLOOKUP(C43,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P43" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>43</v>
-      </c>
-      <c r="R43" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S43" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T43" s="4">
+        <v>43</v>
+      </c>
+      <c r="T43" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U43" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U43" s="4">
+      <c r="V43" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V43" s="4">
-        <f t="shared" si="21"/>
+      <c r="X43" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 44</v>
       </c>
       <c r="C44">
         <v>20000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" s="3">
         <v>44958</v>
       </c>
-      <c r="I44" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="2" t="str">
+      <c r="G44" s="3"/>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K44" s="2" t="str">
+      <c r="L44" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L44" s="2" t="str">
+      <c r="M44" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 44</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 44</v>
       </c>
-      <c r="N44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;T44,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="4" t="e">
+      <c r="Q44" s="4" t="e">
         <f>VLOOKUP(C44,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P44" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>44</v>
-      </c>
-      <c r="R44" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T44" s="4">
+        <v>44</v>
+      </c>
+      <c r="T44" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U44" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U44" s="4">
+      <c r="V44" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V44" s="4">
-        <f t="shared" si="21"/>
+      <c r="X44" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 45</v>
       </c>
       <c r="C45">
         <v>20000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" s="3">
         <v>44958</v>
       </c>
-      <c r="I45" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2" t="str">
+      <c r="G45" s="3"/>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K45" s="2" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L45" s="2" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 45</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 45</v>
       </c>
-      <c r="N45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;T45,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="4" t="e">
+      <c r="Q45" s="4" t="e">
         <f>VLOOKUP(C45,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P45" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>45</v>
-      </c>
-      <c r="R45" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T45" s="4">
+        <v>45</v>
+      </c>
+      <c r="T45" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U45" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U45" s="4">
+      <c r="V45" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V45" s="4">
-        <f t="shared" si="21"/>
+      <c r="X45" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 46</v>
       </c>
       <c r="C46">
         <v>20000000000</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3">
         <v>44958</v>
       </c>
-      <c r="I46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="2" t="str">
+      <c r="G46" s="3"/>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K46" s="2" t="str">
+      <c r="L46" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L46" s="2" t="str">
+      <c r="M46" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 46</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 46</v>
       </c>
-      <c r="N46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;T46,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="4" t="e">
+      <c r="Q46" s="4" t="e">
         <f>VLOOKUP(C46,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P46" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>46</v>
-      </c>
-      <c r="R46" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S46" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T46" s="4">
+        <v>46</v>
+      </c>
+      <c r="T46" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U46" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U46" s="4">
+      <c r="V46" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V46" s="4">
-        <f t="shared" si="21"/>
+      <c r="X46" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 47</v>
       </c>
       <c r="C47">
         <v>20000000000</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F47" s="3">
         <v>44958</v>
       </c>
-      <c r="I47" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="2" t="str">
+      <c r="G47" s="3"/>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="L47" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="M47" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 47</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 47</v>
       </c>
-      <c r="N47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;T47,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="4" t="e">
+      <c r="Q47" s="4" t="e">
         <f>VLOOKUP(C47,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P47" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>47</v>
-      </c>
-      <c r="R47" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T47" s="4">
+        <v>47</v>
+      </c>
+      <c r="T47" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U47" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U47" s="4">
+      <c r="V47" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V47" s="4">
-        <f t="shared" si="21"/>
+      <c r="X47" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 48</v>
       </c>
       <c r="C48">
         <v>20000000000</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3">
         <v>44958</v>
       </c>
-      <c r="I48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48" s="2" t="str">
+      <c r="G48" s="3"/>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K48" s="2" t="str">
+      <c r="L48" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L48" s="2" t="str">
+      <c r="M48" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 48</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 48</v>
       </c>
-      <c r="N48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;T48,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="4" t="e">
+      <c r="Q48" s="4" t="e">
         <f>VLOOKUP(C48,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P48" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>48</v>
-      </c>
-      <c r="R48" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T48" s="4">
+        <v>48</v>
+      </c>
+      <c r="T48" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U48" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U48" s="4">
+      <c r="V48" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V48" s="4">
-        <f t="shared" si="21"/>
+      <c r="X48" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 49</v>
       </c>
       <c r="C49">
         <v>20000000000</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="3">
         <v>44958</v>
       </c>
-      <c r="I49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="2" t="str">
+      <c r="G49" s="3"/>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K49" s="2" t="str">
+      <c r="L49" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L49" s="2" t="str">
+      <c r="M49" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 49</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 49</v>
       </c>
-      <c r="N49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;T49,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="4" t="e">
+      <c r="Q49" s="4" t="e">
         <f>VLOOKUP(C49,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P49" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>49</v>
-      </c>
-      <c r="R49" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T49" s="4">
+        <v>49</v>
+      </c>
+      <c r="T49" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U49" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U49" s="4">
+      <c r="V49" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V49" s="4">
-        <f t="shared" si="21"/>
+      <c r="X49" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 50</v>
       </c>
       <c r="C50">
         <v>20000000000</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F50" s="3">
         <v>44958</v>
       </c>
-      <c r="I50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="2" t="str">
+      <c r="G50" s="3"/>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K50" s="2" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L50" s="2" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 50</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 50</v>
       </c>
-      <c r="N50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;T50,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="4" t="e">
+      <c r="Q50" s="4" t="e">
         <f>VLOOKUP(C50,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P50" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" s="4">
+      <c r="R50" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>50</v>
-      </c>
-      <c r="R50" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T50" s="4">
+        <v>50</v>
+      </c>
+      <c r="T50" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U50" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U50" s="4">
+      <c r="V50" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V50" s="4">
-        <f t="shared" si="21"/>
+      <c r="X50" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 51</v>
       </c>
       <c r="C51">
         <v>20000000000</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="3">
         <v>44958</v>
       </c>
-      <c r="I51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="2" t="str">
+      <c r="G51" s="3"/>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K51" s="2" t="str">
+      <c r="L51" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L51" s="2" t="str">
+      <c r="M51" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 51</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="M51" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 51</v>
       </c>
-      <c r="N51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;T51,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="4" t="e">
+      <c r="Q51" s="4" t="e">
         <f>VLOOKUP(C51,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P51" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>51</v>
-      </c>
-      <c r="R51" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T51" s="4">
+        <v>51</v>
+      </c>
+      <c r="T51" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U51" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U51" s="4">
+      <c r="V51" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V51" s="4">
-        <f t="shared" si="21"/>
+      <c r="X51" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 52</v>
       </c>
       <c r="C52">
         <v>20000000000</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="3">
         <v>44958</v>
       </c>
-      <c r="I52" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="2" t="str">
+      <c r="G52" s="3"/>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K52" s="2" t="str">
+      <c r="L52" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L52" s="2" t="str">
+      <c r="M52" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 52</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="M52" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 52</v>
       </c>
-      <c r="N52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;T52,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="4" t="e">
+      <c r="Q52" s="4" t="e">
         <f>VLOOKUP(C52,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P52" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>52</v>
-      </c>
-      <c r="R52" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S52" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T52" s="4">
+        <v>52</v>
+      </c>
+      <c r="T52" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U52" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U52" s="4">
+      <c r="V52" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W52" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V52" s="4">
-        <f t="shared" si="21"/>
+      <c r="X52" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 53</v>
       </c>
       <c r="C53">
         <v>20000000000</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F53" s="3">
         <v>44958</v>
       </c>
-      <c r="I53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="2" t="str">
+      <c r="G53" s="3"/>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K53" s="2" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L53" s="2" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 53</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="M53" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 53</v>
       </c>
-      <c r="N53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;T53,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="4" t="e">
+      <c r="Q53" s="4" t="e">
         <f>VLOOKUP(C53,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P53" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" s="4">
+      <c r="R53" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>53</v>
-      </c>
-      <c r="R53" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S53" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T53" s="4">
+        <v>53</v>
+      </c>
+      <c r="T53" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U53" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U53" s="4">
+      <c r="V53" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W53" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V53" s="4">
-        <f t="shared" si="21"/>
+      <c r="X53" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 54</v>
       </c>
       <c r="C54">
         <v>20000000000</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="3">
         <v>44958</v>
       </c>
-      <c r="I54" t="s">
-        <v>30</v>
-      </c>
-      <c r="J54" s="2" t="str">
+      <c r="G54" s="3"/>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K54" s="2" t="str">
+      <c r="L54" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L54" s="2" t="str">
+      <c r="M54" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 54</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="M54" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 54</v>
       </c>
-      <c r="N54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;T54,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="4" t="e">
+      <c r="Q54" s="4" t="e">
         <f>VLOOKUP(C54,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P54" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>54</v>
-      </c>
-      <c r="R54" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T54" s="4">
+        <v>54</v>
+      </c>
+      <c r="T54" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U54" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U54" s="4">
+      <c r="V54" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W54" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V54" s="4">
-        <f t="shared" si="21"/>
+      <c r="X54" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 55</v>
       </c>
       <c r="C55">
         <v>20000000000</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" s="3">
         <v>44958</v>
       </c>
-      <c r="I55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J55" s="2" t="str">
+      <c r="G55" s="3"/>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K55" s="2" t="str">
+      <c r="L55" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L55" s="2" t="str">
+      <c r="M55" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 55</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="M55" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 55</v>
       </c>
-      <c r="N55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;T55,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="4" t="e">
+      <c r="Q55" s="4" t="e">
         <f>VLOOKUP(C55,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P55" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>55</v>
-      </c>
-      <c r="R55" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S55" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T55" s="4">
+        <v>55</v>
+      </c>
+      <c r="T55" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U55" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U55" s="4">
+      <c r="V55" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W55" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V55" s="4">
-        <f t="shared" si="21"/>
+      <c r="X55" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 56</v>
       </c>
       <c r="C56">
         <v>20000000000</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F56" s="3">
         <v>44958</v>
       </c>
-      <c r="I56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="2" t="str">
+      <c r="G56" s="3"/>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K56" s="2" t="str">
+      <c r="L56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L56" s="2" t="str">
+      <c r="M56" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 56</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="M56" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 56</v>
       </c>
-      <c r="N56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;T56,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="4" t="e">
+      <c r="Q56" s="4" t="e">
         <f>VLOOKUP(C56,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P56" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="R56" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
-      <c r="R56" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S56" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T56" s="4">
+        <v>56</v>
+      </c>
+      <c r="T56" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U56" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U56" s="4">
+      <c r="V56" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W56" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V56" s="4">
-        <f t="shared" si="21"/>
+      <c r="X56" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 57</v>
       </c>
       <c r="C57">
         <v>20000000000</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" s="3">
         <v>44958</v>
       </c>
-      <c r="I57" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="2" t="str">
+      <c r="G57" s="3"/>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K57" s="2" t="str">
+      <c r="L57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L57" s="2" t="str">
+      <c r="M57" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 57</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="M57" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 57</v>
       </c>
-      <c r="N57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;T57,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="4" t="e">
+      <c r="Q57" s="4" t="e">
         <f>VLOOKUP(C57,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P57" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>57</v>
-      </c>
-      <c r="R57" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T57" s="4">
+        <v>57</v>
+      </c>
+      <c r="T57" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U57" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U57" s="4">
+      <c r="V57" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V57" s="4">
-        <f t="shared" si="21"/>
+      <c r="X57" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 58</v>
       </c>
       <c r="C58">
         <v>20000000000</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" s="3">
         <v>44958</v>
       </c>
-      <c r="I58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58" s="2" t="str">
+      <c r="G58" s="3"/>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K58" s="2" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L58" s="2" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 58</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="M58" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 58</v>
       </c>
-      <c r="N58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;T58,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="4" t="e">
+      <c r="Q58" s="4" t="e">
         <f>VLOOKUP(C58,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P58" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="4">
+      <c r="R58" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>58</v>
-      </c>
-      <c r="R58" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S58" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T58" s="4">
+        <v>58</v>
+      </c>
+      <c r="T58" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U58" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U58" s="4">
+      <c r="V58" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V58" s="4">
-        <f t="shared" si="21"/>
+      <c r="X58" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 59</v>
       </c>
       <c r="C59">
         <v>20000000000</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" s="3">
         <v>44958</v>
       </c>
-      <c r="I59" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="2" t="str">
+      <c r="G59" s="3"/>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K59" s="2" t="str">
+      <c r="L59" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L59" s="2" t="str">
+      <c r="M59" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 59</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="M59" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 59</v>
       </c>
-      <c r="N59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;T59,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="4" t="e">
+      <c r="Q59" s="4" t="e">
         <f>VLOOKUP(C59,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P59" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" s="4">
+      <c r="R59" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>59</v>
-      </c>
-      <c r="R59" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T59" s="4">
+        <v>59</v>
+      </c>
+      <c r="T59" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U59" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U59" s="4">
+      <c r="V59" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V59" s="4">
-        <f t="shared" si="21"/>
+      <c r="X59" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 60</v>
       </c>
       <c r="C60">
         <v>20000000000</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F60" s="3">
         <v>44958</v>
       </c>
-      <c r="I60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60" s="2" t="str">
+      <c r="G60" s="3"/>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K60" s="2" t="str">
+      <c r="L60" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L60" s="2" t="str">
+      <c r="M60" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 60</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="M60" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 60</v>
       </c>
-      <c r="N60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;T60,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="4" t="e">
+      <c r="Q60" s="4" t="e">
         <f>VLOOKUP(C60,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P60" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>60</v>
-      </c>
-      <c r="R60" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T60" s="4">
+        <v>60</v>
+      </c>
+      <c r="T60" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U60" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U60" s="4">
+      <c r="V60" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W60" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V60" s="4">
-        <f t="shared" si="21"/>
+      <c r="X60" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 61</v>
       </c>
       <c r="C61">
         <v>20000000000</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" s="3">
         <v>44958</v>
       </c>
-      <c r="I61" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="2" t="str">
+      <c r="G61" s="3"/>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K61" s="2" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L61" s="2" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 61</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="M61" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 61</v>
       </c>
-      <c r="N61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;T61,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="4" t="e">
+      <c r="Q61" s="4" t="e">
         <f>VLOOKUP(C61,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P61" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>61</v>
-      </c>
-      <c r="R61" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T61" s="4">
+        <v>61</v>
+      </c>
+      <c r="T61" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U61" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U61" s="4">
+      <c r="V61" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V61" s="4">
-        <f t="shared" si="21"/>
+      <c r="X61" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 62</v>
       </c>
       <c r="C62">
         <v>20000000000</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F62" s="3">
         <v>44958</v>
       </c>
-      <c r="I62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62" s="2" t="str">
+      <c r="G62" s="3"/>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K62" s="2" t="str">
+      <c r="L62" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L62" s="2" t="str">
+      <c r="M62" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 62</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="M62" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 62</v>
       </c>
-      <c r="N62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;T62,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="4" t="e">
+      <c r="Q62" s="4" t="e">
         <f>VLOOKUP(C62,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P62" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" s="4">
+      <c r="R62" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>62</v>
-      </c>
-      <c r="R62" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S62" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T62" s="4">
+        <v>62</v>
+      </c>
+      <c r="T62" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U62" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U62" s="4">
+      <c r="V62" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W62" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V62" s="4">
-        <f t="shared" si="21"/>
+      <c r="X62" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 63</v>
       </c>
       <c r="C63">
         <v>20000000000</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F63" s="3">
         <v>44958</v>
       </c>
-      <c r="I63" t="s">
-        <v>30</v>
-      </c>
-      <c r="J63" s="2" t="str">
+      <c r="G63" s="3"/>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K63" s="2" t="str">
+      <c r="L63" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L63" s="2" t="str">
+      <c r="M63" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 63</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="M63" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 63</v>
       </c>
-      <c r="N63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;T63,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="4" t="e">
+      <c r="Q63" s="4" t="e">
         <f>VLOOKUP(C63,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P63" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="R63" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S63" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T63" s="4">
+        <v>63</v>
+      </c>
+      <c r="T63" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U63" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V63" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W63" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V63" s="4">
-        <f t="shared" si="21"/>
+      <c r="X63" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 64</v>
       </c>
       <c r="C64">
         <v>20000000000</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F64" s="3">
         <v>44958</v>
       </c>
-      <c r="I64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J64" s="2" t="str">
+      <c r="G64" s="3"/>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K64" s="2" t="str">
+      <c r="L64" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L64" s="2" t="str">
+      <c r="M64" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 64</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="M64" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 64</v>
       </c>
-      <c r="N64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;T64,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="4" t="e">
+      <c r="Q64" s="4" t="e">
         <f>VLOOKUP(C64,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P64" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="R64" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S64" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T64" s="4">
+        <v>64</v>
+      </c>
+      <c r="T64" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U64" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U64" s="4">
+      <c r="V64" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W64" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V64" s="4">
-        <f t="shared" si="21"/>
+      <c r="X64" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 65</v>
       </c>
       <c r="C65">
         <v>20000000000</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F65" s="3">
         <v>44958</v>
       </c>
-      <c r="I65" t="s">
-        <v>30</v>
-      </c>
-      <c r="J65" s="2" t="str">
+      <c r="G65" s="3"/>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K65" s="2" t="str">
+      <c r="L65" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L65" s="2" t="str">
+      <c r="M65" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 65</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="M65" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 65</v>
       </c>
-      <c r="N65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;T65,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="4" t="e">
+      <c r="Q65" s="4" t="e">
         <f>VLOOKUP(C65,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P65" s="5" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q65" s="4">
+      <c r="R65" s="5" t="e">
         <f t="shared" si="17"/>
-        <v>65</v>
-      </c>
-      <c r="R65" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+        <v>#N/A</v>
       </c>
       <c r="S65" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T65" s="4">
+        <v>65</v>
+      </c>
+      <c r="T65" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U65" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U65" s="4">
+      <c r="V65" s="4">
         <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="V65" s="4">
-        <f t="shared" si="21"/>
+      <c r="X65" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Nombre del cliente 66</v>
       </c>
       <c r="C66">
         <v>20000000000</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" s="3">
         <v>44958</v>
       </c>
-      <c r="I66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J66" s="2" t="str">
+      <c r="G66" s="3"/>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="2" t="str">
         <f t="shared" si="9"/>
         <v>01022023</v>
       </c>
-      <c r="K66" s="2" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="10"/>
         <v>28022023</v>
       </c>
-      <c r="L66" s="2" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="11"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 66</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="M66" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 66</v>
       </c>
-      <c r="N66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;T66,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="4" t="e">
+      <c r="Q66" s="4" t="e">
         <f>VLOOKUP(C66,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P66" s="5" t="e">
-        <f t="shared" ref="P66:P69" si="22">IF(EXACT(O66,E66),"ü","x")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" s="4">
-        <f t="shared" si="17"/>
-        <v>66</v>
-      </c>
-      <c r="R66" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>202302</v>
+      <c r="R66" s="5" t="e">
+        <f t="shared" ref="R66:R69" si="23">IF(EXACT(Q66,E66),"ü","x")</f>
+        <v>#N/A</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T66" s="4">
+        <v>66</v>
+      </c>
+      <c r="T66" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>202302</v>
+      </c>
+      <c r="U66" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U66" s="4">
-        <f t="shared" ref="U66:U69" si="23">SUM(S66:T66)</f>
+      <c r="V66" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" ref="W66:W69" si="24">SUM(U66:V66)</f>
         <v>2</v>
       </c>
-      <c r="V66" s="4">
-        <f t="shared" si="21"/>
+      <c r="X66" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B69" si="24">"Nombre del cliente "&amp;Q67</f>
+        <f t="shared" ref="B67:B69" si="25">"Nombre del cliente "&amp;S67</f>
         <v>Nombre del cliente 67</v>
       </c>
       <c r="C67">
         <v>20000000000</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="3">
         <v>44958</v>
       </c>
-      <c r="I67" t="s">
-        <v>30</v>
-      </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" si="25">TEXT(DAY(F67),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
+      <c r="G67" s="3"/>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K69" si="26">TEXT(DAY(F67),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>01022023</v>
       </c>
-      <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K69" si="26">TEXT(DAY(EOMONTH(F67,0)),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L69" si="27">TEXT(DAY(EOMONTH(F67,0)),"00")&amp;TEXT(MONTH(F67),"00")&amp;TEXT(YEAR(F67),"00")</f>
         <v>28022023</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="27">CONCATENATE(TEXT(A67,"0")," - ",L$1," - ",YEAR(F67),TEXT(MONTH(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="28">CONCATENATE(TEXT(A67,"0")," - ",M$1," - ",T67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 67</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N69" si="29">CONCATENATE(TEXT(A67,"0")," - ",N$1," - ",YEAR(F67),TEXT(MONTH(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M69" si="28">CONCATENATE(TEXT(A67,"0")," - ",M$1," - ",R67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="O67" s="2" t="str">
+        <f t="shared" ref="O67:O69" si="30">CONCATENATE(TEXT(A67,"0")," - ",O$1," - ",T67," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 67</v>
       </c>
-      <c r="N67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;T67,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="4" t="e">
+      <c r="Q67" s="4" t="e">
         <f>VLOOKUP(C67,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P67" s="5" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q67" s="4">
-        <f t="shared" si="17"/>
-        <v>67</v>
-      </c>
-      <c r="R67" s="2" t="str">
-        <f t="shared" ref="R67:R69" si="29">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
-        <v>202302</v>
+      <c r="R67" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
       </c>
       <c r="S67" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T67" s="4">
+        <v>67</v>
+      </c>
+      <c r="T67" s="2" t="str">
+        <f t="shared" ref="T67:T69" si="31">YEAR(F67)&amp;TEXT(MONTH(F67),"00")</f>
+        <v>202302</v>
+      </c>
+      <c r="U67" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U67" s="4">
-        <f t="shared" si="23"/>
+      <c r="V67" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W67" s="4">
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="V67" s="4">
-        <f t="shared" si="21"/>
+      <c r="X67" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Nombre del cliente 68</v>
       </c>
       <c r="C68">
         <v>20000000000</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F68" s="3">
         <v>44958</v>
       </c>
-      <c r="I68" t="s">
-        <v>30</v>
-      </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>01022023</v>
+      <c r="G68" s="3"/>
+      <c r="J68" t="s">
+        <v>29</v>
       </c>
       <c r="K68" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>28022023</v>
+        <v>01022023</v>
       </c>
       <c r="L68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
+        <v>28022023</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="28"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 68</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 68</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="30"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 68</v>
       </c>
-      <c r="N68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;T68,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O68" s="4" t="e">
+      <c r="Q68" s="4" t="e">
         <f>VLOOKUP(C68,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P68" s="5" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q68" s="4">
-        <f t="shared" si="17"/>
-        <v>68</v>
-      </c>
-      <c r="R68" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>202302</v>
+      <c r="R68" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
       </c>
       <c r="S68" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T68" s="4">
+        <v>68</v>
+      </c>
+      <c r="T68" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>202302</v>
+      </c>
+      <c r="U68" s="4">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U68" s="4">
-        <f t="shared" si="23"/>
+      <c r="V68" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W68" s="4">
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="V68" s="4">
-        <f t="shared" si="21"/>
+      <c r="X68" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Nombre del cliente 69</v>
       </c>
       <c r="C69">
         <v>20000000000</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F69" s="3">
         <v>44958</v>
       </c>
-      <c r="I69" t="s">
-        <v>30</v>
-      </c>
-      <c r="J69" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>01022023</v>
+      <c r="G69" s="3"/>
+      <c r="J69" t="s">
+        <v>29</v>
       </c>
       <c r="K69" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>28022023</v>
+        <v>01022023</v>
       </c>
       <c r="L69" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
+        <v>28022023</v>
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="28"/>
+        <v>0 - 767 Aduanera - 202302 - 33000000000 - Nombre del cliente 69</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>0 - 767 - 202302 - 33000000000 - Nombre del cliente 69</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="30"/>
         <v>0 - 216 - 202302 - 33000000000 - Nombre del cliente 69</v>
       </c>
-      <c r="N69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
+      <c r="P69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;T69,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="4" t="e">
+      <c r="Q69" s="4" t="e">
         <f>VLOOKUP(C69,[3]Hoja1!$J:$L,3,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="P69" s="5" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q69" s="4">
-        <f t="shared" si="17"/>
-        <v>69</v>
-      </c>
-      <c r="R69" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>202302</v>
+      <c r="R69" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
       </c>
       <c r="S69" s="4">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T69" s="4">
+        <v>69</v>
+      </c>
+      <c r="T69" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>202302</v>
+      </c>
+      <c r="U69" s="4">
         <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="4">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U69" s="4">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="V69" s="4">
-        <f t="shared" si="21"/>
+      <c r="W69" s="4">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
+  <autoFilter ref="A1:X69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I69" xr:uid="{02408F5B-C6F6-4B3C-BAB1-FB5714DC1501}">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J69" xr:uid="{02408F5B-C6F6-4B3C-BAB1-FB5714DC1501}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G69" xr:uid="{E8E7C6B7-3668-405B-B2DE-52C05E735BD1}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8706,22 +9069,22 @@
   <sheetData>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
